--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
-    <sheet name="Settings" sheetId="5" r:id="rId2"/>
+    <sheet name="Settings" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Version Control" sheetId="6" r:id="rId3"/>
-    <sheet name="Lists" sheetId="7" r:id="rId4"/>
-    <sheet name="Order List" sheetId="8" r:id="rId5"/>
+    <sheet name="Lists" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Order List" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="2097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="2090">
   <si>
     <t>Colour 1</t>
   </si>
@@ -638,9 +638,6 @@
     <t>Roy Darwood</t>
   </si>
   <si>
-    <t xml:space="preserve">Bags </t>
-  </si>
-  <si>
     <t>2224</t>
   </si>
   <si>
@@ -1178,6 +1175,9 @@
     <t>Craig Marchbank</t>
   </si>
   <si>
+    <t>Cable Ties</t>
+  </si>
+  <si>
     <t>3233</t>
   </si>
   <si>
@@ -6299,9 +6299,6 @@
     <t>Stock qty update and add new asset functionality</t>
   </si>
   <si>
-    <t>\\lincsfire.lincolnshire.gov.uk\folderredir$\Documents\julian.turner\Documents\RDS Project\Stores IT Project\Database\Stores IT System Dev DB v0,3.accdb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delivery To </t>
   </si>
   <si>
@@ -6317,6 +6314,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Gloves Rope Rescue </t>
+  </si>
+  <si>
     <t>11111</t>
   </si>
   <si>
@@ -6329,7 +6329,7 @@
     <t>9999</t>
   </si>
   <si>
-    <t xml:space="preserve">Cable Ties </t>
+    <t>Bags</t>
   </si>
   <si>
     <t>Gloves Surgical</t>
@@ -6338,28 +6338,7 @@
     <t>Main Control pack</t>
   </si>
   <si>
-    <t>Gloves Rope Rescue</t>
-  </si>
-  <si>
-    <t>Improved size list counting to prevent empty size lists</t>
-  </si>
-  <si>
-    <t>Increased height of Loss Report Form</t>
-  </si>
-  <si>
-    <t>Added Phone Order functionality</t>
-  </si>
-  <si>
-    <t>Moved error log to System files folder</t>
-  </si>
-  <si>
-    <t>Added location to Stores Order Print Form</t>
-  </si>
-  <si>
-    <t>Changed start up so always starts at menu item 1</t>
-  </si>
-  <si>
-    <t>v0,34</t>
+    <t>T:\Stores IT Project\System Files\Stores IT System Test DB v0,3.accdb</t>
   </si>
 </sst>
 </file>
@@ -7223,7 +7202,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2428" name="Main Screen"/>
+        <xdr:cNvPr id="13" name="Main Screen"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8530,7 +8509,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2430" name="MenuBar"/>
+        <xdr:cNvPr id="15" name="MenuBar"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8622,7 +8601,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2429" name="Rectangle 2428" hidden="1"/>
+        <xdr:cNvPr id="14" name="Rectangle 13" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8676,7 +8655,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2431" name="MenuItem - My Station"/>
+        <xdr:cNvPr id="16" name="MenuItem - My Station"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8765,7 +8744,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="544" name="Icon - My Station"/>
+        <xdr:cNvPr id="41" name="Icon - My Station"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8814,7 +8793,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="545" name="MenuItem - Stores"/>
+        <xdr:cNvPr id="17" name="MenuItem - Stores"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8903,7 +8882,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="546" name="Icon - Stores"/>
+        <xdr:cNvPr id="43" name="Icon - Stores"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8952,7 +8931,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="547" name="MenuItem - Reports"/>
+        <xdr:cNvPr id="18" name="MenuItem - Reports"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9041,7 +9020,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="548" name="Icon - Reports"/>
+        <xdr:cNvPr id="45" name="Icon - Reports"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9090,7 +9069,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="549" name="MenuItem - My Profile"/>
+        <xdr:cNvPr id="19" name="MenuItem - My Profile"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9179,7 +9158,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="550" name="Icon - My Profile"/>
+        <xdr:cNvPr id="47" name="Icon - My Profile"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9228,7 +9207,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="551" name="MenuItem - Support"/>
+        <xdr:cNvPr id="20" name="MenuItem - Support"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9317,7 +9296,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="552" name="Icon - Support"/>
+        <xdr:cNvPr id="49" name="Icon - Support"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9371,7 +9350,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="554" name="Main Frame"/>
+        <xdr:cNvPr id="22" name="Main Frame"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9463,7 +9442,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="553" name="Main Frame Header"/>
+        <xdr:cNvPr id="21" name="Main Frame Header"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9552,7 +9531,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="560" name="Main Frame Icon"/>
+        <xdr:cNvPr id="57" name="Main Frame Icon"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10306,7 +10285,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="556" name="Left Frame"/>
+        <xdr:cNvPr id="24" name="Left Frame"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10398,7 +10377,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="555" name="Left Frame Header"/>
+        <xdr:cNvPr id="23" name="Left Frame Header"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10487,7 +10466,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="561" name="Left Frame Icon"/>
+        <xdr:cNvPr id="58" name="Left Frame Icon"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10525,7 +10504,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="558" name="Right Frame"/>
+        <xdr:cNvPr id="26" name="Right Frame"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10617,7 +10596,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="557" name="Right Frame Header"/>
+        <xdr:cNvPr id="25" name="Right Frame Header"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10706,7 +10685,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="562" name="Right Frame Icon"/>
+        <xdr:cNvPr id="59" name="Right Frame Icon"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10744,7 +10723,7 @@
     </xdr:to>
     <xdr:sp macro="'moduimenu.ProcessBtnPress(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="559" name="New Order Button"/>
+        <xdr:cNvPr id="27" name="New Order Button"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10839,7 +10818,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="563" name="New_Order_Button"/>
+        <xdr:cNvPr id="60" name="New_Order_Button"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20285,7 +20264,7 @@
         <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>2076</v>
+        <v>2089</v>
       </c>
     </row>
   </sheetData>
@@ -20304,8 +20283,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
+        <control shapeId="2052" r:id="rId5" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -20324,32 +20328,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId7" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20736,7 +20715,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20871,61 +20850,45 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>2096</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>2074</v>
-      </c>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="25" t="s">
-        <v>2090</v>
-      </c>
+      <c r="D10" s="25"/>
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="25" t="s">
-        <v>2091</v>
-      </c>
+      <c r="D11" s="25"/>
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="25" t="s">
-        <v>2092</v>
-      </c>
+      <c r="D12" s="25"/>
       <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="25" t="s">
-        <v>2093</v>
-      </c>
+      <c r="D13" s="25"/>
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="25" t="s">
-        <v>2094</v>
-      </c>
+      <c r="D14" s="25"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
-        <v>2095</v>
-      </c>
+      <c r="D15" s="25"/>
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -21804,727 +21767,727 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C44" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="D44" t="s">
         <v>190</v>
-      </c>
-      <c r="D44" t="s">
-        <v>191</v>
       </c>
       <c r="V44" s="33"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="D45" t="s">
         <v>193</v>
-      </c>
-      <c r="D45" t="s">
-        <v>194</v>
       </c>
       <c r="V45" s="33"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="D46" t="s">
         <v>196</v>
-      </c>
-      <c r="D46" t="s">
-        <v>197</v>
       </c>
       <c r="V46" s="33"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="D47" t="s">
         <v>199</v>
-      </c>
-      <c r="D47" t="s">
-        <v>200</v>
       </c>
       <c r="V47" s="33"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="D48" t="s">
         <v>202</v>
-      </c>
-      <c r="D48" t="s">
-        <v>203</v>
       </c>
       <c r="V48" s="33"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="D49" t="s">
         <v>205</v>
-      </c>
-      <c r="D49" t="s">
-        <v>206</v>
       </c>
       <c r="V49" s="33"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="D50" t="s">
         <v>208</v>
-      </c>
-      <c r="D50" t="s">
-        <v>209</v>
       </c>
       <c r="V50" s="33"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="D51" t="s">
         <v>211</v>
-      </c>
-      <c r="D51" t="s">
-        <v>212</v>
       </c>
       <c r="V51" s="33"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="D52" t="s">
         <v>214</v>
-      </c>
-      <c r="D52" t="s">
-        <v>215</v>
       </c>
       <c r="V52" s="33"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="D53" t="s">
         <v>217</v>
-      </c>
-      <c r="D53" t="s">
-        <v>218</v>
       </c>
       <c r="V53" s="33"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="D54" t="s">
         <v>220</v>
-      </c>
-      <c r="D54" t="s">
-        <v>221</v>
       </c>
       <c r="V54" s="33"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="D55" t="s">
         <v>223</v>
-      </c>
-      <c r="D55" t="s">
-        <v>224</v>
       </c>
       <c r="V55" s="33"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="D56" t="s">
         <v>226</v>
-      </c>
-      <c r="D56" t="s">
-        <v>227</v>
       </c>
       <c r="V56" s="33"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="D57" t="s">
         <v>229</v>
-      </c>
-      <c r="D57" t="s">
-        <v>230</v>
       </c>
       <c r="V57" s="33"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="D58" t="s">
         <v>232</v>
-      </c>
-      <c r="D58" t="s">
-        <v>233</v>
       </c>
       <c r="V58" s="33"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="D59" t="s">
         <v>235</v>
-      </c>
-      <c r="D59" t="s">
-        <v>236</v>
       </c>
       <c r="V59" s="33"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="D60" t="s">
         <v>238</v>
-      </c>
-      <c r="D60" t="s">
-        <v>239</v>
       </c>
       <c r="V60" s="33"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="D61" t="s">
         <v>241</v>
-      </c>
-      <c r="D61" t="s">
-        <v>242</v>
       </c>
       <c r="V61" s="33"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="D62" t="s">
         <v>244</v>
-      </c>
-      <c r="D62" t="s">
-        <v>245</v>
       </c>
       <c r="V62" s="33"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="D63" t="s">
         <v>247</v>
-      </c>
-      <c r="D63" t="s">
-        <v>248</v>
       </c>
       <c r="V63" s="33"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="D64" t="s">
         <v>250</v>
-      </c>
-      <c r="D64" t="s">
-        <v>251</v>
       </c>
       <c r="V64" s="33"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="D65" t="s">
         <v>253</v>
-      </c>
-      <c r="D65" t="s">
-        <v>254</v>
       </c>
       <c r="V65" s="33"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="D66" t="s">
         <v>256</v>
-      </c>
-      <c r="D66" t="s">
-        <v>257</v>
       </c>
       <c r="V66" s="33"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="D67" t="s">
         <v>259</v>
-      </c>
-      <c r="D67" t="s">
-        <v>260</v>
       </c>
       <c r="V67" s="33"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="D68" t="s">
         <v>262</v>
-      </c>
-      <c r="D68" t="s">
-        <v>263</v>
       </c>
       <c r="V68" s="33"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="D69" t="s">
         <v>265</v>
-      </c>
-      <c r="D69" t="s">
-        <v>266</v>
       </c>
       <c r="V69" s="33"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="D70" t="s">
         <v>268</v>
-      </c>
-      <c r="D70" t="s">
-        <v>269</v>
       </c>
       <c r="V70" s="33"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="D71" t="s">
         <v>271</v>
-      </c>
-      <c r="D71" t="s">
-        <v>272</v>
       </c>
       <c r="V71" s="33"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="D72" t="s">
         <v>274</v>
-      </c>
-      <c r="D72" t="s">
-        <v>275</v>
       </c>
       <c r="V72" s="33"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="D73" t="s">
         <v>277</v>
-      </c>
-      <c r="D73" t="s">
-        <v>278</v>
       </c>
       <c r="V73" s="33"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C74" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="D74" t="s">
         <v>280</v>
-      </c>
-      <c r="D74" t="s">
-        <v>281</v>
       </c>
       <c r="V74" s="33"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C75" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="D75" t="s">
         <v>283</v>
-      </c>
-      <c r="D75" t="s">
-        <v>284</v>
       </c>
       <c r="V75" s="33"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C76" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="D76" t="s">
         <v>286</v>
-      </c>
-      <c r="D76" t="s">
-        <v>287</v>
       </c>
       <c r="V76" s="33"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="D77" t="s">
         <v>289</v>
-      </c>
-      <c r="D77" t="s">
-        <v>290</v>
       </c>
       <c r="V77" s="33"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="D78" t="s">
         <v>292</v>
-      </c>
-      <c r="D78" t="s">
-        <v>293</v>
       </c>
       <c r="V78" s="33"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="D79" t="s">
         <v>295</v>
-      </c>
-      <c r="D79" t="s">
-        <v>296</v>
       </c>
       <c r="V79" s="33"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="D80" t="s">
         <v>298</v>
-      </c>
-      <c r="D80" t="s">
-        <v>299</v>
       </c>
       <c r="V80" s="33"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="D81" t="s">
         <v>301</v>
-      </c>
-      <c r="D81" t="s">
-        <v>302</v>
       </c>
       <c r="V81" s="33"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C82" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="D82" t="s">
         <v>304</v>
-      </c>
-      <c r="D82" t="s">
-        <v>305</v>
       </c>
       <c r="V82" s="33"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="D83" t="s">
         <v>307</v>
-      </c>
-      <c r="D83" t="s">
-        <v>308</v>
       </c>
       <c r="V83" s="33"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C84" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="D84" t="s">
         <v>310</v>
-      </c>
-      <c r="D84" t="s">
-        <v>311</v>
       </c>
       <c r="V84" s="33"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="D85" t="s">
         <v>313</v>
-      </c>
-      <c r="D85" t="s">
-        <v>314</v>
       </c>
       <c r="V85" s="33"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C86" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="D86" t="s">
         <v>316</v>
-      </c>
-      <c r="D86" t="s">
-        <v>317</v>
       </c>
       <c r="V86" s="33"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="D87" t="s">
         <v>319</v>
-      </c>
-      <c r="D87" t="s">
-        <v>320</v>
       </c>
       <c r="V87" s="33"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C88" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="D88" t="s">
         <v>322</v>
-      </c>
-      <c r="D88" t="s">
-        <v>323</v>
       </c>
       <c r="V88" s="33"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C89" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="D89" t="s">
         <v>325</v>
-      </c>
-      <c r="D89" t="s">
-        <v>326</v>
       </c>
       <c r="V89" s="33"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C90" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="D90" t="s">
         <v>328</v>
-      </c>
-      <c r="D90" t="s">
-        <v>329</v>
       </c>
       <c r="V90" s="33"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="D91" t="s">
         <v>331</v>
-      </c>
-      <c r="D91" t="s">
-        <v>332</v>
       </c>
       <c r="V91" s="33"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="D92" t="s">
         <v>334</v>
-      </c>
-      <c r="D92" t="s">
-        <v>335</v>
       </c>
       <c r="V92" s="33"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C93" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="D93" t="s">
         <v>337</v>
-      </c>
-      <c r="D93" t="s">
-        <v>338</v>
       </c>
       <c r="V93" s="33"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="C94" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="D94" t="s">
         <v>340</v>
-      </c>
-      <c r="D94" t="s">
-        <v>341</v>
       </c>
       <c r="V94" s="33"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="C95" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="C95" s="32" t="s">
+      <c r="D95" t="s">
         <v>343</v>
-      </c>
-      <c r="D95" t="s">
-        <v>344</v>
       </c>
       <c r="V95" s="33"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C96" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D96" t="s">
         <v>346</v>
-      </c>
-      <c r="D96" t="s">
-        <v>347</v>
       </c>
       <c r="V96" s="33"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C97" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D97" t="s">
         <v>349</v>
-      </c>
-      <c r="D97" t="s">
-        <v>350</v>
       </c>
       <c r="V97" s="33"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C98" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D98" t="s">
         <v>352</v>
-      </c>
-      <c r="D98" t="s">
-        <v>353</v>
       </c>
       <c r="V98" s="33"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C99" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D99" t="s">
         <v>355</v>
-      </c>
-      <c r="D99" t="s">
-        <v>356</v>
       </c>
       <c r="V99" s="33"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C100" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D100" t="s">
         <v>358</v>
-      </c>
-      <c r="D100" t="s">
-        <v>359</v>
       </c>
       <c r="V100" s="33"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C101" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D101" t="s">
         <v>361</v>
-      </c>
-      <c r="D101" t="s">
-        <v>362</v>
       </c>
       <c r="V101" s="33"/>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C102" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="D102" t="s">
         <v>364</v>
-      </c>
-      <c r="D102" t="s">
-        <v>365</v>
       </c>
       <c r="V102" s="33"/>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C103" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="D103" t="s">
         <v>367</v>
-      </c>
-      <c r="D103" t="s">
-        <v>368</v>
       </c>
       <c r="V103" s="33"/>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>369</v>
@@ -22536,7 +22499,7 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>2086</v>
+        <v>368</v>
       </c>
       <c r="C105" s="32" t="s">
         <v>372</v>
@@ -24684,7 +24647,7 @@
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="31" t="s">
-        <v>2089</v>
+        <v>2081</v>
       </c>
       <c r="C284" s="32" t="s">
         <v>905</v>
@@ -31127,7 +31090,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="35" t="s">
@@ -31157,10 +31120,10 @@
         <v>2064</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="I5" s="50" t="b">
         <v>1</v>
@@ -31168,7 +31131,7 @@
     </row>
     <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="46">
@@ -31177,7 +31140,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
       <c r="G6" s="54" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>2069</v>
@@ -32146,7 +32109,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5152" r:id="rId24" name="Check Box 32">
+            <control shapeId="5152" r:id="rId24" name="$H$15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32168,7 +32131,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5153" r:id="rId25" name="Check Box 33">
+            <control shapeId="5153" r:id="rId25" name="$H$16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32190,7 +32153,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5154" r:id="rId26" name="Check Box 34">
+            <control shapeId="5154" r:id="rId26" name="$H$17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32212,7 +32175,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5155" r:id="rId27" name="Check Box 35">
+            <control shapeId="5155" r:id="rId27" name="$H$18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32234,7 +32197,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5156" r:id="rId28" name="Check Box 36">
+            <control shapeId="5156" r:id="rId28" name="$H$19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32256,7 +32219,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5157" r:id="rId29" name="Check Box 37">
+            <control shapeId="5157" r:id="rId29" name="$H$20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32278,7 +32241,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5158" r:id="rId30" name="Check Box 38">
+            <control shapeId="5158" r:id="rId30" name="$H$21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32300,7 +32263,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5159" r:id="rId31" name="Check Box 39">
+            <control shapeId="5159" r:id="rId31" name="$H$22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32322,7 +32285,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5160" r:id="rId32" name="Check Box 40">
+            <control shapeId="5160" r:id="rId32" name="$H$23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32344,7 +32307,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5161" r:id="rId33" name="Check Box 41">
+            <control shapeId="5161" r:id="rId33" name="$H$24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32366,7 +32329,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5162" r:id="rId34" name="Check Box 42">
+            <control shapeId="5162" r:id="rId34" name="$H$25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
-    <sheet name="Settings" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="Settings" sheetId="5" r:id="rId2"/>
     <sheet name="Version Control" sheetId="6" r:id="rId3"/>
-    <sheet name="Lists" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="Order List" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="Lists" sheetId="7" r:id="rId4"/>
+    <sheet name="Order List" sheetId="8" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -6299,6 +6299,9 @@
     <t>Stock qty update and add new asset functionality</t>
   </si>
   <si>
+    <t>\\lincsfire.lincolnshire.gov.uk\folderredir$\Documents\julian.turner\Documents\RDS Project\Stores IT Project\Database\Stores IT System Dev DB v0,3.accdb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delivery To </t>
   </si>
   <si>
@@ -6336,9 +6339,6 @@
   </si>
   <si>
     <t>Main Control pack</t>
-  </si>
-  <si>
-    <t>T:\Stores IT Project\System Files\Stores IT System Test DB v0,3.accdb</t>
   </si>
 </sst>
 </file>
@@ -7187,98 +7187,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Main Screen"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127000" y="127000"/>
-          <a:ext cx="13017500" cy="10160000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="154E54"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="154E54"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
@@ -8486,2364 +8394,6 @@
         <a:xfrm>
           <a:off x="22059901" y="2314575"/>
           <a:ext cx="295071" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="MenuBar"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="127000"/>
-          <a:ext cx="1905000" cy="10160000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="MenuItem - My Station"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2413000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>My Station</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>260669</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Icon - My Station"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="20A39E"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="20A39E">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="2476500"/>
-          <a:ext cx="197169" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="MenuItem - Stores"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2794000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Stores</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>281711</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Icon - Stores"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="20A39E"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="20A39E">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="2857500"/>
-          <a:ext cx="218211" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="MenuItem - Reports"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3175000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Reports</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>224654</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Icon - Reports"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="20A39E"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="20A39E">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="3238500"/>
-          <a:ext cx="161154" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="MenuItem - My Profile"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3556000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>My Profile</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>288399</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Icon - My Profile"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="20A39E"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="20A39E">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="3619500"/>
-          <a:ext cx="224899" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(5)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="MenuItem - Support"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3937000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Support</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>290742</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Icon - Support"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="000000"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="000000">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="4000500"/>
-          <a:ext cx="227242" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Main Frame"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2222500" y="254000"/>
-          <a:ext cx="9702800" cy="2730500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Main Frame Header"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2222500" y="254000"/>
-          <a:ext cx="9702800" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Allocations - Brant Broughton</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>396775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Main Frame Icon"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11645800" y="317500"/>
-          <a:ext cx="216000" cy="216000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3248025"/>
-            <a:gd name="connsiteY0" fmla="*/ 1609725 h 3219450"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3248025"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3219450"/>
-            <a:gd name="connsiteX2" fmla="*/ 3248026 w 3248025"/>
-            <a:gd name="connsiteY2" fmla="*/ 1609725 h 3219450"/>
-            <a:gd name="connsiteX3" fmla="*/ 1624013 w 3248025"/>
-            <a:gd name="connsiteY3" fmla="*/ 3219450 h 3219450"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3248025"/>
-            <a:gd name="connsiteY4" fmla="*/ 1609725 h 3219450"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3352584"/>
-            <a:gd name="connsiteY0" fmla="*/ 1627552 h 3237277"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3352584"/>
-            <a:gd name="connsiteY1" fmla="*/ 17827 h 3237277"/>
-            <a:gd name="connsiteX2" fmla="*/ 3019425 w 3352584"/>
-            <a:gd name="connsiteY2" fmla="*/ 817927 h 3237277"/>
-            <a:gd name="connsiteX3" fmla="*/ 3248026 w 3352584"/>
-            <a:gd name="connsiteY3" fmla="*/ 1627552 h 3237277"/>
-            <a:gd name="connsiteX4" fmla="*/ 1624013 w 3352584"/>
-            <a:gd name="connsiteY4" fmla="*/ 3237277 h 3237277"/>
-            <a:gd name="connsiteX5" fmla="*/ 0 w 3352584"/>
-            <a:gd name="connsiteY5" fmla="*/ 1627552 h 3237277"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY0" fmla="*/ 1692045 h 3301770"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY1" fmla="*/ 82320 h 3301770"/>
-            <a:gd name="connsiteX2" fmla="*/ 2333624 w 3331915"/>
-            <a:gd name="connsiteY2" fmla="*/ 301396 h 3301770"/>
-            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
-            <a:gd name="connsiteY3" fmla="*/ 882420 h 3301770"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
-            <a:gd name="connsiteY4" fmla="*/ 1692045 h 3301770"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY5" fmla="*/ 3301770 h 3301770"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY6" fmla="*/ 1692045 h 3301770"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY0" fmla="*/ 1609994 h 3219719"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY1" fmla="*/ 269 h 3219719"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
-            <a:gd name="connsiteY2" fmla="*/ 1476645 h 3219719"/>
-            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
-            <a:gd name="connsiteY3" fmla="*/ 800369 h 3219719"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
-            <a:gd name="connsiteY4" fmla="*/ 1609994 h 3219719"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY5" fmla="*/ 3219719 h 3219719"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY6" fmla="*/ 1609994 h 3219719"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY0" fmla="*/ 1609966 h 3219691"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY1" fmla="*/ 241 h 3219691"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
-            <a:gd name="connsiteY2" fmla="*/ 1476617 h 3219691"/>
-            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
-            <a:gd name="connsiteY3" fmla="*/ 800341 h 3219691"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
-            <a:gd name="connsiteY4" fmla="*/ 1609966 h 3219691"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY5" fmla="*/ 3219691 h 3219691"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY6" fmla="*/ 1609966 h 3219691"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY0" fmla="*/ 1609966 h 3219691"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY1" fmla="*/ 241 h 3219691"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
-            <a:gd name="connsiteY2" fmla="*/ 1476617 h 3219691"/>
-            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
-            <a:gd name="connsiteY3" fmla="*/ 800341 h 3219691"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
-            <a:gd name="connsiteY4" fmla="*/ 1609966 h 3219691"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY5" fmla="*/ 3219691 h 3219691"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY6" fmla="*/ 1609966 h 3219691"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY0" fmla="*/ 1609731 h 3219456"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY1" fmla="*/ 6 h 3219456"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
-            <a:gd name="connsiteY2" fmla="*/ 1476382 h 3219456"/>
-            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
-            <a:gd name="connsiteY3" fmla="*/ 800106 h 3219456"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
-            <a:gd name="connsiteY4" fmla="*/ 1609731 h 3219456"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY5" fmla="*/ 3219456 h 3219456"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY6" fmla="*/ 1609731 h 3219456"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY0" fmla="*/ 1609766 h 3219491"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY1" fmla="*/ 41 h 3219491"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
-            <a:gd name="connsiteY2" fmla="*/ 1476417 h 3219491"/>
-            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
-            <a:gd name="connsiteY3" fmla="*/ 800141 h 3219491"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
-            <a:gd name="connsiteY4" fmla="*/ 1609766 h 3219491"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY5" fmla="*/ 3219491 h 3219491"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY6" fmla="*/ 1609766 h 3219491"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY0" fmla="*/ 1609766 h 3219491"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY1" fmla="*/ 41 h 3219491"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
-            <a:gd name="connsiteY2" fmla="*/ 1476417 h 3219491"/>
-            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
-            <a:gd name="connsiteY3" fmla="*/ 800141 h 3219491"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
-            <a:gd name="connsiteY4" fmla="*/ 1609766 h 3219491"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY5" fmla="*/ 3219491 h 3219491"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY6" fmla="*/ 1609766 h 3219491"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
-            <a:gd name="connsiteY3" fmla="*/ 804773 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
-            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
-            <a:gd name="connsiteY3" fmla="*/ 804773 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
-            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3318320"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3318320"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3318320"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3318320"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3019425 w 3318320"/>
-            <a:gd name="connsiteY4" fmla="*/ 804773 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 3248026 w 3318320"/>
-            <a:gd name="connsiteY5" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 1624013 w 3318320"/>
-            <a:gd name="connsiteY6" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX7" fmla="*/ 0 w 3318320"/>
-            <a:gd name="connsiteY7" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3318320"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3318320"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3318320"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3318320"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3019425 w 3318320"/>
-            <a:gd name="connsiteY4" fmla="*/ 804773 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 3248026 w 3318320"/>
-            <a:gd name="connsiteY5" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 1624013 w 3318320"/>
-            <a:gd name="connsiteY6" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX7" fmla="*/ 0 w 3318320"/>
-            <a:gd name="connsiteY7" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3318320"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3318320"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3318320"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3318320"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3019425 w 3318320"/>
-            <a:gd name="connsiteY4" fmla="*/ 804773 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 3248026 w 3318320"/>
-            <a:gd name="connsiteY5" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 1624013 w 3318320"/>
-            <a:gd name="connsiteY6" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX7" fmla="*/ 0 w 3318320"/>
-            <a:gd name="connsiteY7" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3311688"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3311688"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3311688"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3311688"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3311688"/>
-            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3311688"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3311688"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3311688"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3253331"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3311688"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3253331"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3311688"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3253331"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3311688"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3253331"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3311688"/>
-            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3253331"/>
-            <a:gd name="connsiteX5" fmla="*/ 2962275 w 3311688"/>
-            <a:gd name="connsiteY5" fmla="*/ 2576424 h 3253331"/>
-            <a:gd name="connsiteX6" fmla="*/ 1624013 w 3311688"/>
-            <a:gd name="connsiteY6" fmla="*/ 3224123 h 3253331"/>
-            <a:gd name="connsiteX7" fmla="*/ 0 w 3311688"/>
-            <a:gd name="connsiteY7" fmla="*/ 1614398 h 3253331"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3311688"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3311688"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3311688"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3311688"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3311688"/>
-            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3311688"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3311688"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3311688"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3311688"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3311688"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3311688"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3311688"/>
-            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3311688"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3311688"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3254737"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3254737"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3254737"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3254737"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3254737"/>
-            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3254737"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3254737"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3248036"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3248036"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3248036"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3248036"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3248036"/>
-            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3248036"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3248036"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3248036"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3248036"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3248036"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3248036"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3248036"/>
-            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3248036"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3248036"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3248036"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3248036"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3248036"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3248036"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
-            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3248036"/>
-            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3248036"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3248036"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3228987"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3226017"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3228987"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3226017"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3228987"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3226017"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3228987"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3226017"/>
-            <a:gd name="connsiteX4" fmla="*/ 3228976 w 3228987"/>
-            <a:gd name="connsiteY4" fmla="*/ 1833473 h 3226017"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3228987"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3226017"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3228987"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3226017"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3228987"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3226017"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3228987"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3226017"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3228987"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3226017"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3228987"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3226017"/>
-            <a:gd name="connsiteX4" fmla="*/ 3228976 w 3228987"/>
-            <a:gd name="connsiteY4" fmla="*/ 1833473 h 3226017"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3228987"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3226017"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3228987"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3226017"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3228987"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3226017"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3228987"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3226017"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3228987"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3226017"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3228987"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3226017"/>
-            <a:gd name="connsiteX4" fmla="*/ 3228976 w 3228987"/>
-            <a:gd name="connsiteY4" fmla="*/ 1833473 h 3226017"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3228987"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3226017"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3228987"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3226017"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3228987"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3226017"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3228987"/>
-            <a:gd name="connsiteY1" fmla="*/ 4673 h 3226017"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3228987"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3226017"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3228987"/>
-            <a:gd name="connsiteY3" fmla="*/ 585699 h 3226017"/>
-            <a:gd name="connsiteX4" fmla="*/ 3228976 w 3228987"/>
-            <a:gd name="connsiteY4" fmla="*/ 1833473 h 3226017"/>
-            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3228987"/>
-            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3226017"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 3228987"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3226017"/>
-            <a:gd name="connsiteX0" fmla="*/ 1402 w 3286864"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613065 h 3242810"/>
-            <a:gd name="connsiteX1" fmla="*/ 1625415 w 3286864"/>
-            <a:gd name="connsiteY1" fmla="*/ 3340 h 3242810"/>
-            <a:gd name="connsiteX2" fmla="*/ 1687326 w 3286864"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479716 h 3242810"/>
-            <a:gd name="connsiteX3" fmla="*/ 2858902 w 3286864"/>
-            <a:gd name="connsiteY3" fmla="*/ 584366 h 3242810"/>
-            <a:gd name="connsiteX4" fmla="*/ 3230378 w 3286864"/>
-            <a:gd name="connsiteY4" fmla="*/ 1832140 h 3242810"/>
-            <a:gd name="connsiteX5" fmla="*/ 1377765 w 3286864"/>
-            <a:gd name="connsiteY5" fmla="*/ 3241840 h 3242810"/>
-            <a:gd name="connsiteX6" fmla="*/ 1402 w 3286864"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613065 h 3242810"/>
-            <a:gd name="connsiteX0" fmla="*/ 2186 w 3287648"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613065 h 3242378"/>
-            <a:gd name="connsiteX1" fmla="*/ 1626199 w 3287648"/>
-            <a:gd name="connsiteY1" fmla="*/ 3340 h 3242378"/>
-            <a:gd name="connsiteX2" fmla="*/ 1688110 w 3287648"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479716 h 3242378"/>
-            <a:gd name="connsiteX3" fmla="*/ 2859686 w 3287648"/>
-            <a:gd name="connsiteY3" fmla="*/ 584366 h 3242378"/>
-            <a:gd name="connsiteX4" fmla="*/ 3231162 w 3287648"/>
-            <a:gd name="connsiteY4" fmla="*/ 1832140 h 3242378"/>
-            <a:gd name="connsiteX5" fmla="*/ 1378549 w 3287648"/>
-            <a:gd name="connsiteY5" fmla="*/ 3241840 h 3242378"/>
-            <a:gd name="connsiteX6" fmla="*/ 2186 w 3287648"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613065 h 3242378"/>
-            <a:gd name="connsiteX0" fmla="*/ 3753 w 3289215"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613065 h 3243358"/>
-            <a:gd name="connsiteX1" fmla="*/ 1627766 w 3289215"/>
-            <a:gd name="connsiteY1" fmla="*/ 3340 h 3243358"/>
-            <a:gd name="connsiteX2" fmla="*/ 1689677 w 3289215"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479716 h 3243358"/>
-            <a:gd name="connsiteX3" fmla="*/ 2861253 w 3289215"/>
-            <a:gd name="connsiteY3" fmla="*/ 584366 h 3243358"/>
-            <a:gd name="connsiteX4" fmla="*/ 3232729 w 3289215"/>
-            <a:gd name="connsiteY4" fmla="*/ 1832140 h 3243358"/>
-            <a:gd name="connsiteX5" fmla="*/ 1380116 w 3289215"/>
-            <a:gd name="connsiteY5" fmla="*/ 3241840 h 3243358"/>
-            <a:gd name="connsiteX6" fmla="*/ 3753 w 3289215"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613065 h 3243358"/>
-            <a:gd name="connsiteX0" fmla="*/ 536 w 3278020"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3271912"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624549 w 3278020"/>
-            <a:gd name="connsiteY1" fmla="*/ 3353 h 3271912"/>
-            <a:gd name="connsiteX2" fmla="*/ 1686460 w 3278020"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3271912"/>
-            <a:gd name="connsiteX3" fmla="*/ 2858036 w 3278020"/>
-            <a:gd name="connsiteY3" fmla="*/ 584379 h 3271912"/>
-            <a:gd name="connsiteX4" fmla="*/ 3229512 w 3278020"/>
-            <a:gd name="connsiteY4" fmla="*/ 1832153 h 3271912"/>
-            <a:gd name="connsiteX5" fmla="*/ 1519774 w 3278020"/>
-            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3271912"/>
-            <a:gd name="connsiteX6" fmla="*/ 536 w 3278020"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3271912"/>
-            <a:gd name="connsiteX0" fmla="*/ 536 w 3262990"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3272516"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624549 w 3262990"/>
-            <a:gd name="connsiteY1" fmla="*/ 3353 h 3272516"/>
-            <a:gd name="connsiteX2" fmla="*/ 1686460 w 3262990"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3272516"/>
-            <a:gd name="connsiteX3" fmla="*/ 2858036 w 3262990"/>
-            <a:gd name="connsiteY3" fmla="*/ 584379 h 3272516"/>
-            <a:gd name="connsiteX4" fmla="*/ 3229512 w 3262990"/>
-            <a:gd name="connsiteY4" fmla="*/ 1832153 h 3272516"/>
-            <a:gd name="connsiteX5" fmla="*/ 1519774 w 3262990"/>
-            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3272516"/>
-            <a:gd name="connsiteX6" fmla="*/ 536 w 3262990"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3272516"/>
-            <a:gd name="connsiteX0" fmla="*/ 536 w 3295532"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3272516"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624549 w 3295532"/>
-            <a:gd name="connsiteY1" fmla="*/ 3353 h 3272516"/>
-            <a:gd name="connsiteX2" fmla="*/ 1686460 w 3295532"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3272516"/>
-            <a:gd name="connsiteX3" fmla="*/ 2858036 w 3295532"/>
-            <a:gd name="connsiteY3" fmla="*/ 584379 h 3272516"/>
-            <a:gd name="connsiteX4" fmla="*/ 3229512 w 3295532"/>
-            <a:gd name="connsiteY4" fmla="*/ 1832153 h 3272516"/>
-            <a:gd name="connsiteX5" fmla="*/ 1519774 w 3295532"/>
-            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3272516"/>
-            <a:gd name="connsiteX6" fmla="*/ 536 w 3295532"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3272516"/>
-            <a:gd name="connsiteX0" fmla="*/ 536 w 3259779"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3271952"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624549 w 3259779"/>
-            <a:gd name="connsiteY1" fmla="*/ 3353 h 3271952"/>
-            <a:gd name="connsiteX2" fmla="*/ 1686460 w 3259779"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3271952"/>
-            <a:gd name="connsiteX3" fmla="*/ 2858036 w 3259779"/>
-            <a:gd name="connsiteY3" fmla="*/ 584379 h 3271952"/>
-            <a:gd name="connsiteX4" fmla="*/ 3229512 w 3259779"/>
-            <a:gd name="connsiteY4" fmla="*/ 1832153 h 3271952"/>
-            <a:gd name="connsiteX5" fmla="*/ 1519774 w 3259779"/>
-            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3271952"/>
-            <a:gd name="connsiteX6" fmla="*/ 536 w 3259779"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3271952"/>
-            <a:gd name="connsiteX0" fmla="*/ 536 w 3255957"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3271995"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624549 w 3255957"/>
-            <a:gd name="connsiteY1" fmla="*/ 3353 h 3271995"/>
-            <a:gd name="connsiteX2" fmla="*/ 1686460 w 3255957"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3271995"/>
-            <a:gd name="connsiteX3" fmla="*/ 2858036 w 3255957"/>
-            <a:gd name="connsiteY3" fmla="*/ 584379 h 3271995"/>
-            <a:gd name="connsiteX4" fmla="*/ 3229512 w 3255957"/>
-            <a:gd name="connsiteY4" fmla="*/ 1832153 h 3271995"/>
-            <a:gd name="connsiteX5" fmla="*/ 1519774 w 3255957"/>
-            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3271995"/>
-            <a:gd name="connsiteX6" fmla="*/ 536 w 3255957"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3271995"/>
-            <a:gd name="connsiteX0" fmla="*/ 224 w 3207066"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3277396"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624237 w 3207066"/>
-            <a:gd name="connsiteY1" fmla="*/ 3353 h 3277396"/>
-            <a:gd name="connsiteX2" fmla="*/ 1686148 w 3207066"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3277396"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857724 w 3207066"/>
-            <a:gd name="connsiteY3" fmla="*/ 584379 h 3277396"/>
-            <a:gd name="connsiteX4" fmla="*/ 3172050 w 3207066"/>
-            <a:gd name="connsiteY4" fmla="*/ 2127428 h 3277396"/>
-            <a:gd name="connsiteX5" fmla="*/ 1519462 w 3207066"/>
-            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3277396"/>
-            <a:gd name="connsiteX6" fmla="*/ 224 w 3207066"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3277396"/>
-            <a:gd name="connsiteX0" fmla="*/ 224 w 3207066"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614492 h 3278810"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624237 w 3207066"/>
-            <a:gd name="connsiteY1" fmla="*/ 4767 h 3278810"/>
-            <a:gd name="connsiteX2" fmla="*/ 1686148 w 3207066"/>
-            <a:gd name="connsiteY2" fmla="*/ 1481143 h 3278810"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857724 w 3207066"/>
-            <a:gd name="connsiteY3" fmla="*/ 585793 h 3278810"/>
-            <a:gd name="connsiteX4" fmla="*/ 3172050 w 3207066"/>
-            <a:gd name="connsiteY4" fmla="*/ 2128842 h 3278810"/>
-            <a:gd name="connsiteX5" fmla="*/ 1519462 w 3207066"/>
-            <a:gd name="connsiteY5" fmla="*/ 3271842 h 3278810"/>
-            <a:gd name="connsiteX6" fmla="*/ 224 w 3207066"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614492 h 3278810"/>
-            <a:gd name="connsiteX0" fmla="*/ 2128 w 3208970"/>
-            <a:gd name="connsiteY0" fmla="*/ 1615578 h 3279896"/>
-            <a:gd name="connsiteX1" fmla="*/ 1626141 w 3208970"/>
-            <a:gd name="connsiteY1" fmla="*/ 5853 h 3279896"/>
-            <a:gd name="connsiteX2" fmla="*/ 1688052 w 3208970"/>
-            <a:gd name="connsiteY2" fmla="*/ 1482229 h 3279896"/>
-            <a:gd name="connsiteX3" fmla="*/ 2859628 w 3208970"/>
-            <a:gd name="connsiteY3" fmla="*/ 586879 h 3279896"/>
-            <a:gd name="connsiteX4" fmla="*/ 3173954 w 3208970"/>
-            <a:gd name="connsiteY4" fmla="*/ 2129928 h 3279896"/>
-            <a:gd name="connsiteX5" fmla="*/ 1521366 w 3208970"/>
-            <a:gd name="connsiteY5" fmla="*/ 3272928 h 3279896"/>
-            <a:gd name="connsiteX6" fmla="*/ 2128 w 3208970"/>
-            <a:gd name="connsiteY6" fmla="*/ 1615578 h 3279896"/>
-            <a:gd name="connsiteX0" fmla="*/ 2184 w 3209026"/>
-            <a:gd name="connsiteY0" fmla="*/ 1615578 h 3276236"/>
-            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3209026"/>
-            <a:gd name="connsiteY1" fmla="*/ 5853 h 3276236"/>
-            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3209026"/>
-            <a:gd name="connsiteY2" fmla="*/ 1482229 h 3276236"/>
-            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3209026"/>
-            <a:gd name="connsiteY3" fmla="*/ 586879 h 3276236"/>
-            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3209026"/>
-            <a:gd name="connsiteY4" fmla="*/ 2129928 h 3276236"/>
-            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3209026"/>
-            <a:gd name="connsiteY5" fmla="*/ 3272928 h 3276236"/>
-            <a:gd name="connsiteX6" fmla="*/ 2184 w 3209026"/>
-            <a:gd name="connsiteY6" fmla="*/ 1615578 h 3276236"/>
-            <a:gd name="connsiteX0" fmla="*/ 2184 w 3238139"/>
-            <a:gd name="connsiteY0" fmla="*/ 1615578 h 3277817"/>
-            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3238139"/>
-            <a:gd name="connsiteY1" fmla="*/ 5853 h 3277817"/>
-            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3238139"/>
-            <a:gd name="connsiteY2" fmla="*/ 1482229 h 3277817"/>
-            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3238139"/>
-            <a:gd name="connsiteY3" fmla="*/ 586879 h 3277817"/>
-            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3238139"/>
-            <a:gd name="connsiteY4" fmla="*/ 2129928 h 3277817"/>
-            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3238139"/>
-            <a:gd name="connsiteY5" fmla="*/ 3272928 h 3277817"/>
-            <a:gd name="connsiteX6" fmla="*/ 2184 w 3238139"/>
-            <a:gd name="connsiteY6" fmla="*/ 1615578 h 3277817"/>
-            <a:gd name="connsiteX0" fmla="*/ 2184 w 3216301"/>
-            <a:gd name="connsiteY0" fmla="*/ 1615578 h 3277817"/>
-            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3216301"/>
-            <a:gd name="connsiteY1" fmla="*/ 5853 h 3277817"/>
-            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3216301"/>
-            <a:gd name="connsiteY2" fmla="*/ 1482229 h 3277817"/>
-            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3216301"/>
-            <a:gd name="connsiteY3" fmla="*/ 586879 h 3277817"/>
-            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3216301"/>
-            <a:gd name="connsiteY4" fmla="*/ 2129928 h 3277817"/>
-            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3216301"/>
-            <a:gd name="connsiteY5" fmla="*/ 3272928 h 3277817"/>
-            <a:gd name="connsiteX6" fmla="*/ 2184 w 3216301"/>
-            <a:gd name="connsiteY6" fmla="*/ 1615578 h 3277817"/>
-            <a:gd name="connsiteX0" fmla="*/ 2184 w 3250598"/>
-            <a:gd name="connsiteY0" fmla="*/ 1615578 h 3278754"/>
-            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3250598"/>
-            <a:gd name="connsiteY1" fmla="*/ 5853 h 3278754"/>
-            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3250598"/>
-            <a:gd name="connsiteY2" fmla="*/ 1482229 h 3278754"/>
-            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3250598"/>
-            <a:gd name="connsiteY3" fmla="*/ 586879 h 3278754"/>
-            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3250598"/>
-            <a:gd name="connsiteY4" fmla="*/ 2129928 h 3278754"/>
-            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3250598"/>
-            <a:gd name="connsiteY5" fmla="*/ 3272928 h 3278754"/>
-            <a:gd name="connsiteX6" fmla="*/ 2184 w 3250598"/>
-            <a:gd name="connsiteY6" fmla="*/ 1615578 h 3278754"/>
-            <a:gd name="connsiteX0" fmla="*/ 2184 w 3250598"/>
-            <a:gd name="connsiteY0" fmla="*/ 1614273 h 3277449"/>
-            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3250598"/>
-            <a:gd name="connsiteY1" fmla="*/ 4548 h 3277449"/>
-            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3250598"/>
-            <a:gd name="connsiteY2" fmla="*/ 1480924 h 3277449"/>
-            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3250598"/>
-            <a:gd name="connsiteY3" fmla="*/ 585574 h 3277449"/>
-            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3250598"/>
-            <a:gd name="connsiteY4" fmla="*/ 2128623 h 3277449"/>
-            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3250598"/>
-            <a:gd name="connsiteY5" fmla="*/ 3271623 h 3277449"/>
-            <a:gd name="connsiteX6" fmla="*/ 2184 w 3250598"/>
-            <a:gd name="connsiteY6" fmla="*/ 1614273 h 3277449"/>
-            <a:gd name="connsiteX0" fmla="*/ 2184 w 3250598"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613103 h 3276279"/>
-            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3250598"/>
-            <a:gd name="connsiteY1" fmla="*/ 3378 h 3276279"/>
-            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3250598"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479754 h 3276279"/>
-            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3250598"/>
-            <a:gd name="connsiteY3" fmla="*/ 584404 h 3276279"/>
-            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3250598"/>
-            <a:gd name="connsiteY4" fmla="*/ 2127453 h 3276279"/>
-            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3250598"/>
-            <a:gd name="connsiteY5" fmla="*/ 3270453 h 3276279"/>
-            <a:gd name="connsiteX6" fmla="*/ 2184 w 3250598"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613103 h 3276279"/>
-            <a:gd name="connsiteX0" fmla="*/ 2184 w 3250598"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613103 h 3276279"/>
-            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3250598"/>
-            <a:gd name="connsiteY1" fmla="*/ 3378 h 3276279"/>
-            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3250598"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479754 h 3276279"/>
-            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3250598"/>
-            <a:gd name="connsiteY3" fmla="*/ 584404 h 3276279"/>
-            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3250598"/>
-            <a:gd name="connsiteY4" fmla="*/ 2127453 h 3276279"/>
-            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3250598"/>
-            <a:gd name="connsiteY5" fmla="*/ 3270453 h 3276279"/>
-            <a:gd name="connsiteX6" fmla="*/ 2184 w 3250598"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613103 h 3276279"/>
-            <a:gd name="connsiteX0" fmla="*/ 49 w 3248463"/>
-            <a:gd name="connsiteY0" fmla="*/ 1613201 h 3276377"/>
-            <a:gd name="connsiteX1" fmla="*/ 1624062 w 3248463"/>
-            <a:gd name="connsiteY1" fmla="*/ 3476 h 3276377"/>
-            <a:gd name="connsiteX2" fmla="*/ 1685973 w 3248463"/>
-            <a:gd name="connsiteY2" fmla="*/ 1479852 h 3276377"/>
-            <a:gd name="connsiteX3" fmla="*/ 2857549 w 3248463"/>
-            <a:gd name="connsiteY3" fmla="*/ 584502 h 3276377"/>
-            <a:gd name="connsiteX4" fmla="*/ 3171875 w 3248463"/>
-            <a:gd name="connsiteY4" fmla="*/ 2127551 h 3276377"/>
-            <a:gd name="connsiteX5" fmla="*/ 1519287 w 3248463"/>
-            <a:gd name="connsiteY5" fmla="*/ 3270551 h 3276377"/>
-            <a:gd name="connsiteX6" fmla="*/ 49 w 3248463"/>
-            <a:gd name="connsiteY6" fmla="*/ 1613201 h 3276377"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3248463" h="3276377">
-              <a:moveTo>
-                <a:pt x="49" y="1613201"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="7986" y="525764"/>
-                <a:pt x="1104950" y="-50499"/>
-                <a:pt x="1624062" y="3476"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1628824" y="301"/>
-                <a:pt x="1720104" y="1613202"/>
-                <a:pt x="1685973" y="1479852"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1701054" y="1487790"/>
-                <a:pt x="2854374" y="554340"/>
-                <a:pt x="2857549" y="584502"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="3051224" y="797227"/>
-                <a:pt x="3404444" y="1289351"/>
-                <a:pt x="3171875" y="2127551"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2939306" y="2965751"/>
-                <a:pt x="2076500" y="3327701"/>
-                <a:pt x="1519287" y="3270551"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="962074" y="3213401"/>
-                <a:pt x="-7888" y="2700638"/>
-                <a:pt x="49" y="1613201"/>
-              </a:cubicBezTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1092200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Left Frame"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2222500" y="3175000"/>
-          <a:ext cx="4737100" cy="2730500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1092200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Left Frame Header"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2222500" y="3175000"/>
-          <a:ext cx="4737100" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Recent Orders</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581427</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Left Frame Icon"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6448827" y="3238500"/>
-          <a:ext cx="447273" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1320800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Right Frame"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7188200" y="3175000"/>
-          <a:ext cx="4737100" cy="1587500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1320800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Right Frame Header"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7188200" y="3175000"/>
-          <a:ext cx="4737100" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>My Orders</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>88673</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Right Frame Icon"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11337698" y="3238500"/>
-          <a:ext cx="524102" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1320800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'moduimenu.ProcessBtnPress(6)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="New Order Button"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7188200" y="4953000"/>
-          <a:ext cx="4737100" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFCC00"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFA634"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="3200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>New Order    </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>234829</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>99700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="New_Order_Button"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFA634"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFA634">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10871200" y="5156200"/>
-          <a:ext cx="612654" cy="468000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19938,7 +17488,6 @@
       <c r="P28" s="57"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="L23:P28"/>
@@ -20264,7 +17813,7 @@
         <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>2089</v>
+        <v>2076</v>
       </c>
     </row>
   </sheetData>
@@ -21374,10 +18923,10 @@
         <v>90</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="D11" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="V11" s="33"/>
     </row>
@@ -21767,7 +19316,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>189</v>
@@ -22391,7 +19940,7 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="C96" s="32" t="s">
         <v>345</v>
@@ -24647,7 +22196,7 @@
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="31" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="C284" s="32" t="s">
         <v>905</v>
@@ -24659,7 +22208,7 @@
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="31" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="C285" s="32" t="s">
         <v>908</v>
@@ -25907,7 +23456,7 @@
     </row>
     <row r="389" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A389" s="31" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="C389" s="32" t="s">
         <v>1219</v>
@@ -28601,7 +26150,7 @@
         <v>1889</v>
       </c>
       <c r="D613" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="V613" s="33"/>
     </row>
@@ -29138,7 +26687,7 @@
         <v>2015</v>
       </c>
       <c r="C658" s="32" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="D658" t="s">
         <v>2072</v>
@@ -31090,7 +28639,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="35" t="s">
@@ -31120,10 +28669,10 @@
         <v>2064</v>
       </c>
       <c r="G5" s="45" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>2077</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>2076</v>
       </c>
       <c r="I5" s="50" t="b">
         <v>1</v>
@@ -31131,7 +28680,7 @@
     </row>
     <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="46">
@@ -31140,7 +28689,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
       <c r="G6" s="54" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>2069</v>
@@ -32109,7 +29658,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5152" r:id="rId24" name="$H$15">
+            <control shapeId="5152" r:id="rId24" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32131,7 +29680,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5153" r:id="rId25" name="$H$16">
+            <control shapeId="5153" r:id="rId25" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32153,7 +29702,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5154" r:id="rId26" name="$H$17">
+            <control shapeId="5154" r:id="rId26" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32175,7 +29724,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5155" r:id="rId27" name="$H$18">
+            <control shapeId="5155" r:id="rId27" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32197,7 +29746,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5156" r:id="rId28" name="$H$19">
+            <control shapeId="5156" r:id="rId28" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32219,7 +29768,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5157" r:id="rId29" name="$H$20">
+            <control shapeId="5157" r:id="rId29" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32241,7 +29790,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5158" r:id="rId30" name="$H$21">
+            <control shapeId="5158" r:id="rId30" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32263,7 +29812,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5159" r:id="rId31" name="$H$22">
+            <control shapeId="5159" r:id="rId31" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32285,7 +29834,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5160" r:id="rId32" name="$H$23">
+            <control shapeId="5160" r:id="rId32" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32307,7 +29856,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5161" r:id="rId33" name="$H$24">
+            <control shapeId="5161" r:id="rId33" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -32329,7 +29878,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5162" r:id="rId34" name="$H$25">
+            <control shapeId="5162" r:id="rId34" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="2090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="2094">
   <si>
     <t>Colour 1</t>
   </si>
@@ -6311,15 +6311,6 @@
     <t xml:space="preserve">First Aid Kit </t>
   </si>
   <si>
-    <t xml:space="preserve">Gloves Rope Rescue </t>
-  </si>
-  <si>
-    <t>Gloves Surgical</t>
-  </si>
-  <si>
-    <t>Main control pack</t>
-  </si>
-  <si>
     <t>11111</t>
   </si>
   <si>
@@ -6332,13 +6323,34 @@
     <t>9999</t>
   </si>
   <si>
-    <t xml:space="preserve">Bags </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cable Ties </t>
-  </si>
-  <si>
     <t>\\lincsfire.lincolnshire.gov.uk\folderredir$\Documents\julian.turner\Documents\RDS Project\Stores IT Project\Database\Stores IT System Dev DB v0,31.accdb</t>
+  </si>
+  <si>
+    <t>David Richardson - LFR</t>
+  </si>
+  <si>
+    <t>9997</t>
+  </si>
+  <si>
+    <t>9998</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t>Cable Ties</t>
+  </si>
+  <si>
+    <t>Gloves Rope Rescue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloves Surgical </t>
+  </si>
+  <si>
+    <t>Main Control pack</t>
   </si>
 </sst>
 </file>
@@ -7187,6 +7199,98 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2770" name="Main Screen"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="127000"/>
+          <a:ext cx="13017500" cy="10160000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="154E54"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="154E54"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
@@ -8405,152 +8509,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="333" name="Main Screen"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127000" y="127000"/>
-          <a:ext cx="13017500" cy="10160000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="154E54"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="154E54"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="334" name="Rectangle 333" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -8563,7 +8521,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="335" name="MenuBar"/>
+        <xdr:cNvPr id="2772" name="MenuBar"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8644,6 +8602,60 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2771" name="Rectangle 2770" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
@@ -8655,7 +8667,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="336" name="MenuItem - My Station"/>
+        <xdr:cNvPr id="2773" name="MenuItem - My Station"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8744,7 +8756,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="337" name="Icon - My Station"/>
+        <xdr:cNvPr id="246" name="Icon - My Station"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8793,7 +8805,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="338" name="MenuItem - Stores"/>
+        <xdr:cNvPr id="2774" name="MenuItem - Stores"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8882,7 +8894,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="339" name="Icon - Stores"/>
+        <xdr:cNvPr id="248" name="Icon - Stores"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8931,7 +8943,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="340" name="MenuItem - Reports"/>
+        <xdr:cNvPr id="2775" name="MenuItem - Reports"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9020,7 +9032,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="341" name="Icon - Reports"/>
+        <xdr:cNvPr id="250" name="Icon - Reports"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9069,7 +9081,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="342" name="MenuItem - My Profile"/>
+        <xdr:cNvPr id="2776" name="MenuItem - My Profile"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9158,7 +9170,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="343" name="Icon - My Profile"/>
+        <xdr:cNvPr id="252" name="Icon - My Profile"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9207,7 +9219,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="344" name="MenuItem - Support"/>
+        <xdr:cNvPr id="2777" name="MenuItem - Support"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9296,7 +9308,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="345" name="Icon - Support"/>
+        <xdr:cNvPr id="254" name="Icon - Support"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9350,7 +9362,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="348" name="BtnUserMangt"/>
+        <xdr:cNvPr id="3274" name="BtnUserMangt"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9445,7 +9457,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(9)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="349" name="BtnOrderSwitch"/>
+        <xdr:cNvPr id="3275" name="BtnOrderSwitch"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9540,7 +9552,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(10)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="350" name="BtnRemoteOrder"/>
+        <xdr:cNvPr id="3276" name="BtnRemoteOrder"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9630,18 +9642,18 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="347" name="Stores Frame 1"/>
+        <xdr:cNvPr id="3273" name="Stores Frame 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2222500" y="254000"/>
-          <a:ext cx="8255000" cy="6604000"/>
+          <a:ext cx="8255000" cy="7874000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9727,7 +9739,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="346" name="Stores 1 Header"/>
+        <xdr:cNvPr id="3272" name="Stores 1 Header"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9816,7 +9828,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="351" name="Stores Frame 1 Icon"/>
+        <xdr:cNvPr id="817" name="Stores Frame 1 Icon"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9859,7 +9871,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="352" name="TextBox 351"/>
+        <xdr:cNvPr id="3277" name="TextBox 3276"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9944,7 +9956,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="353" name="TextBox 352"/>
+        <xdr:cNvPr id="3278" name="TextBox 3277"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10029,7 +10041,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="354" name="TextBox 353"/>
+        <xdr:cNvPr id="3279" name="TextBox 3278"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10114,7 +10126,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="355" name="TextBox 354"/>
+        <xdr:cNvPr id="3280" name="TextBox 3279"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10199,7 +10211,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="356" name="TextBox 355"/>
+        <xdr:cNvPr id="3281" name="TextBox 3280"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10284,7 +10296,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="357" name="TextBox 356"/>
+        <xdr:cNvPr id="3282" name="TextBox 3281"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10367,9 +10379,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="358" name="TextBox 357"/>
+        <xdr:cNvPr id="3283" name="TextBox 3282"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10432,7 +10444,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10452,9 +10464,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="359" name="TextBox 358"/>
+        <xdr:cNvPr id="3284" name="TextBox 3283"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10517,7 +10529,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10537,9 +10549,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="360" name="TextBox 359"/>
+        <xdr:cNvPr id="3285" name="TextBox 3284"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10622,9 +10634,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="361" name="TextBox 360"/>
+        <xdr:cNvPr id="3286" name="TextBox 3285"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10707,9 +10719,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="362" name="TextBox 361"/>
+        <xdr:cNvPr id="3287" name="TextBox 3286"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10789,9 +10801,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="363" name="TextBox 362"/>
+        <xdr:cNvPr id="3288" name="TextBox 3287"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10874,9 +10886,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(2)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="364" name="TextBox 363"/>
+        <xdr:cNvPr id="3289" name="TextBox 3288"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10939,7 +10951,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>5</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10959,9 +10971,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(2)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="365" name="TextBox 364"/>
+        <xdr:cNvPr id="3290" name="TextBox 3289"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11044,9 +11056,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(2)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="366" name="TextBox 365"/>
+        <xdr:cNvPr id="3291" name="TextBox 3290"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11109,7 +11121,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Phil Siddall</a:t>
+            <a:t>Julian Turner</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11129,9 +11141,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(2)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="367" name="TextBox 366"/>
+        <xdr:cNvPr id="3292" name="TextBox 3291"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11194,7 +11206,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Saxilby</a:t>
+            <a:t>Brant Broughton</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11214,9 +11226,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(2)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="368" name="TextBox 367"/>
+        <xdr:cNvPr id="3293" name="TextBox 3292"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11296,9 +11308,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(2)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="369" name="TextBox 368"/>
+        <xdr:cNvPr id="3294" name="TextBox 3293"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11381,9 +11393,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="370" name="TextBox 369"/>
+        <xdr:cNvPr id="3295" name="TextBox 3294"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11446,7 +11458,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>6</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11466,9 +11478,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="371" name="TextBox 370"/>
+        <xdr:cNvPr id="800" name="TextBox 799"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11531,7 +11543,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11551,9 +11563,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="372" name="TextBox 371"/>
+        <xdr:cNvPr id="801" name="TextBox 800"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11636,9 +11648,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="373" name="TextBox 372"/>
+        <xdr:cNvPr id="802" name="TextBox 801"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11721,9 +11733,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="374" name="TextBox 373"/>
+        <xdr:cNvPr id="803" name="TextBox 802"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11803,9 +11815,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="375" name="TextBox 374"/>
+        <xdr:cNvPr id="804" name="TextBox 803"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11868,7 +11880,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Open</a:t>
+            <a:t>Issued</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11888,9 +11900,9 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="376" name="TextBox 375"/>
+        <xdr:cNvPr id="805" name="TextBox 804"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11953,7 +11965,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>7</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11973,9 +11985,9 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="377" name="TextBox 376"/>
+        <xdr:cNvPr id="806" name="TextBox 805"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12058,9 +12070,9 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="378" name="TextBox 377"/>
+        <xdr:cNvPr id="807" name="TextBox 806"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12143,9 +12155,9 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="379" name="TextBox 378"/>
+        <xdr:cNvPr id="812" name="TextBox 811"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12228,9 +12240,9 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="380" name="TextBox 379"/>
+        <xdr:cNvPr id="813" name="TextBox 812"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12310,9 +12322,9 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="381" name="TextBox 380"/>
+        <xdr:cNvPr id="814" name="TextBox 813"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12395,9 +12407,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="382" name="TextBox 381"/>
+        <xdr:cNvPr id="815" name="TextBox 814"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12460,7 +12472,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>6</a:t>
+            <a:t>8</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12480,9 +12492,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="383" name="TextBox 382"/>
+        <xdr:cNvPr id="816" name="TextBox 815"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12565,9 +12577,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="384" name="TextBox 383"/>
+        <xdr:cNvPr id="818" name="TextBox 817"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12630,7 +12642,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Julian Turner</a:t>
+            <a:t>Shane Redhead</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12650,9 +12662,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="385" name="TextBox 384"/>
+        <xdr:cNvPr id="819" name="TextBox 818"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12715,7 +12727,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Brant Broughton</a:t>
+            <a:t>Long Sutton</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12735,9 +12747,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="386" name="TextBox 385"/>
+        <xdr:cNvPr id="820" name="TextBox 819"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12793,15 +12805,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Julian Turner</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="154E54"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12820,9 +12829,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="387" name="TextBox 386"/>
+        <xdr:cNvPr id="821" name="TextBox 820"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12885,7 +12894,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Issued</a:t>
+            <a:t>Open</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12905,9 +12914,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="388" name="TextBox 387"/>
+        <xdr:cNvPr id="822" name="TextBox 821"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12970,7 +12979,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>11</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12990,9 +12999,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="389" name="TextBox 388"/>
+        <xdr:cNvPr id="823" name="TextBox 822"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13075,9 +13084,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="390" name="TextBox 389"/>
+        <xdr:cNvPr id="824" name="TextBox 823"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13160,9 +13169,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="391" name="TextBox 390"/>
+        <xdr:cNvPr id="825" name="TextBox 824"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13245,9 +13254,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="392" name="TextBox 391"/>
+        <xdr:cNvPr id="826" name="TextBox 825"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13327,9 +13336,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="393" name="TextBox 392"/>
+        <xdr:cNvPr id="827" name="TextBox 826"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13412,9 +13421,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="394" name="TextBox 393"/>
+        <xdr:cNvPr id="828" name="TextBox 827"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13477,7 +13486,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>12</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13497,9 +13506,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="395" name="TextBox 394"/>
+        <xdr:cNvPr id="829" name="TextBox 828"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13582,9 +13591,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="396" name="TextBox 395"/>
+        <xdr:cNvPr id="830" name="TextBox 829"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13647,7 +13656,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Shane Redhead</a:t>
+            <a:t>Phil Siddall</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13667,9 +13676,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="397" name="TextBox 396"/>
+        <xdr:cNvPr id="831" name="TextBox 830"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13732,7 +13741,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Long Sutton</a:t>
+            <a:t>Saxilby</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13752,9 +13761,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="398" name="TextBox 397"/>
+        <xdr:cNvPr id="3296" name="TextBox 3295"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13834,9 +13843,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="399" name="TextBox 398"/>
+        <xdr:cNvPr id="3297" name="TextBox 3296"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13919,9 +13928,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="400" name="TextBox 399"/>
+        <xdr:cNvPr id="3298" name="TextBox 3297"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13984,7 +13993,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>11</a:t>
+            <a:t>15</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14004,9 +14013,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="401" name="TextBox 400"/>
+        <xdr:cNvPr id="3299" name="TextBox 3298"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14089,9 +14098,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="402" name="TextBox 401"/>
+        <xdr:cNvPr id="3300" name="TextBox 3299"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14154,7 +14163,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Julian Turner</a:t>
+            <a:t>Gary Bellamy</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14174,9 +14183,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="403" name="TextBox 402"/>
+        <xdr:cNvPr id="3301" name="TextBox 3300"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14239,7 +14248,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Brant Broughton</a:t>
+            <a:t>Billingborough</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14259,9 +14268,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="404" name="TextBox 403"/>
+        <xdr:cNvPr id="3302" name="TextBox 3301"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14341,9 +14350,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="405" name="TextBox 404"/>
+        <xdr:cNvPr id="3303" name="TextBox 3302"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14426,9 +14435,9 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="406" name="TextBox 405"/>
+        <xdr:cNvPr id="3304" name="TextBox 3303"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14491,7 +14500,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>12</a:t>
+            <a:t>16</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14511,9 +14520,9 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="407" name="TextBox 406"/>
+        <xdr:cNvPr id="3305" name="TextBox 3304"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14596,9 +14605,9 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="408" name="TextBox 407"/>
+        <xdr:cNvPr id="3306" name="TextBox 3305"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14661,7 +14670,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Phil Siddall</a:t>
+            <a:t>Julian Turner</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14681,9 +14690,9 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="409" name="TextBox 408"/>
+        <xdr:cNvPr id="3307" name="TextBox 3306"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14746,7 +14755,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Saxilby</a:t>
+            <a:t>Brant Broughton</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14766,9 +14775,9 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="410" name="TextBox 409"/>
+        <xdr:cNvPr id="3308" name="TextBox 3307"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14848,9 +14857,9 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="411" name="TextBox 410"/>
+        <xdr:cNvPr id="3309" name="TextBox 3308"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14933,9 +14942,9 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="412" name="TextBox 411"/>
+        <xdr:cNvPr id="3310" name="TextBox 3309"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14998,7 +15007,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>15</a:t>
+            <a:t>18</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15018,9 +15027,9 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="413" name="TextBox 412"/>
+        <xdr:cNvPr id="3311" name="TextBox 3310"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15083,7 +15092,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15103,9 +15112,9 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="414" name="TextBox 413"/>
+        <xdr:cNvPr id="3312" name="TextBox 3311"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15168,7 +15177,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Gary Bellamy</a:t>
+            <a:t>Julian Turner</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15188,9 +15197,9 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="415" name="TextBox 414"/>
+        <xdr:cNvPr id="3313" name="TextBox 3312"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15253,7 +15262,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Billingborough</a:t>
+            <a:t>Brant Broughton</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15273,9 +15282,9 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="416" name="TextBox 415"/>
+        <xdr:cNvPr id="3314" name="TextBox 3313"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15355,9 +15364,9 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="417" name="TextBox 416"/>
+        <xdr:cNvPr id="3315" name="TextBox 3314"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15440,9 +15449,9 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="418" name="TextBox 417"/>
+        <xdr:cNvPr id="3316" name="TextBox 3315"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15505,7 +15514,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>16</a:t>
+            <a:t>19</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15525,9 +15534,9 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="419" name="TextBox 418"/>
+        <xdr:cNvPr id="3317" name="TextBox 3316"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15590,7 +15599,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15610,9 +15619,9 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="420" name="TextBox 419"/>
+        <xdr:cNvPr id="3318" name="TextBox 3317"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15675,7 +15684,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Julian Turner</a:t>
+            <a:t>David Spriggs</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15695,9 +15704,9 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="421" name="TextBox 420"/>
+        <xdr:cNvPr id="3319" name="TextBox 3318"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15760,7 +15769,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Brant Broughton</a:t>
+            <a:t>Donington</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15780,9 +15789,9 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="422" name="TextBox 421"/>
+        <xdr:cNvPr id="3320" name="TextBox 3319"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15862,9 +15871,9 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="423" name="TextBox 422"/>
+        <xdr:cNvPr id="3321" name="TextBox 3320"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15947,9 +15956,9 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="424" name="TextBox 423"/>
+        <xdr:cNvPr id="3322" name="TextBox 3321"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16012,7 +16021,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>18</a:t>
+            <a:t>20</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16032,9 +16041,9 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="425" name="TextBox 424"/>
+        <xdr:cNvPr id="3323" name="TextBox 3322"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16097,7 +16106,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>6</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16117,9 +16126,9 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="426" name="TextBox 425"/>
+        <xdr:cNvPr id="3324" name="TextBox 3323"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16202,9 +16211,9 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="427" name="TextBox 426"/>
+        <xdr:cNvPr id="3325" name="TextBox 3324"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16287,9 +16296,9 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="428" name="TextBox 427"/>
+        <xdr:cNvPr id="3326" name="TextBox 3325"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16369,9 +16378,9 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="429" name="TextBox 428"/>
+        <xdr:cNvPr id="3327" name="TextBox 3326"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16454,9 +16463,9 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="430" name="TextBox 429"/>
+        <xdr:cNvPr id="3328" name="TextBox 3327"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16519,7 +16528,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>19</a:t>
+            <a:t>22</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16539,9 +16548,9 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="431" name="TextBox 430"/>
+        <xdr:cNvPr id="3329" name="TextBox 3328"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16604,7 +16613,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16624,9 +16633,9 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="432" name="TextBox 431"/>
+        <xdr:cNvPr id="3330" name="TextBox 3329"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16689,7 +16698,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>David Spriggs</a:t>
+            <a:t>Julian Turner</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16709,9 +16718,9 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="433" name="TextBox 432"/>
+        <xdr:cNvPr id="3331" name="TextBox 3330"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16774,7 +16783,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Donington</a:t>
+            <a:t>Brant Broughton</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16794,9 +16803,9 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="434" name="TextBox 433"/>
+        <xdr:cNvPr id="3332" name="TextBox 3331"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16876,9 +16885,9 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="435" name="TextBox 434"/>
+        <xdr:cNvPr id="3333" name="TextBox 3332"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16961,9 +16970,9 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="436" name="TextBox 435"/>
+        <xdr:cNvPr id="3334" name="TextBox 3333"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17026,7 +17035,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>20</a:t>
+            <a:t>23</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17046,9 +17055,9 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="437" name="TextBox 436"/>
+        <xdr:cNvPr id="3335" name="TextBox 3334"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17111,7 +17120,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>6</a:t>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17131,9 +17140,9 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="438" name="TextBox 437"/>
+        <xdr:cNvPr id="3336" name="TextBox 3335"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17216,9 +17225,9 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="439" name="TextBox 438"/>
+        <xdr:cNvPr id="3337" name="TextBox 3336"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17301,9 +17310,9 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="440" name="TextBox 439"/>
+        <xdr:cNvPr id="3338" name="TextBox 3337"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17383,9 +17392,9 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="441" name="TextBox 440"/>
+        <xdr:cNvPr id="3339" name="TextBox 3338"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17468,9 +17477,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="442" name="TextBox 441"/>
+        <xdr:cNvPr id="3340" name="TextBox 3339"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17533,7 +17542,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>31</a:t>
+            <a:t>24</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17553,9 +17562,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="443" name="TextBox 442"/>
+        <xdr:cNvPr id="3341" name="TextBox 3340"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17618,7 +17627,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17638,9 +17647,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="444" name="TextBox 443"/>
+        <xdr:cNvPr id="3342" name="TextBox 3341"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17703,7 +17712,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Julian Turner</a:t>
+            <a:t>Peter Green</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17723,9 +17732,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="445" name="TextBox 444"/>
+        <xdr:cNvPr id="3343" name="TextBox 3342"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17788,7 +17797,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Brant Broughton</a:t>
+            <a:t>HQ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17808,9 +17817,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="446" name="TextBox 445"/>
+        <xdr:cNvPr id="3344" name="TextBox 3343"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17890,9 +17899,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="447" name="TextBox 446"/>
+        <xdr:cNvPr id="3345" name="TextBox 3344"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17975,9 +17984,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="448" name="TextBox 447"/>
+        <xdr:cNvPr id="3346" name="TextBox 3345"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18040,7 +18049,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>32</a:t>
+            <a:t>25</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18060,9 +18069,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="449" name="TextBox 448"/>
+        <xdr:cNvPr id="3347" name="TextBox 3346"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18145,9 +18154,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="450" name="TextBox 449"/>
+        <xdr:cNvPr id="3348" name="TextBox 3347"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18210,7 +18219,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>David Byrne</a:t>
+            <a:t>Peter Green</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18230,9 +18239,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="451" name="TextBox 450"/>
+        <xdr:cNvPr id="3349" name="TextBox 3348"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18295,7 +18304,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Lincoln South</a:t>
+            <a:t>HQ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18315,9 +18324,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="452" name="TextBox 451"/>
+        <xdr:cNvPr id="3350" name="TextBox 3349"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18397,9 +18406,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="453" name="TextBox 452"/>
+        <xdr:cNvPr id="3351" name="TextBox 3350"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18482,9 +18491,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="454" name="TextBox 453"/>
+        <xdr:cNvPr id="3352" name="TextBox 3351"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18547,7 +18556,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>33</a:t>
+            <a:t>26</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18567,9 +18576,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="455" name="TextBox 454"/>
+        <xdr:cNvPr id="3353" name="TextBox 3352"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18632,7 +18641,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18652,9 +18661,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="456" name="TextBox 455"/>
+        <xdr:cNvPr id="3354" name="TextBox 3353"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18717,7 +18726,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Julian Turner</a:t>
+            <a:t>Robin Westerdale</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18737,9 +18746,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="457" name="TextBox 456"/>
+        <xdr:cNvPr id="3355" name="TextBox 3354"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18802,7 +18811,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Brant Broughton</a:t>
+            <a:t>Bourne</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18822,9 +18831,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="458" name="TextBox 457"/>
+        <xdr:cNvPr id="3356" name="TextBox 3355"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18904,9 +18913,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="459" name="TextBox 458"/>
+        <xdr:cNvPr id="3357" name="TextBox 3356"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18989,9 +18998,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="460" name="TextBox 459"/>
+        <xdr:cNvPr id="3358" name="TextBox 3357"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19054,7 +19063,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>34</a:t>
+            <a:t>27</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19074,9 +19083,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="461" name="TextBox 460"/>
+        <xdr:cNvPr id="3359" name="TextBox 3358"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19139,7 +19148,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19159,9 +19168,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="462" name="TextBox 461"/>
+        <xdr:cNvPr id="3360" name="TextBox 3359"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19224,7 +19233,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Julian Turner</a:t>
+            <a:t>Robin Westerdale</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19244,9 +19253,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="463" name="TextBox 462"/>
+        <xdr:cNvPr id="3361" name="TextBox 3360"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19309,7 +19318,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Brant Broughton</a:t>
+            <a:t>Bourne</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19329,9 +19338,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="464" name="TextBox 463"/>
+        <xdr:cNvPr id="3362" name="TextBox 3361"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19411,9 +19420,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="465" name="TextBox 464"/>
+        <xdr:cNvPr id="3363" name="TextBox 3362"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19496,9 +19505,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="466" name="TextBox 465"/>
+        <xdr:cNvPr id="3364" name="TextBox 3363"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19561,7 +19570,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>35</a:t>
+            <a:t>31</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19581,9 +19590,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="467" name="TextBox 466"/>
+        <xdr:cNvPr id="3365" name="TextBox 3364"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19666,9 +19675,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="468" name="TextBox 467"/>
+        <xdr:cNvPr id="3366" name="TextBox 3365"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19751,9 +19760,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="469" name="TextBox 468"/>
+        <xdr:cNvPr id="3367" name="TextBox 3366"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19836,9 +19845,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="470" name="TextBox 469"/>
+        <xdr:cNvPr id="3368" name="TextBox 3367"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19918,9 +19927,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="471" name="TextBox 470"/>
+        <xdr:cNvPr id="3369" name="TextBox 3368"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20003,9 +20012,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="472" name="TextBox 471"/>
+        <xdr:cNvPr id="3370" name="TextBox 3369"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20068,7 +20077,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>36</a:t>
+            <a:t>32</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20088,9 +20097,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="473" name="TextBox 472"/>
+        <xdr:cNvPr id="3371" name="TextBox 3370"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20173,9 +20182,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="474" name="TextBox 473"/>
+        <xdr:cNvPr id="3372" name="TextBox 3371"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20238,7 +20247,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Julian Turner</a:t>
+            <a:t>David Byrne</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20258,9 +20267,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="475" name="TextBox 474"/>
+        <xdr:cNvPr id="3373" name="TextBox 3372"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20323,7 +20332,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Brant Broughton</a:t>
+            <a:t>Lincoln South</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20343,9 +20352,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="476" name="TextBox 475"/>
+        <xdr:cNvPr id="3374" name="TextBox 3373"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20425,9 +20434,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="477" name="TextBox 476"/>
+        <xdr:cNvPr id="3375" name="TextBox 3374"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20510,9 +20519,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="478" name="TextBox 477"/>
+        <xdr:cNvPr id="3376" name="TextBox 3375"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20575,7 +20584,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>37</a:t>
+            <a:t>33</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20595,9 +20604,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="479" name="TextBox 478"/>
+        <xdr:cNvPr id="3377" name="TextBox 3376"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20680,9 +20689,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="480" name="TextBox 479"/>
+        <xdr:cNvPr id="3378" name="TextBox 3377"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20765,9 +20774,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="481" name="TextBox 480"/>
+        <xdr:cNvPr id="3379" name="TextBox 3378"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20850,9 +20859,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="482" name="TextBox 481"/>
+        <xdr:cNvPr id="3380" name="TextBox 3379"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20932,9 +20941,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="483" name="TextBox 482"/>
+        <xdr:cNvPr id="3381" name="TextBox 3380"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21017,9 +21026,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="484" name="TextBox 483"/>
+        <xdr:cNvPr id="3382" name="TextBox 3381"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21082,7 +21091,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>38</a:t>
+            <a:t>34</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21102,9 +21111,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="485" name="TextBox 484"/>
+        <xdr:cNvPr id="3383" name="TextBox 3382"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21187,9 +21196,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="486" name="TextBox 485"/>
+        <xdr:cNvPr id="3384" name="TextBox 3383"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21272,9 +21281,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="487" name="TextBox 486"/>
+        <xdr:cNvPr id="3385" name="TextBox 3384"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21357,9 +21366,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="488" name="TextBox 487"/>
+        <xdr:cNvPr id="3386" name="TextBox 3385"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21439,9 +21448,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="489" name="TextBox 488"/>
+        <xdr:cNvPr id="3387" name="TextBox 3386"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21524,9 +21533,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="490" name="TextBox 489"/>
+        <xdr:cNvPr id="3388" name="TextBox 3387"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21589,7 +21598,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>39</a:t>
+            <a:t>35</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21609,9 +21618,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="491" name="TextBox 490"/>
+        <xdr:cNvPr id="3389" name="TextBox 3388"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21694,9 +21703,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="492" name="TextBox 491"/>
+        <xdr:cNvPr id="3390" name="TextBox 3389"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21779,9 +21788,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="493" name="TextBox 492"/>
+        <xdr:cNvPr id="3391" name="TextBox 3390"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21864,9 +21873,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="494" name="TextBox 493"/>
+        <xdr:cNvPr id="3392" name="TextBox 3391"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21946,14 +21955,2549 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="495" name="TextBox 494"/>
+        <xdr:cNvPr id="3393" name="TextBox 3392"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8509000" y="6477000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Open</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3394" name="TextBox 3393"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="6731000"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>36</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3395" name="TextBox 3394"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="6731000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3396" name="TextBox 3395"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="6731000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3397" name="TextBox 3396"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="6731000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Brant Broughton</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3398" name="TextBox 3397"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="6731000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="154E54"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3399" name="TextBox 3398"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="6731000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Open</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3400" name="TextBox 3399"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="6985000"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>37</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3401" name="TextBox 3400"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="6985000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3402" name="TextBox 3401"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="6985000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3403" name="TextBox 3402"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="6985000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Brant Broughton</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3404" name="TextBox 3403"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="6985000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="154E54"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3405" name="TextBox 3404"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="6985000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Open</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3406" name="TextBox 3405"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="7239000"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>38</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3407" name="TextBox 3406"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="7239000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3408" name="TextBox 3407"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="7239000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3409" name="TextBox 3408"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="7239000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Brant Broughton</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3410" name="TextBox 3409"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="7239000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="154E54"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3411" name="TextBox 3410"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="7239000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Open</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3412" name="TextBox 3411"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="7493000"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>39</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3413" name="TextBox 3412"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="7493000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3414" name="TextBox 3413"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="7493000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3415" name="TextBox 3414"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="7493000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Brant Broughton</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3416" name="TextBox 3415"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="7493000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="154E54"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3417" name="TextBox 3416"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="7493000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Open</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3418" name="TextBox 3417"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="7747000"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>41</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3419" name="TextBox 3418"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="7747000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3420" name="TextBox 3419"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="7747000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3421" name="TextBox 3420"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="7747000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Brant Broughton</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3422" name="TextBox 3421"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="7747000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="154E54"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3423" name="TextBox 3422"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="7747000"/>
           <a:ext cx="1270000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -31430,7 +33974,7 @@
         <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
     </row>
   </sheetData>
@@ -32540,10 +35084,10 @@
         <v>90</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="D11" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="V11" s="33"/>
     </row>
@@ -32933,7 +35477,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>189</v>
@@ -33665,7 +36209,7 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="C105" s="32" t="s">
         <v>371</v>
@@ -35813,7 +38357,7 @@
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="31" t="s">
-        <v>2080</v>
+        <v>2091</v>
       </c>
       <c r="C284" s="32" t="s">
         <v>904</v>
@@ -35825,7 +38369,7 @@
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="31" t="s">
-        <v>2081</v>
+        <v>2092</v>
       </c>
       <c r="C285" s="32" t="s">
         <v>907</v>
@@ -37073,7 +39617,7 @@
     </row>
     <row r="389" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A389" s="31" t="s">
-        <v>2082</v>
+        <v>2093</v>
       </c>
       <c r="C389" s="32" t="s">
         <v>1218</v>
@@ -37163,7 +39707,7 @@
         <v>1238</v>
       </c>
       <c r="D396" t="s">
-        <v>1239</v>
+        <v>2085</v>
       </c>
       <c r="V396" s="33"/>
     </row>
@@ -39767,7 +42311,7 @@
         <v>1888</v>
       </c>
       <c r="D613" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="V613" s="33"/>
     </row>
@@ -40307,7 +42851,7 @@
         <v>2086</v>
       </c>
       <c r="D658" t="s">
-        <v>2070</v>
+        <v>2085</v>
       </c>
       <c r="V658" s="33"/>
     </row>
@@ -40315,11 +42859,23 @@
       <c r="A659" s="31" t="s">
         <v>2017</v>
       </c>
+      <c r="C659" s="32" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D659" t="s">
+        <v>2088</v>
+      </c>
       <c r="V659" s="33"/>
     </row>
     <row r="660" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A660" s="31" t="s">
         <v>2020</v>
+      </c>
+      <c r="C660" s="32" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D660" t="s">
+        <v>2088</v>
       </c>
       <c r="V660" s="33"/>
     </row>

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -6360,7 +6360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6444,6 +6444,13 @@
     </font>
     <font>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6862,24 +6869,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6893,12 +6882,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6919,12 +6902,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6941,6 +6918,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7199,98 +7206,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2770" name="Main Screen"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127000" y="127000"/>
-          <a:ext cx="13017500" cy="10160000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="154E54"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="154E54"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
@@ -8509,6 +8424,152 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Main Screen"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="127000"/>
+          <a:ext cx="13017500" cy="10160000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="154E54"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="154E54"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -8521,7 +8582,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2772" name="MenuBar"/>
+        <xdr:cNvPr id="15" name="MenuBar"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8602,60 +8663,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2771" name="Rectangle 2770" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
@@ -8667,7 +8674,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2773" name="MenuItem - My Station"/>
+        <xdr:cNvPr id="16" name="MenuItem - My Station"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8756,7 +8763,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="246" name="Icon - My Station"/>
+        <xdr:cNvPr id="210" name="Icon - My Station"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8805,7 +8812,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2774" name="MenuItem - Stores"/>
+        <xdr:cNvPr id="17" name="MenuItem - Stores"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8894,7 +8901,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="248" name="Icon - Stores"/>
+        <xdr:cNvPr id="212" name="Icon - Stores"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8943,7 +8950,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2775" name="MenuItem - Reports"/>
+        <xdr:cNvPr id="18" name="MenuItem - Reports"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9032,7 +9039,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="250" name="Icon - Reports"/>
+        <xdr:cNvPr id="214" name="Icon - Reports"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9081,7 +9088,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2776" name="MenuItem - My Profile"/>
+        <xdr:cNvPr id="19" name="MenuItem - My Profile"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9170,7 +9177,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="252" name="Icon - My Profile"/>
+        <xdr:cNvPr id="216" name="Icon - My Profile"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9219,7 +9226,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2777" name="MenuItem - Support"/>
+        <xdr:cNvPr id="20" name="MenuItem - Support"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9308,7 +9315,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="254" name="Icon - Support"/>
+        <xdr:cNvPr id="218" name="Icon - Support"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9362,7 +9369,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3274" name="BtnUserMangt"/>
+        <xdr:cNvPr id="23" name="BtnUserMangt"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9457,7 +9464,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(9)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3275" name="BtnOrderSwitch"/>
+        <xdr:cNvPr id="24" name="BtnOrderSwitch"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9552,7 +9559,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(10)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3276" name="BtnRemoteOrder"/>
+        <xdr:cNvPr id="25" name="BtnRemoteOrder"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9642,18 +9649,18 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3273" name="Stores Frame 1"/>
+        <xdr:cNvPr id="22" name="Stores Frame 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2222500" y="254000"/>
-          <a:ext cx="8255000" cy="7874000"/>
+          <a:ext cx="8255000" cy="7620000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9739,7 +9746,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3272" name="Stores 1 Header"/>
+        <xdr:cNvPr id="21" name="Stores 1 Header"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9828,7 +9835,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="817" name="Stores Frame 1 Icon"/>
+        <xdr:cNvPr id="224" name="Stores Frame 1 Icon"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9871,7 +9878,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3277" name="TextBox 3276"/>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9956,7 +9963,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3278" name="TextBox 3277"/>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10041,7 +10048,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3279" name="TextBox 3278"/>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10126,7 +10133,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3280" name="TextBox 3279"/>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10211,7 +10218,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3281" name="TextBox 3280"/>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10296,7 +10303,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3282" name="TextBox 3281"/>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10381,7 +10388,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3283" name="TextBox 3282"/>
+        <xdr:cNvPr id="225" name="TextBox 224"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10466,7 +10473,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3284" name="TextBox 3283"/>
+        <xdr:cNvPr id="226" name="TextBox 225"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10551,7 +10558,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3285" name="TextBox 3284"/>
+        <xdr:cNvPr id="227" name="TextBox 226"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10636,7 +10643,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3286" name="TextBox 3285"/>
+        <xdr:cNvPr id="228" name="TextBox 227"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10721,7 +10728,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3287" name="TextBox 3286"/>
+        <xdr:cNvPr id="229" name="TextBox 228"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10803,7 +10810,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3288" name="TextBox 3287"/>
+        <xdr:cNvPr id="230" name="TextBox 229"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10888,7 +10895,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3289" name="TextBox 3288"/>
+        <xdr:cNvPr id="231" name="TextBox 230"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10973,7 +10980,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3290" name="TextBox 3289"/>
+        <xdr:cNvPr id="232" name="TextBox 231"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11058,7 +11065,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3291" name="TextBox 3290"/>
+        <xdr:cNvPr id="233" name="TextBox 232"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11143,7 +11150,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3292" name="TextBox 3291"/>
+        <xdr:cNvPr id="234" name="TextBox 233"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11228,7 +11235,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3293" name="TextBox 3292"/>
+        <xdr:cNvPr id="235" name="TextBox 234"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11310,7 +11317,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3294" name="TextBox 3293"/>
+        <xdr:cNvPr id="236" name="TextBox 235"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11395,7 +11402,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3295" name="TextBox 3294"/>
+        <xdr:cNvPr id="237" name="TextBox 236"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11480,7 +11487,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="800" name="TextBox 799"/>
+        <xdr:cNvPr id="238" name="TextBox 237"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11565,7 +11572,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="801" name="TextBox 800"/>
+        <xdr:cNvPr id="239" name="TextBox 238"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11650,7 +11657,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="802" name="TextBox 801"/>
+        <xdr:cNvPr id="240" name="TextBox 239"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11735,7 +11742,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="803" name="TextBox 802"/>
+        <xdr:cNvPr id="241" name="TextBox 240"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11791,12 +11798,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="154E54"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11817,7 +11827,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="804" name="TextBox 803"/>
+        <xdr:cNvPr id="242" name="TextBox 241"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11902,7 +11912,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="805" name="TextBox 804"/>
+        <xdr:cNvPr id="243" name="TextBox 242"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11987,7 +11997,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="806" name="TextBox 805"/>
+        <xdr:cNvPr id="244" name="TextBox 243"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12072,7 +12082,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="807" name="TextBox 806"/>
+        <xdr:cNvPr id="245" name="TextBox 244"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12157,7 +12167,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="812" name="TextBox 811"/>
+        <xdr:cNvPr id="247" name="TextBox 246"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12242,7 +12252,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="813" name="TextBox 812"/>
+        <xdr:cNvPr id="249" name="TextBox 248"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12324,7 +12334,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="814" name="TextBox 813"/>
+        <xdr:cNvPr id="251" name="TextBox 250"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12409,7 +12419,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="815" name="TextBox 814"/>
+        <xdr:cNvPr id="253" name="TextBox 252"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12494,7 +12504,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="816" name="TextBox 815"/>
+        <xdr:cNvPr id="255" name="TextBox 254"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12579,7 +12589,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="818" name="TextBox 817"/>
+        <xdr:cNvPr id="2752" name="TextBox 2751"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12664,7 +12674,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="819" name="TextBox 818"/>
+        <xdr:cNvPr id="2753" name="TextBox 2752"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12749,7 +12759,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="820" name="TextBox 819"/>
+        <xdr:cNvPr id="2754" name="TextBox 2753"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12831,7 +12841,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(8)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="821" name="TextBox 820"/>
+        <xdr:cNvPr id="2755" name="TextBox 2754"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12916,7 +12926,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="822" name="TextBox 821"/>
+        <xdr:cNvPr id="2756" name="TextBox 2755"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13001,7 +13011,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="823" name="TextBox 822"/>
+        <xdr:cNvPr id="2757" name="TextBox 2756"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13086,7 +13096,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="824" name="TextBox 823"/>
+        <xdr:cNvPr id="2758" name="TextBox 2757"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13171,7 +13181,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="825" name="TextBox 824"/>
+        <xdr:cNvPr id="2759" name="TextBox 2758"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13256,7 +13266,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="826" name="TextBox 825"/>
+        <xdr:cNvPr id="2760" name="TextBox 2759"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13338,7 +13348,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(11)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="827" name="TextBox 826"/>
+        <xdr:cNvPr id="2761" name="TextBox 2760"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13423,7 +13433,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="828" name="TextBox 827"/>
+        <xdr:cNvPr id="2762" name="TextBox 2761"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13508,7 +13518,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="829" name="TextBox 828"/>
+        <xdr:cNvPr id="2763" name="TextBox 2762"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13593,7 +13603,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="830" name="TextBox 829"/>
+        <xdr:cNvPr id="2764" name="TextBox 2763"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13678,7 +13688,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="831" name="TextBox 830"/>
+        <xdr:cNvPr id="2765" name="TextBox 2764"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13763,7 +13773,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3296" name="TextBox 3295"/>
+        <xdr:cNvPr id="2766" name="TextBox 2765"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13845,7 +13855,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(12)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3297" name="TextBox 3296"/>
+        <xdr:cNvPr id="2767" name="TextBox 2766"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13930,7 +13940,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3298" name="TextBox 3297"/>
+        <xdr:cNvPr id="2768" name="TextBox 2767"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14015,7 +14025,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3299" name="TextBox 3298"/>
+        <xdr:cNvPr id="2769" name="TextBox 2768"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14100,7 +14110,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3300" name="TextBox 3299"/>
+        <xdr:cNvPr id="2778" name="TextBox 2777"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14185,7 +14195,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3301" name="TextBox 3300"/>
+        <xdr:cNvPr id="2779" name="TextBox 2778"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14270,7 +14280,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3302" name="TextBox 3301"/>
+        <xdr:cNvPr id="2780" name="TextBox 2779"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14352,7 +14362,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(15)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3303" name="TextBox 3302"/>
+        <xdr:cNvPr id="2781" name="TextBox 2780"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14437,7 +14447,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3304" name="TextBox 3303"/>
+        <xdr:cNvPr id="2782" name="TextBox 2781"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14522,7 +14532,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3305" name="TextBox 3304"/>
+        <xdr:cNvPr id="2783" name="TextBox 2782"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14607,7 +14617,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3306" name="TextBox 3305"/>
+        <xdr:cNvPr id="3264" name="TextBox 3263"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14692,7 +14702,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3307" name="TextBox 3306"/>
+        <xdr:cNvPr id="3265" name="TextBox 3264"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14777,7 +14787,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3308" name="TextBox 3307"/>
+        <xdr:cNvPr id="3266" name="TextBox 3265"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14859,7 +14869,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(16)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3309" name="TextBox 3308"/>
+        <xdr:cNvPr id="3267" name="TextBox 3266"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14944,7 +14954,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3310" name="TextBox 3309"/>
+        <xdr:cNvPr id="3268" name="TextBox 3267"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15029,7 +15039,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3311" name="TextBox 3310"/>
+        <xdr:cNvPr id="3269" name="TextBox 3268"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15114,7 +15124,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3312" name="TextBox 3311"/>
+        <xdr:cNvPr id="3270" name="TextBox 3269"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15199,7 +15209,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3313" name="TextBox 3312"/>
+        <xdr:cNvPr id="3271" name="TextBox 3270"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15284,7 +15294,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3314" name="TextBox 3313"/>
+        <xdr:cNvPr id="808" name="TextBox 807"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15340,12 +15350,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="154E54"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15366,7 +15379,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(18)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3315" name="TextBox 3314"/>
+        <xdr:cNvPr id="809" name="TextBox 808"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15429,7 +15442,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Open</a:t>
+            <a:t>Assigned</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15451,7 +15464,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3316" name="TextBox 3315"/>
+        <xdr:cNvPr id="810" name="TextBox 809"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15536,7 +15549,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3317" name="TextBox 3316"/>
+        <xdr:cNvPr id="811" name="TextBox 810"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15621,7 +15634,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3318" name="TextBox 3317"/>
+        <xdr:cNvPr id="192" name="TextBox 191"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15706,7 +15719,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3319" name="TextBox 3318"/>
+        <xdr:cNvPr id="193" name="TextBox 192"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15791,7 +15804,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3320" name="TextBox 3319"/>
+        <xdr:cNvPr id="194" name="TextBox 193"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15847,12 +15860,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="154E54"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15873,7 +15889,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(19)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3321" name="TextBox 3320"/>
+        <xdr:cNvPr id="195" name="TextBox 194"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15936,7 +15952,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Open</a:t>
+            <a:t>Assigned</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15958,7 +15974,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3322" name="TextBox 3321"/>
+        <xdr:cNvPr id="196" name="TextBox 195"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16043,7 +16059,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3323" name="TextBox 3322"/>
+        <xdr:cNvPr id="197" name="TextBox 196"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16128,7 +16144,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3324" name="TextBox 3323"/>
+        <xdr:cNvPr id="198" name="TextBox 197"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16213,7 +16229,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3325" name="TextBox 3324"/>
+        <xdr:cNvPr id="199" name="TextBox 198"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16298,7 +16314,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3326" name="TextBox 3325"/>
+        <xdr:cNvPr id="200" name="TextBox 199"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16354,12 +16370,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="154E54"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16380,7 +16399,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(20)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3327" name="TextBox 3326"/>
+        <xdr:cNvPr id="201" name="TextBox 200"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16443,7 +16462,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Open</a:t>
+            <a:t>Assigned</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16465,7 +16484,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3328" name="TextBox 3327"/>
+        <xdr:cNvPr id="202" name="TextBox 201"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16550,7 +16569,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3329" name="TextBox 3328"/>
+        <xdr:cNvPr id="203" name="TextBox 202"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16635,7 +16654,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3330" name="TextBox 3329"/>
+        <xdr:cNvPr id="204" name="TextBox 203"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16720,7 +16739,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3331" name="TextBox 3330"/>
+        <xdr:cNvPr id="205" name="TextBox 204"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16805,7 +16824,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3332" name="TextBox 3331"/>
+        <xdr:cNvPr id="206" name="TextBox 205"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16887,7 +16906,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(22)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3333" name="TextBox 3332"/>
+        <xdr:cNvPr id="207" name="TextBox 206"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16972,7 +16991,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3334" name="TextBox 3333"/>
+        <xdr:cNvPr id="208" name="TextBox 207"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17057,7 +17076,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3335" name="TextBox 3334"/>
+        <xdr:cNvPr id="209" name="TextBox 208"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17142,7 +17161,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3336" name="TextBox 3335"/>
+        <xdr:cNvPr id="211" name="TextBox 210"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17227,7 +17246,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3337" name="TextBox 3336"/>
+        <xdr:cNvPr id="213" name="TextBox 212"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17312,7 +17331,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3338" name="TextBox 3337"/>
+        <xdr:cNvPr id="215" name="TextBox 214"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17394,7 +17413,7 @@
     </xdr:to>
     <xdr:sp macro="'ModUIStoresScreen.OpenOrder(23)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3339" name="TextBox 3338"/>
+        <xdr:cNvPr id="217" name="TextBox 216"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17477,9 +17496,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3340" name="TextBox 3339"/>
+        <xdr:cNvPr id="219" name="TextBox 218"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17542,7 +17561,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>24</a:t>
+            <a:t>26</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17562,9 +17581,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3341" name="TextBox 3340"/>
+        <xdr:cNvPr id="220" name="TextBox 219"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17647,9 +17666,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3342" name="TextBox 3341"/>
+        <xdr:cNvPr id="221" name="TextBox 220"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17712,7 +17731,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Peter Green</a:t>
+            <a:t>Robin Westerdale</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17732,9 +17751,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3343" name="TextBox 3342"/>
+        <xdr:cNvPr id="222" name="TextBox 221"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17797,7 +17816,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>HQ</a:t>
+            <a:t>Bourne</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17817,9 +17836,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3344" name="TextBox 3343"/>
+        <xdr:cNvPr id="223" name="TextBox 222"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17899,9 +17918,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(24)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3345" name="TextBox 3344"/>
+        <xdr:cNvPr id="3424" name="TextBox 3423"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17984,9 +18003,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3346" name="TextBox 3345"/>
+        <xdr:cNvPr id="3425" name="TextBox 3424"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18049,7 +18068,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>25</a:t>
+            <a:t>27</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18069,9 +18088,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3347" name="TextBox 3346"/>
+        <xdr:cNvPr id="3426" name="TextBox 3425"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18134,7 +18153,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18154,9 +18173,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3348" name="TextBox 3347"/>
+        <xdr:cNvPr id="3427" name="TextBox 3426"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18219,7 +18238,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Peter Green</a:t>
+            <a:t>Robin Westerdale</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18239,9 +18258,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3349" name="TextBox 3348"/>
+        <xdr:cNvPr id="3428" name="TextBox 3427"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18304,7 +18323,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>HQ</a:t>
+            <a:t>Bourne</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18324,9 +18343,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3350" name="TextBox 3349"/>
+        <xdr:cNvPr id="3429" name="TextBox 3428"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18406,9 +18425,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(25)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3351" name="TextBox 3350"/>
+        <xdr:cNvPr id="3430" name="TextBox 3429"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18491,9 +18510,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3352" name="TextBox 3351"/>
+        <xdr:cNvPr id="3431" name="TextBox 3430"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18556,7 +18575,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>26</a:t>
+            <a:t>31</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18576,9 +18595,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3353" name="TextBox 3352"/>
+        <xdr:cNvPr id="3432" name="TextBox 3431"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18641,7 +18660,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18661,9 +18680,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3354" name="TextBox 3353"/>
+        <xdr:cNvPr id="3433" name="TextBox 3432"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18726,7 +18745,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Robin Westerdale</a:t>
+            <a:t>Julian Turner</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18746,9 +18765,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3355" name="TextBox 3354"/>
+        <xdr:cNvPr id="3434" name="TextBox 3433"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18811,7 +18830,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Bourne</a:t>
+            <a:t>Brant Broughton</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18831,9 +18850,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3356" name="TextBox 3355"/>
+        <xdr:cNvPr id="3435" name="TextBox 3434"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18913,9 +18932,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(26)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3357" name="TextBox 3356"/>
+        <xdr:cNvPr id="3436" name="TextBox 3435"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18998,9 +19017,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3358" name="TextBox 3357"/>
+        <xdr:cNvPr id="3437" name="TextBox 3436"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19063,7 +19082,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>27</a:t>
+            <a:t>32</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19083,9 +19102,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3359" name="TextBox 3358"/>
+        <xdr:cNvPr id="3438" name="TextBox 3437"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19148,7 +19167,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19168,9 +19187,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3360" name="TextBox 3359"/>
+        <xdr:cNvPr id="3439" name="TextBox 3438"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19233,7 +19252,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Robin Westerdale</a:t>
+            <a:t>David Byrne</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19253,9 +19272,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3361" name="TextBox 3360"/>
+        <xdr:cNvPr id="3440" name="TextBox 3439"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19318,7 +19337,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Bourne</a:t>
+            <a:t>Lincoln South</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19338,9 +19357,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3362" name="TextBox 3361"/>
+        <xdr:cNvPr id="3441" name="TextBox 3440"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19420,9 +19439,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(27)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3363" name="TextBox 3362"/>
+        <xdr:cNvPr id="3442" name="TextBox 3441"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19485,7 +19504,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Open</a:t>
+            <a:t>Issued</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19505,9 +19524,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3364" name="TextBox 3363"/>
+        <xdr:cNvPr id="3443" name="TextBox 3442"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19570,7 +19589,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>31</a:t>
+            <a:t>33</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19590,9 +19609,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3365" name="TextBox 3364"/>
+        <xdr:cNvPr id="3444" name="TextBox 3443"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19675,9 +19694,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3366" name="TextBox 3365"/>
+        <xdr:cNvPr id="3445" name="TextBox 3444"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19760,9 +19779,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3367" name="TextBox 3366"/>
+        <xdr:cNvPr id="3446" name="TextBox 3445"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19845,9 +19864,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3368" name="TextBox 3367"/>
+        <xdr:cNvPr id="3447" name="TextBox 3446"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19927,9 +19946,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(31)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3369" name="TextBox 3368"/>
+        <xdr:cNvPr id="3448" name="TextBox 3447"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20012,9 +20031,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3370" name="TextBox 3369"/>
+        <xdr:cNvPr id="3449" name="TextBox 3448"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20077,7 +20096,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>32</a:t>
+            <a:t>34</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20097,9 +20116,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3371" name="TextBox 3370"/>
+        <xdr:cNvPr id="3450" name="TextBox 3449"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20182,9 +20201,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3372" name="TextBox 3371"/>
+        <xdr:cNvPr id="3451" name="TextBox 3450"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20247,7 +20266,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>David Byrne</a:t>
+            <a:t>Julian Turner</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20267,9 +20286,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3373" name="TextBox 3372"/>
+        <xdr:cNvPr id="3452" name="TextBox 3451"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20332,7 +20351,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Lincoln South</a:t>
+            <a:t>Brant Broughton</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20352,9 +20371,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3374" name="TextBox 3373"/>
+        <xdr:cNvPr id="3453" name="TextBox 3452"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20434,9 +20453,9 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(32)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3375" name="TextBox 3374"/>
+        <xdr:cNvPr id="3454" name="TextBox 3453"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20519,9 +20538,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3376" name="TextBox 3375"/>
+        <xdr:cNvPr id="3455" name="TextBox 3454"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20584,7 +20603,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>33</a:t>
+            <a:t>35</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20604,9 +20623,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3377" name="TextBox 3376"/>
+        <xdr:cNvPr id="3456" name="TextBox 3455"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20689,9 +20708,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3378" name="TextBox 3377"/>
+        <xdr:cNvPr id="3457" name="TextBox 3456"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20774,9 +20793,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3379" name="TextBox 3378"/>
+        <xdr:cNvPr id="3458" name="TextBox 3457"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20859,9 +20878,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3380" name="TextBox 3379"/>
+        <xdr:cNvPr id="3459" name="TextBox 3458"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20941,9 +20960,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(33)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3381" name="TextBox 3380"/>
+        <xdr:cNvPr id="3460" name="TextBox 3459"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21026,9 +21045,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3382" name="TextBox 3381"/>
+        <xdr:cNvPr id="3461" name="TextBox 3460"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21091,7 +21110,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>34</a:t>
+            <a:t>36</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21111,9 +21130,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3383" name="TextBox 3382"/>
+        <xdr:cNvPr id="3462" name="TextBox 3461"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21196,9 +21215,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3384" name="TextBox 3383"/>
+        <xdr:cNvPr id="3463" name="TextBox 3462"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21281,9 +21300,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3385" name="TextBox 3384"/>
+        <xdr:cNvPr id="3464" name="TextBox 3463"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21366,9 +21385,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3386" name="TextBox 3385"/>
+        <xdr:cNvPr id="3465" name="TextBox 3464"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21448,9 +21467,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(34)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3387" name="TextBox 3386"/>
+        <xdr:cNvPr id="3466" name="TextBox 3465"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21533,9 +21552,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3388" name="TextBox 3387"/>
+        <xdr:cNvPr id="3467" name="TextBox 3466"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21598,7 +21617,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>35</a:t>
+            <a:t>37</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21618,9 +21637,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3389" name="TextBox 3388"/>
+        <xdr:cNvPr id="3468" name="TextBox 3467"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21703,9 +21722,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3390" name="TextBox 3389"/>
+        <xdr:cNvPr id="3469" name="TextBox 3468"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21788,9 +21807,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3391" name="TextBox 3390"/>
+        <xdr:cNvPr id="3470" name="TextBox 3469"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21873,9 +21892,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3392" name="TextBox 3391"/>
+        <xdr:cNvPr id="3471" name="TextBox 3470"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21955,9 +21974,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(35)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3393" name="TextBox 3392"/>
+        <xdr:cNvPr id="3472" name="TextBox 3471"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22040,9 +22059,9 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3394" name="TextBox 3393"/>
+        <xdr:cNvPr id="3473" name="TextBox 3472"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22105,7 +22124,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>36</a:t>
+            <a:t>38</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -22125,9 +22144,9 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3395" name="TextBox 3394"/>
+        <xdr:cNvPr id="3474" name="TextBox 3473"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22210,9 +22229,9 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3396" name="TextBox 3395"/>
+        <xdr:cNvPr id="3475" name="TextBox 3474"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22295,9 +22314,9 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3397" name="TextBox 3396"/>
+        <xdr:cNvPr id="3476" name="TextBox 3475"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22380,9 +22399,9 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3398" name="TextBox 3397"/>
+        <xdr:cNvPr id="3477" name="TextBox 3476"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22462,9 +22481,9 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(36)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3399" name="TextBox 3398"/>
+        <xdr:cNvPr id="3478" name="TextBox 3477"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22547,9 +22566,9 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3400" name="TextBox 3399"/>
+        <xdr:cNvPr id="3479" name="TextBox 3478"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22612,7 +22631,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>37</a:t>
+            <a:t>39</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -22632,9 +22651,9 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3401" name="TextBox 3400"/>
+        <xdr:cNvPr id="3480" name="TextBox 3479"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22717,9 +22736,9 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3402" name="TextBox 3401"/>
+        <xdr:cNvPr id="3481" name="TextBox 3480"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22802,9 +22821,9 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3403" name="TextBox 3402"/>
+        <xdr:cNvPr id="3482" name="TextBox 3481"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22887,9 +22906,9 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3404" name="TextBox 3403"/>
+        <xdr:cNvPr id="3483" name="TextBox 3482"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22969,9 +22988,9 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(37)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3405" name="TextBox 3404"/>
+        <xdr:cNvPr id="3484" name="TextBox 3483"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23054,9 +23073,9 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3406" name="TextBox 3405"/>
+        <xdr:cNvPr id="3485" name="TextBox 3484"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23119,7 +23138,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>38</a:t>
+            <a:t>41</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23139,9 +23158,9 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3407" name="TextBox 3406"/>
+        <xdr:cNvPr id="3486" name="TextBox 3485"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23224,9 +23243,9 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3408" name="TextBox 3407"/>
+        <xdr:cNvPr id="3487" name="TextBox 3486"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23289,7 +23308,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Julian Turner</a:t>
+            <a:t>Michael Smith</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23309,9 +23328,9 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3409" name="TextBox 3408"/>
+        <xdr:cNvPr id="3488" name="TextBox 3487"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23374,7 +23393,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Brant Broughton</a:t>
+            <a:t>Grantham</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23394,9 +23413,9 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3410" name="TextBox 3409"/>
+        <xdr:cNvPr id="3489" name="TextBox 3488"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23476,9 +23495,9 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(38)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3411" name="TextBox 3410"/>
+        <xdr:cNvPr id="3490" name="TextBox 3489"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23561,9 +23580,9 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(42)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3412" name="TextBox 3411"/>
+        <xdr:cNvPr id="3491" name="TextBox 3490"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23626,7 +23645,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>39</a:t>
+            <a:t>42</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23646,9 +23665,9 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(42)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3413" name="TextBox 3412"/>
+        <xdr:cNvPr id="3492" name="TextBox 3491"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23731,9 +23750,9 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(42)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3414" name="TextBox 3413"/>
+        <xdr:cNvPr id="3493" name="TextBox 3492"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23796,7 +23815,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Julian Turner</a:t>
+            <a:t>Michael Smith</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23816,9 +23835,9 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(42)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3415" name="TextBox 3414"/>
+        <xdr:cNvPr id="3494" name="TextBox 3493"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23881,7 +23900,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC"/>
             </a:rPr>
-            <a:t>Brant Broughton</a:t>
+            <a:t>Grantham</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23901,9 +23920,9 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(42)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3416" name="TextBox 3415"/>
+        <xdr:cNvPr id="3495" name="TextBox 3494"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23983,521 +24002,14 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(39)'" textlink="">
+    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(42)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3417" name="TextBox 3416"/>
+        <xdr:cNvPr id="3496" name="TextBox 3495"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8509000" y="7493000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Open</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1320800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3418" name="TextBox 3417"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2540000" y="7747000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>41</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3419" name="TextBox 3418"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="7747000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3420" name="TextBox 3419"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4699000" y="7747000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Julian Turner</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3421" name="TextBox 3420"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="7747000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Brant Broughton</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3422" name="TextBox 3421"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7239000" y="7747000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="154E54"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(41)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3423" name="TextBox 3422"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="7747000"/>
           <a:ext cx="1270000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -33606,46 +33118,46 @@
       <c r="C16" s="3"/>
     </row>
     <row r="23" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
     </row>
     <row r="24" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
     </row>
     <row r="25" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
     </row>
     <row r="26" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
     </row>
     <row r="27" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
     </row>
     <row r="28" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -33993,8 +33505,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId5" name="CommandButton1">
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId7" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -34013,32 +33550,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
+        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -44776,7 +44288,7 @@
   <dimension ref="B1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44787,419 +44299,419 @@
     <col min="4" max="4" width="8.85546875" style="34" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" style="34" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="56" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="48" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="40" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="48" t="s">
         <v>2063</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="36" t="s">
         <v>2057</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="52">
         <v>6</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="49" t="s">
         <v>2078</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="52" t="s">
         <v>1482</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="35" t="s">
         <v>2058</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="53" t="s">
         <v>2067</v>
       </c>
-      <c r="I3" s="49"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="49" t="s">
         <v>2059</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="37" t="s">
         <v>2060</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="37" t="s">
         <v>2061</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="38" t="s">
         <v>2062</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="39" t="s">
         <v>2075</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="45" t="s">
         <v>2074</v>
       </c>
-      <c r="I5" s="50" t="b">
+      <c r="I5" s="42" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="54" t="s">
         <v>2076</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="46">
+      <c r="C6" s="55"/>
+      <c r="D6" s="56">
         <v>1</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="54" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57" t="s">
         <v>2077</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="57" t="s">
         <v>2067</v>
       </c>
-      <c r="I6" s="51" t="b">
+      <c r="I6" s="43" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="52"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="52"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="52"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="52"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="52"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="52"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="52"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="52"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="52"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="52"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="52"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="52"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="52"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="52"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="52"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="52"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="52"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="52"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="52"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="52"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="52"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="44"/>
     </row>
     <row r="28" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="52"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="44"/>
     </row>
     <row r="29" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="52"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="44"/>
     </row>
     <row r="30" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="52"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="52"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="52"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="52"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="44"/>
     </row>
     <row r="34" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="52"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="44"/>
     </row>
     <row r="35" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="52"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="44"/>
     </row>
     <row r="36" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="52"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="44"/>
     </row>
     <row r="37" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="52"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="44"/>
     </row>
     <row r="38" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="52"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="44"/>
     </row>
     <row r="39" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="52"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -45382,8 +44894,8 @@
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -6421,14 +6421,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6436,14 +6436,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6806,7 +6806,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6859,31 +6859,40 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6895,52 +6904,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25661,46 +25658,46 @@
       <c r="C16" s="3"/>
     </row>
     <row r="23" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -26048,8 +26045,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId5" name="CommandButton1">
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId7" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -26068,32 +26090,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
+        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -36831,430 +36828,430 @@
   <dimension ref="B1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="34"/>
-    <col min="2" max="2" width="23.85546875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="23" style="34" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="34" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="56" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="48" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="9.140625" style="36"/>
+    <col min="2" max="2" width="23.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="23" style="36" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="36" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="36" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>2063</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="38" t="s">
         <v>2057</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="39">
         <v>6</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="40" t="s">
         <v>2078</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="39" t="s">
         <v>1482</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="42" t="s">
         <v>2058</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="43" t="s">
         <v>2067</v>
       </c>
-      <c r="I3" s="49"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="40" t="s">
         <v>2059</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="46" t="s">
         <v>2060</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="46" t="s">
         <v>2061</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="47" t="s">
         <v>2062</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="48" t="s">
         <v>2075</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="48" t="s">
         <v>2074</v>
       </c>
-      <c r="I5" s="50" t="b">
+      <c r="I5" s="49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="50" t="s">
         <v>2076</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="46">
+      <c r="C6" s="51"/>
+      <c r="D6" s="52">
         <v>1</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="54" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53" t="s">
         <v>2077</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="53" t="s">
         <v>2067</v>
       </c>
-      <c r="I6" s="51" t="b">
+      <c r="I6" s="54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="52"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="52"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="52"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="52"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="52"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="52"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="52"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="52"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="52"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="52"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="52"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="52"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="52"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="52"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="52"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="52"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="52"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="52"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="52"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="52"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="52"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="52"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="52"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="52"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="52"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="52"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="52"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="52"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="52"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="52"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="52"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="52"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -37886,7 +37883,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5152" r:id="rId24" name="$H$15">
+            <control shapeId="5152" r:id="rId24" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37908,7 +37905,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5153" r:id="rId25" name="$H$16">
+            <control shapeId="5153" r:id="rId25" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37930,7 +37927,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5154" r:id="rId26" name="$H$17">
+            <control shapeId="5154" r:id="rId26" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37952,7 +37949,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5155" r:id="rId27" name="$H$18">
+            <control shapeId="5155" r:id="rId27" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37974,7 +37971,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5156" r:id="rId28" name="$H$19">
+            <control shapeId="5156" r:id="rId28" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37996,7 +37993,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5157" r:id="rId29" name="$H$20">
+            <control shapeId="5157" r:id="rId29" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38018,7 +38015,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5158" r:id="rId30" name="$H$21">
+            <control shapeId="5158" r:id="rId30" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38040,7 +38037,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5159" r:id="rId31" name="$H$22">
+            <control shapeId="5159" r:id="rId31" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38062,7 +38059,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5160" r:id="rId32" name="$H$23">
+            <control shapeId="5160" r:id="rId32" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38084,7 +38081,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5161" r:id="rId33" name="$H$24">
+            <control shapeId="5161" r:id="rId33" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38106,7 +38103,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5162" r:id="rId34" name="$H$25">
+            <control shapeId="5162" r:id="rId34" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -6859,9 +6859,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6877,12 +6874,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6891,9 +6882,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6937,7 +6925,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16614,6 +16614,158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133348</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>363334</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="TEMPLATE - Delivery"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22355173" y="3048000"/>
+          <a:ext cx="229986" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>495298</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>34471</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>58275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="TEMPLATE - Phone"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22717123" y="2390775"/>
+          <a:ext cx="148773" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>113660</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="TEMPLATE - Closed Orders"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22136100" y="3429000"/>
+          <a:ext cx="199385" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>568324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>97132</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="TEMPLATE - User"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23399749" y="1704975"/>
+          <a:ext cx="138408" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -25615,7 +25767,9 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="B4:P28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25658,49 +25812,48 @@
       <c r="C16" s="3"/>
     </row>
     <row r="23" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
     </row>
     <row r="24" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
     </row>
     <row r="25" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
     </row>
     <row r="26" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
     </row>
     <row r="27" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
     </row>
     <row r="28" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="L23:P28"/>
@@ -26045,8 +26198,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
+        <control shapeId="2052" r:id="rId5" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -26065,32 +26243,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId7" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -36833,425 +36986,425 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="36"/>
-    <col min="2" max="2" width="23.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="23" style="36" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="36" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="36" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="9.140625" style="35"/>
+    <col min="2" max="2" width="23.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23" style="35" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="35" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="34" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="57" t="s">
         <v>2063</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>2057</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>6</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="58" t="s">
         <v>2078</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="39" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="38" t="s">
         <v>1482</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="39" t="s">
         <v>2058</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="40" t="s">
         <v>2067</v>
       </c>
-      <c r="I3" s="44"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="58" t="s">
         <v>2059</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="42" t="s">
         <v>2060</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="42" t="s">
         <v>2061</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="43" t="s">
         <v>2062</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="44" t="s">
         <v>2075</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="44" t="s">
         <v>2074</v>
       </c>
-      <c r="I5" s="49" t="b">
+      <c r="I5" s="45" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="46" t="s">
         <v>2076</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52">
+      <c r="C6" s="47"/>
+      <c r="D6" s="48">
         <v>1</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49" t="s">
         <v>2077</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="49" t="s">
         <v>2067</v>
       </c>
-      <c r="I6" s="54" t="b">
+      <c r="I6" s="50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
     </row>
     <row r="12" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
     </row>
     <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
     </row>
     <row r="16" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
     </row>
     <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
     </row>
     <row r="24" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
     </row>
     <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
     </row>
     <row r="32" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
     </row>
     <row r="33" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
     </row>
     <row r="34" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
     </row>
     <row r="36" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
     </row>
     <row r="38" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
     </row>
     <row r="39" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -37883,7 +38036,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5152" r:id="rId24" name="Check Box 32">
+            <control shapeId="5152" r:id="rId24" name="$H$15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37905,7 +38058,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5153" r:id="rId25" name="Check Box 33">
+            <control shapeId="5153" r:id="rId25" name="$H$16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37927,7 +38080,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5154" r:id="rId26" name="Check Box 34">
+            <control shapeId="5154" r:id="rId26" name="$H$17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37949,7 +38102,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5155" r:id="rId27" name="Check Box 35">
+            <control shapeId="5155" r:id="rId27" name="$H$18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37971,7 +38124,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5156" r:id="rId28" name="Check Box 36">
+            <control shapeId="5156" r:id="rId28" name="$H$19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37993,7 +38146,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5157" r:id="rId29" name="Check Box 37">
+            <control shapeId="5157" r:id="rId29" name="$H$20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38015,7 +38168,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5158" r:id="rId30" name="Check Box 38">
+            <control shapeId="5158" r:id="rId30" name="$H$21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38037,7 +38190,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5159" r:id="rId31" name="Check Box 39">
+            <control shapeId="5159" r:id="rId31" name="$H$22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38059,7 +38212,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5160" r:id="rId32" name="Check Box 40">
+            <control shapeId="5160" r:id="rId32" name="$H$23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38081,7 +38234,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5161" r:id="rId33" name="Check Box 41">
+            <control shapeId="5161" r:id="rId33" name="$H$24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38103,7 +38256,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5162" r:id="rId34" name="Check Box 42">
+            <control shapeId="5162" r:id="rId34" name="$H$25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -26198,8 +26198,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId5" name="CommandButton1">
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId7" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -26218,32 +26243,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
+        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -12,11 +12,10 @@
     <sheet name="Version Control" sheetId="6" r:id="rId3"/>
     <sheet name="Lists" sheetId="7" r:id="rId4"/>
     <sheet name="Order List" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACAExtCovCol">'[1]Station Detail'!$AB$13</definedName>
@@ -14531,296 +14530,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6181725" y="1581150"/>
-          <a:ext cx="3276600" cy="1562100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>185624</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="8100000">
-          <a:off x="7210424" y="2171700"/>
-          <a:ext cx="900000" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>230924</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>459524</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>69000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="8100000">
-          <a:off x="7546124" y="1836000"/>
-          <a:ext cx="228600" cy="900000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>230924</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>459524</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>69000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="13500000">
-          <a:off x="7210424" y="2171700"/>
-          <a:ext cx="900000" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="322924"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="322924">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect t="12071" r="12771" b="12920"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3057526" y="1514475"/>
-          <a:ext cx="1104900" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -21282,8 +20991,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
+        <control shapeId="2052" r:id="rId5" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -21302,32 +21036,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId7" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -36277,7 +35986,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5152" r:id="rId24" name="Check Box 32">
+            <control shapeId="5152" r:id="rId24" name="$H$15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36299,7 +36008,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5153" r:id="rId25" name="Check Box 33">
+            <control shapeId="5153" r:id="rId25" name="$H$16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36321,7 +36030,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5154" r:id="rId26" name="Check Box 34">
+            <control shapeId="5154" r:id="rId26" name="$H$17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36343,7 +36052,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5155" r:id="rId27" name="Check Box 35">
+            <control shapeId="5155" r:id="rId27" name="$H$18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36365,7 +36074,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5156" r:id="rId28" name="Check Box 36">
+            <control shapeId="5156" r:id="rId28" name="$H$19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36387,7 +36096,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5157" r:id="rId29" name="Check Box 37">
+            <control shapeId="5157" r:id="rId29" name="$H$20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36409,7 +36118,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5158" r:id="rId30" name="Check Box 38">
+            <control shapeId="5158" r:id="rId30" name="$H$21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36431,7 +36140,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5159" r:id="rId31" name="Check Box 39">
+            <control shapeId="5159" r:id="rId31" name="$H$22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36453,7 +36162,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5160" r:id="rId32" name="Check Box 40">
+            <control shapeId="5160" r:id="rId32" name="$H$23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36475,7 +36184,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5161" r:id="rId33" name="Check Box 41">
+            <control shapeId="5161" r:id="rId33" name="$H$24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36497,7 +36206,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5162" r:id="rId34" name="Check Box 42">
+            <control shapeId="5162" r:id="rId34" name="$H$25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36609,20 +36318,4 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -11553,6 +11553,44 @@
         <a:xfrm>
           <a:off x="21957926" y="3867150"/>
           <a:ext cx="258680" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>153426</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="925" name="TEMPLATE - FindOrder"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23441026" y="3238500"/>
+          <a:ext cx="153425" cy="144000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20595,7 +20633,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -20991,8 +21029,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId5" name="CommandButton1">
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId7" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -21011,32 +21074,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
+        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -12,10 +12,11 @@
     <sheet name="Version Control" sheetId="6" r:id="rId3"/>
     <sheet name="Lists" sheetId="7" r:id="rId4"/>
     <sheet name="Order List" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACAExtCovCol">'[1]Station Detail'!$AB$13</definedName>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="3061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="3062">
   <si>
     <t>Colour 1</t>
   </si>
@@ -9252,6 +9253,9 @@
   </si>
   <si>
     <t>wypall; wipes</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -9869,6 +9873,7 @@
   <colors>
     <mruColors>
       <color rgb="FFFFFFFF"/>
+      <color rgb="FFFFCC00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -10097,151 +10102,96 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>281712</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>168375</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="TEMPLATE - Icon_Stores"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="20A39E"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="20A39E">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1597" name="Main Screen"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21066126" y="3190875"/>
-          <a:ext cx="218211" cy="216000"/>
+          <a:off x="127000" y="127000"/>
+          <a:ext cx="13017500" cy="10160000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="154E54"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="154E54"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>243704</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="TEMPLATE - Icon_Document"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="20A39E"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="20A39E">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21085175" y="2838450"/>
-          <a:ext cx="161154" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>577851</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>193150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>54075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="TEMPLATE - Icon_Head"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="20A39E"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="20A39E">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20970876" y="2505075"/>
-          <a:ext cx="224899" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -11000,55 +10950,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>6651</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>203820</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>79475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="TEMPLATE - Icon_Station"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="20A39E"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="20A39E">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21009276" y="1768475"/>
-          <a:ext cx="197169" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>355601</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -11068,7 +10969,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11106,7 +11007,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11144,7 +11045,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFA634"/>
@@ -11174,60 +11075,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>84367</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>63600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="TEMPLATE - Icon_Support"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="000000"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="000000">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21469350" y="2705100"/>
-          <a:ext cx="227242" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -11247,7 +11094,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11290,7 +11137,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11333,7 +11180,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11371,7 +11218,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11409,7 +11256,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11447,7 +11294,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11485,7 +11332,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFA634"/>
@@ -11515,54 +11362,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>583650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>118650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="364" name="TEMPLATE - Exit"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="322924"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="322924">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect l="20073" t="12071" r="12771" b="12920"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21957926" y="3867150"/>
-          <a:ext cx="258680" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -11582,7 +11381,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11591,6 +11390,5498 @@
         <a:xfrm>
           <a:off x="23441026" y="3238500"/>
           <a:ext cx="153425" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76315</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>187425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="TEMPLATE - Icon_Station"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20878800" y="1685925"/>
+          <a:ext cx="200140" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>331006</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>168375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="TEMPLATE - Icon_Stores"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect t="1291"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22336125" y="904875"/>
+          <a:ext cx="216706" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>226675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1335" name="TEMPLATE - Icon_Document"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="F8FFF4"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="F8FFF4">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23507700" y="1162050"/>
+          <a:ext cx="160000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>73784</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1424" name="TEMPLATE - Icon_Head"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21478875" y="1981200"/>
+          <a:ext cx="207134" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>156972</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1510" name="TEMPLATE - Icon_Support"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="F8FFF4"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="F8FFF4">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="2786" t="3867" r="1938" b="817"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21555075" y="2476500"/>
+          <a:ext cx="214122" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>600450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1596" name="TEMPLATE - Exit"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="F8FFF4"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="F8FFF4">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22583775" y="3914775"/>
+          <a:ext cx="238500" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1599" name="MenuBar"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="127000"/>
+          <a:ext cx="1905000" cy="10160000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1598" name="Rectangle 1597" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1600" name="MenuItem - My Station"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2413000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>My Station</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>263640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Icon - My Station"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="2476500"/>
+          <a:ext cx="200140" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1601" name="MenuItem - Stores"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2794000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="705C50"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Stores</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>280206</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Icon - Stores"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect t="1291"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="2857500"/>
+          <a:ext cx="216706" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1602" name="MenuItem - Reports"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3175000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="705C50"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Reports</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>223500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Icon - Reports"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="F8FFF4"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="F8FFF4">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="3238500"/>
+          <a:ext cx="160000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1603" name="MenuItem - My Profile"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3556000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="705C50"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>My Profile</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>270634</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Icon - My Profile"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="3619500"/>
+          <a:ext cx="207134" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1604" name="MenuItem - Support"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3937000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="705C50"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Support</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>277622</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Icon - Support"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="F8FFF4"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="F8FFF4">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="2786" t="3867" r="1938" b="817"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="4000500"/>
+          <a:ext cx="214122" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(6)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1605" name="MenuItem - Exit"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4318000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="705C50"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Exit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>302000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Icon - Exit"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="F8FFF4"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="F8FFF4">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="4381500"/>
+          <a:ext cx="238500" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1715" name="Main Frame"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="254000"/>
+          <a:ext cx="9702800" cy="2730500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1714" name="Main Frame Header"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="254000"/>
+          <a:ext cx="9702800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Allocations - Brant Broughton</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1172" name="Main Frame Icon"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11645800" y="317500"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3248025"/>
+            <a:gd name="connsiteY0" fmla="*/ 1609725 h 3219450"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3248025"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3219450"/>
+            <a:gd name="connsiteX2" fmla="*/ 3248026 w 3248025"/>
+            <a:gd name="connsiteY2" fmla="*/ 1609725 h 3219450"/>
+            <a:gd name="connsiteX3" fmla="*/ 1624013 w 3248025"/>
+            <a:gd name="connsiteY3" fmla="*/ 3219450 h 3219450"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3248025"/>
+            <a:gd name="connsiteY4" fmla="*/ 1609725 h 3219450"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3352584"/>
+            <a:gd name="connsiteY0" fmla="*/ 1627552 h 3237277"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3352584"/>
+            <a:gd name="connsiteY1" fmla="*/ 17827 h 3237277"/>
+            <a:gd name="connsiteX2" fmla="*/ 3019425 w 3352584"/>
+            <a:gd name="connsiteY2" fmla="*/ 817927 h 3237277"/>
+            <a:gd name="connsiteX3" fmla="*/ 3248026 w 3352584"/>
+            <a:gd name="connsiteY3" fmla="*/ 1627552 h 3237277"/>
+            <a:gd name="connsiteX4" fmla="*/ 1624013 w 3352584"/>
+            <a:gd name="connsiteY4" fmla="*/ 3237277 h 3237277"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 3352584"/>
+            <a:gd name="connsiteY5" fmla="*/ 1627552 h 3237277"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY0" fmla="*/ 1692045 h 3301770"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY1" fmla="*/ 82320 h 3301770"/>
+            <a:gd name="connsiteX2" fmla="*/ 2333624 w 3331915"/>
+            <a:gd name="connsiteY2" fmla="*/ 301396 h 3301770"/>
+            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
+            <a:gd name="connsiteY3" fmla="*/ 882420 h 3301770"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
+            <a:gd name="connsiteY4" fmla="*/ 1692045 h 3301770"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY5" fmla="*/ 3301770 h 3301770"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY6" fmla="*/ 1692045 h 3301770"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY0" fmla="*/ 1609994 h 3219719"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY1" fmla="*/ 269 h 3219719"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
+            <a:gd name="connsiteY2" fmla="*/ 1476645 h 3219719"/>
+            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
+            <a:gd name="connsiteY3" fmla="*/ 800369 h 3219719"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
+            <a:gd name="connsiteY4" fmla="*/ 1609994 h 3219719"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY5" fmla="*/ 3219719 h 3219719"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY6" fmla="*/ 1609994 h 3219719"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY0" fmla="*/ 1609966 h 3219691"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY1" fmla="*/ 241 h 3219691"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
+            <a:gd name="connsiteY2" fmla="*/ 1476617 h 3219691"/>
+            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
+            <a:gd name="connsiteY3" fmla="*/ 800341 h 3219691"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
+            <a:gd name="connsiteY4" fmla="*/ 1609966 h 3219691"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY5" fmla="*/ 3219691 h 3219691"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY6" fmla="*/ 1609966 h 3219691"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY0" fmla="*/ 1609966 h 3219691"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY1" fmla="*/ 241 h 3219691"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
+            <a:gd name="connsiteY2" fmla="*/ 1476617 h 3219691"/>
+            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
+            <a:gd name="connsiteY3" fmla="*/ 800341 h 3219691"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
+            <a:gd name="connsiteY4" fmla="*/ 1609966 h 3219691"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY5" fmla="*/ 3219691 h 3219691"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY6" fmla="*/ 1609966 h 3219691"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY0" fmla="*/ 1609731 h 3219456"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY1" fmla="*/ 6 h 3219456"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
+            <a:gd name="connsiteY2" fmla="*/ 1476382 h 3219456"/>
+            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
+            <a:gd name="connsiteY3" fmla="*/ 800106 h 3219456"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
+            <a:gd name="connsiteY4" fmla="*/ 1609731 h 3219456"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY5" fmla="*/ 3219456 h 3219456"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY6" fmla="*/ 1609731 h 3219456"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY0" fmla="*/ 1609766 h 3219491"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY1" fmla="*/ 41 h 3219491"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
+            <a:gd name="connsiteY2" fmla="*/ 1476417 h 3219491"/>
+            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
+            <a:gd name="connsiteY3" fmla="*/ 800141 h 3219491"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
+            <a:gd name="connsiteY4" fmla="*/ 1609766 h 3219491"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY5" fmla="*/ 3219491 h 3219491"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY6" fmla="*/ 1609766 h 3219491"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY0" fmla="*/ 1609766 h 3219491"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY1" fmla="*/ 41 h 3219491"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
+            <a:gd name="connsiteY2" fmla="*/ 1476417 h 3219491"/>
+            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
+            <a:gd name="connsiteY3" fmla="*/ 800141 h 3219491"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
+            <a:gd name="connsiteY4" fmla="*/ 1609766 h 3219491"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY5" fmla="*/ 3219491 h 3219491"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY6" fmla="*/ 1609766 h 3219491"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
+            <a:gd name="connsiteY3" fmla="*/ 804773 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
+            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3331915"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 3019425 w 3331915"/>
+            <a:gd name="connsiteY3" fmla="*/ 804773 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3331915"/>
+            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3331915"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3331915"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3318320"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3318320"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3318320"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3318320"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3019425 w 3318320"/>
+            <a:gd name="connsiteY4" fmla="*/ 804773 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 3248026 w 3318320"/>
+            <a:gd name="connsiteY5" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 1624013 w 3318320"/>
+            <a:gd name="connsiteY6" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX7" fmla="*/ 0 w 3318320"/>
+            <a:gd name="connsiteY7" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3318320"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3318320"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3318320"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3318320"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3019425 w 3318320"/>
+            <a:gd name="connsiteY4" fmla="*/ 804773 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 3248026 w 3318320"/>
+            <a:gd name="connsiteY5" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 1624013 w 3318320"/>
+            <a:gd name="connsiteY6" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX7" fmla="*/ 0 w 3318320"/>
+            <a:gd name="connsiteY7" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3318320"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3318320"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3318320"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3318320"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3019425 w 3318320"/>
+            <a:gd name="connsiteY4" fmla="*/ 804773 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 3248026 w 3318320"/>
+            <a:gd name="connsiteY5" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 1624013 w 3318320"/>
+            <a:gd name="connsiteY6" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX7" fmla="*/ 0 w 3318320"/>
+            <a:gd name="connsiteY7" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3311688"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3311688"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3311688"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3311688"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3311688"/>
+            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3311688"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3311688"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3311688"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3253331"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3311688"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3253331"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3311688"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3253331"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3311688"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3253331"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3311688"/>
+            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3253331"/>
+            <a:gd name="connsiteX5" fmla="*/ 2962275 w 3311688"/>
+            <a:gd name="connsiteY5" fmla="*/ 2576424 h 3253331"/>
+            <a:gd name="connsiteX6" fmla="*/ 1624013 w 3311688"/>
+            <a:gd name="connsiteY6" fmla="*/ 3224123 h 3253331"/>
+            <a:gd name="connsiteX7" fmla="*/ 0 w 3311688"/>
+            <a:gd name="connsiteY7" fmla="*/ 1614398 h 3253331"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3311688"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3311688"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3311688"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3311688"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3311688"/>
+            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3311688"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3311688"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3311688"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3311688"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3311688"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3311688"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3311688"/>
+            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3311688"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3311688"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3254737"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3254737"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3254737"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3254737"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3254737"/>
+            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3254737"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3254737"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3248036"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3248036"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3248036"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3248036"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3248036"/>
+            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3248036"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3248036"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3248036"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3248036"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3248036"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3248036"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3248036"/>
+            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3248036"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3248036"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3248036"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3248036"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3224123"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3248036"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3224123"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3248036"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3224123"/>
+            <a:gd name="connsiteX4" fmla="*/ 3248026 w 3248036"/>
+            <a:gd name="connsiteY4" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3248036"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3224123"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3248036"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3224123"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3228987"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3226017"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3228987"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3226017"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3228987"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3226017"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3228987"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3226017"/>
+            <a:gd name="connsiteX4" fmla="*/ 3228976 w 3228987"/>
+            <a:gd name="connsiteY4" fmla="*/ 1833473 h 3226017"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3228987"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3226017"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3228987"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3226017"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3228987"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3226017"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3228987"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3226017"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3228987"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3226017"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3228987"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3226017"/>
+            <a:gd name="connsiteX4" fmla="*/ 3228976 w 3228987"/>
+            <a:gd name="connsiteY4" fmla="*/ 1833473 h 3226017"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3228987"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3226017"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3228987"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3226017"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3228987"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3226017"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3228987"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3226017"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3228987"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3226017"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3228987"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3226017"/>
+            <a:gd name="connsiteX4" fmla="*/ 3228976 w 3228987"/>
+            <a:gd name="connsiteY4" fmla="*/ 1833473 h 3226017"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3228987"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3226017"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3228987"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3226017"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3228987"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614398 h 3226017"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624013 w 3228987"/>
+            <a:gd name="connsiteY1" fmla="*/ 4673 h 3226017"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685924 w 3228987"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481049 h 3226017"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857500 w 3228987"/>
+            <a:gd name="connsiteY3" fmla="*/ 585699 h 3226017"/>
+            <a:gd name="connsiteX4" fmla="*/ 3228976 w 3228987"/>
+            <a:gd name="connsiteY4" fmla="*/ 1833473 h 3226017"/>
+            <a:gd name="connsiteX5" fmla="*/ 1624013 w 3228987"/>
+            <a:gd name="connsiteY5" fmla="*/ 3224123 h 3226017"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3228987"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614398 h 3226017"/>
+            <a:gd name="connsiteX0" fmla="*/ 1402 w 3286864"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613065 h 3242810"/>
+            <a:gd name="connsiteX1" fmla="*/ 1625415 w 3286864"/>
+            <a:gd name="connsiteY1" fmla="*/ 3340 h 3242810"/>
+            <a:gd name="connsiteX2" fmla="*/ 1687326 w 3286864"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479716 h 3242810"/>
+            <a:gd name="connsiteX3" fmla="*/ 2858902 w 3286864"/>
+            <a:gd name="connsiteY3" fmla="*/ 584366 h 3242810"/>
+            <a:gd name="connsiteX4" fmla="*/ 3230378 w 3286864"/>
+            <a:gd name="connsiteY4" fmla="*/ 1832140 h 3242810"/>
+            <a:gd name="connsiteX5" fmla="*/ 1377765 w 3286864"/>
+            <a:gd name="connsiteY5" fmla="*/ 3241840 h 3242810"/>
+            <a:gd name="connsiteX6" fmla="*/ 1402 w 3286864"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613065 h 3242810"/>
+            <a:gd name="connsiteX0" fmla="*/ 2186 w 3287648"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613065 h 3242378"/>
+            <a:gd name="connsiteX1" fmla="*/ 1626199 w 3287648"/>
+            <a:gd name="connsiteY1" fmla="*/ 3340 h 3242378"/>
+            <a:gd name="connsiteX2" fmla="*/ 1688110 w 3287648"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479716 h 3242378"/>
+            <a:gd name="connsiteX3" fmla="*/ 2859686 w 3287648"/>
+            <a:gd name="connsiteY3" fmla="*/ 584366 h 3242378"/>
+            <a:gd name="connsiteX4" fmla="*/ 3231162 w 3287648"/>
+            <a:gd name="connsiteY4" fmla="*/ 1832140 h 3242378"/>
+            <a:gd name="connsiteX5" fmla="*/ 1378549 w 3287648"/>
+            <a:gd name="connsiteY5" fmla="*/ 3241840 h 3242378"/>
+            <a:gd name="connsiteX6" fmla="*/ 2186 w 3287648"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613065 h 3242378"/>
+            <a:gd name="connsiteX0" fmla="*/ 3753 w 3289215"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613065 h 3243358"/>
+            <a:gd name="connsiteX1" fmla="*/ 1627766 w 3289215"/>
+            <a:gd name="connsiteY1" fmla="*/ 3340 h 3243358"/>
+            <a:gd name="connsiteX2" fmla="*/ 1689677 w 3289215"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479716 h 3243358"/>
+            <a:gd name="connsiteX3" fmla="*/ 2861253 w 3289215"/>
+            <a:gd name="connsiteY3" fmla="*/ 584366 h 3243358"/>
+            <a:gd name="connsiteX4" fmla="*/ 3232729 w 3289215"/>
+            <a:gd name="connsiteY4" fmla="*/ 1832140 h 3243358"/>
+            <a:gd name="connsiteX5" fmla="*/ 1380116 w 3289215"/>
+            <a:gd name="connsiteY5" fmla="*/ 3241840 h 3243358"/>
+            <a:gd name="connsiteX6" fmla="*/ 3753 w 3289215"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613065 h 3243358"/>
+            <a:gd name="connsiteX0" fmla="*/ 536 w 3278020"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3271912"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624549 w 3278020"/>
+            <a:gd name="connsiteY1" fmla="*/ 3353 h 3271912"/>
+            <a:gd name="connsiteX2" fmla="*/ 1686460 w 3278020"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3271912"/>
+            <a:gd name="connsiteX3" fmla="*/ 2858036 w 3278020"/>
+            <a:gd name="connsiteY3" fmla="*/ 584379 h 3271912"/>
+            <a:gd name="connsiteX4" fmla="*/ 3229512 w 3278020"/>
+            <a:gd name="connsiteY4" fmla="*/ 1832153 h 3271912"/>
+            <a:gd name="connsiteX5" fmla="*/ 1519774 w 3278020"/>
+            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3271912"/>
+            <a:gd name="connsiteX6" fmla="*/ 536 w 3278020"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3271912"/>
+            <a:gd name="connsiteX0" fmla="*/ 536 w 3262990"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3272516"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624549 w 3262990"/>
+            <a:gd name="connsiteY1" fmla="*/ 3353 h 3272516"/>
+            <a:gd name="connsiteX2" fmla="*/ 1686460 w 3262990"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3272516"/>
+            <a:gd name="connsiteX3" fmla="*/ 2858036 w 3262990"/>
+            <a:gd name="connsiteY3" fmla="*/ 584379 h 3272516"/>
+            <a:gd name="connsiteX4" fmla="*/ 3229512 w 3262990"/>
+            <a:gd name="connsiteY4" fmla="*/ 1832153 h 3272516"/>
+            <a:gd name="connsiteX5" fmla="*/ 1519774 w 3262990"/>
+            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3272516"/>
+            <a:gd name="connsiteX6" fmla="*/ 536 w 3262990"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3272516"/>
+            <a:gd name="connsiteX0" fmla="*/ 536 w 3295532"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3272516"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624549 w 3295532"/>
+            <a:gd name="connsiteY1" fmla="*/ 3353 h 3272516"/>
+            <a:gd name="connsiteX2" fmla="*/ 1686460 w 3295532"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3272516"/>
+            <a:gd name="connsiteX3" fmla="*/ 2858036 w 3295532"/>
+            <a:gd name="connsiteY3" fmla="*/ 584379 h 3272516"/>
+            <a:gd name="connsiteX4" fmla="*/ 3229512 w 3295532"/>
+            <a:gd name="connsiteY4" fmla="*/ 1832153 h 3272516"/>
+            <a:gd name="connsiteX5" fmla="*/ 1519774 w 3295532"/>
+            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3272516"/>
+            <a:gd name="connsiteX6" fmla="*/ 536 w 3295532"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3272516"/>
+            <a:gd name="connsiteX0" fmla="*/ 536 w 3259779"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3271952"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624549 w 3259779"/>
+            <a:gd name="connsiteY1" fmla="*/ 3353 h 3271952"/>
+            <a:gd name="connsiteX2" fmla="*/ 1686460 w 3259779"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3271952"/>
+            <a:gd name="connsiteX3" fmla="*/ 2858036 w 3259779"/>
+            <a:gd name="connsiteY3" fmla="*/ 584379 h 3271952"/>
+            <a:gd name="connsiteX4" fmla="*/ 3229512 w 3259779"/>
+            <a:gd name="connsiteY4" fmla="*/ 1832153 h 3271952"/>
+            <a:gd name="connsiteX5" fmla="*/ 1519774 w 3259779"/>
+            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3271952"/>
+            <a:gd name="connsiteX6" fmla="*/ 536 w 3259779"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3271952"/>
+            <a:gd name="connsiteX0" fmla="*/ 536 w 3255957"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3271995"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624549 w 3255957"/>
+            <a:gd name="connsiteY1" fmla="*/ 3353 h 3271995"/>
+            <a:gd name="connsiteX2" fmla="*/ 1686460 w 3255957"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3271995"/>
+            <a:gd name="connsiteX3" fmla="*/ 2858036 w 3255957"/>
+            <a:gd name="connsiteY3" fmla="*/ 584379 h 3271995"/>
+            <a:gd name="connsiteX4" fmla="*/ 3229512 w 3255957"/>
+            <a:gd name="connsiteY4" fmla="*/ 1832153 h 3271995"/>
+            <a:gd name="connsiteX5" fmla="*/ 1519774 w 3255957"/>
+            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3271995"/>
+            <a:gd name="connsiteX6" fmla="*/ 536 w 3255957"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3271995"/>
+            <a:gd name="connsiteX0" fmla="*/ 224 w 3207066"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613078 h 3277396"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624237 w 3207066"/>
+            <a:gd name="connsiteY1" fmla="*/ 3353 h 3277396"/>
+            <a:gd name="connsiteX2" fmla="*/ 1686148 w 3207066"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479729 h 3277396"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857724 w 3207066"/>
+            <a:gd name="connsiteY3" fmla="*/ 584379 h 3277396"/>
+            <a:gd name="connsiteX4" fmla="*/ 3172050 w 3207066"/>
+            <a:gd name="connsiteY4" fmla="*/ 2127428 h 3277396"/>
+            <a:gd name="connsiteX5" fmla="*/ 1519462 w 3207066"/>
+            <a:gd name="connsiteY5" fmla="*/ 3270428 h 3277396"/>
+            <a:gd name="connsiteX6" fmla="*/ 224 w 3207066"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613078 h 3277396"/>
+            <a:gd name="connsiteX0" fmla="*/ 224 w 3207066"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614492 h 3278810"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624237 w 3207066"/>
+            <a:gd name="connsiteY1" fmla="*/ 4767 h 3278810"/>
+            <a:gd name="connsiteX2" fmla="*/ 1686148 w 3207066"/>
+            <a:gd name="connsiteY2" fmla="*/ 1481143 h 3278810"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857724 w 3207066"/>
+            <a:gd name="connsiteY3" fmla="*/ 585793 h 3278810"/>
+            <a:gd name="connsiteX4" fmla="*/ 3172050 w 3207066"/>
+            <a:gd name="connsiteY4" fmla="*/ 2128842 h 3278810"/>
+            <a:gd name="connsiteX5" fmla="*/ 1519462 w 3207066"/>
+            <a:gd name="connsiteY5" fmla="*/ 3271842 h 3278810"/>
+            <a:gd name="connsiteX6" fmla="*/ 224 w 3207066"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614492 h 3278810"/>
+            <a:gd name="connsiteX0" fmla="*/ 2128 w 3208970"/>
+            <a:gd name="connsiteY0" fmla="*/ 1615578 h 3279896"/>
+            <a:gd name="connsiteX1" fmla="*/ 1626141 w 3208970"/>
+            <a:gd name="connsiteY1" fmla="*/ 5853 h 3279896"/>
+            <a:gd name="connsiteX2" fmla="*/ 1688052 w 3208970"/>
+            <a:gd name="connsiteY2" fmla="*/ 1482229 h 3279896"/>
+            <a:gd name="connsiteX3" fmla="*/ 2859628 w 3208970"/>
+            <a:gd name="connsiteY3" fmla="*/ 586879 h 3279896"/>
+            <a:gd name="connsiteX4" fmla="*/ 3173954 w 3208970"/>
+            <a:gd name="connsiteY4" fmla="*/ 2129928 h 3279896"/>
+            <a:gd name="connsiteX5" fmla="*/ 1521366 w 3208970"/>
+            <a:gd name="connsiteY5" fmla="*/ 3272928 h 3279896"/>
+            <a:gd name="connsiteX6" fmla="*/ 2128 w 3208970"/>
+            <a:gd name="connsiteY6" fmla="*/ 1615578 h 3279896"/>
+            <a:gd name="connsiteX0" fmla="*/ 2184 w 3209026"/>
+            <a:gd name="connsiteY0" fmla="*/ 1615578 h 3276236"/>
+            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3209026"/>
+            <a:gd name="connsiteY1" fmla="*/ 5853 h 3276236"/>
+            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3209026"/>
+            <a:gd name="connsiteY2" fmla="*/ 1482229 h 3276236"/>
+            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3209026"/>
+            <a:gd name="connsiteY3" fmla="*/ 586879 h 3276236"/>
+            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3209026"/>
+            <a:gd name="connsiteY4" fmla="*/ 2129928 h 3276236"/>
+            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3209026"/>
+            <a:gd name="connsiteY5" fmla="*/ 3272928 h 3276236"/>
+            <a:gd name="connsiteX6" fmla="*/ 2184 w 3209026"/>
+            <a:gd name="connsiteY6" fmla="*/ 1615578 h 3276236"/>
+            <a:gd name="connsiteX0" fmla="*/ 2184 w 3238139"/>
+            <a:gd name="connsiteY0" fmla="*/ 1615578 h 3277817"/>
+            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3238139"/>
+            <a:gd name="connsiteY1" fmla="*/ 5853 h 3277817"/>
+            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3238139"/>
+            <a:gd name="connsiteY2" fmla="*/ 1482229 h 3277817"/>
+            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3238139"/>
+            <a:gd name="connsiteY3" fmla="*/ 586879 h 3277817"/>
+            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3238139"/>
+            <a:gd name="connsiteY4" fmla="*/ 2129928 h 3277817"/>
+            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3238139"/>
+            <a:gd name="connsiteY5" fmla="*/ 3272928 h 3277817"/>
+            <a:gd name="connsiteX6" fmla="*/ 2184 w 3238139"/>
+            <a:gd name="connsiteY6" fmla="*/ 1615578 h 3277817"/>
+            <a:gd name="connsiteX0" fmla="*/ 2184 w 3216301"/>
+            <a:gd name="connsiteY0" fmla="*/ 1615578 h 3277817"/>
+            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3216301"/>
+            <a:gd name="connsiteY1" fmla="*/ 5853 h 3277817"/>
+            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3216301"/>
+            <a:gd name="connsiteY2" fmla="*/ 1482229 h 3277817"/>
+            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3216301"/>
+            <a:gd name="connsiteY3" fmla="*/ 586879 h 3277817"/>
+            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3216301"/>
+            <a:gd name="connsiteY4" fmla="*/ 2129928 h 3277817"/>
+            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3216301"/>
+            <a:gd name="connsiteY5" fmla="*/ 3272928 h 3277817"/>
+            <a:gd name="connsiteX6" fmla="*/ 2184 w 3216301"/>
+            <a:gd name="connsiteY6" fmla="*/ 1615578 h 3277817"/>
+            <a:gd name="connsiteX0" fmla="*/ 2184 w 3250598"/>
+            <a:gd name="connsiteY0" fmla="*/ 1615578 h 3278754"/>
+            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3250598"/>
+            <a:gd name="connsiteY1" fmla="*/ 5853 h 3278754"/>
+            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3250598"/>
+            <a:gd name="connsiteY2" fmla="*/ 1482229 h 3278754"/>
+            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3250598"/>
+            <a:gd name="connsiteY3" fmla="*/ 586879 h 3278754"/>
+            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3250598"/>
+            <a:gd name="connsiteY4" fmla="*/ 2129928 h 3278754"/>
+            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3250598"/>
+            <a:gd name="connsiteY5" fmla="*/ 3272928 h 3278754"/>
+            <a:gd name="connsiteX6" fmla="*/ 2184 w 3250598"/>
+            <a:gd name="connsiteY6" fmla="*/ 1615578 h 3278754"/>
+            <a:gd name="connsiteX0" fmla="*/ 2184 w 3250598"/>
+            <a:gd name="connsiteY0" fmla="*/ 1614273 h 3277449"/>
+            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3250598"/>
+            <a:gd name="connsiteY1" fmla="*/ 4548 h 3277449"/>
+            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3250598"/>
+            <a:gd name="connsiteY2" fmla="*/ 1480924 h 3277449"/>
+            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3250598"/>
+            <a:gd name="connsiteY3" fmla="*/ 585574 h 3277449"/>
+            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3250598"/>
+            <a:gd name="connsiteY4" fmla="*/ 2128623 h 3277449"/>
+            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3250598"/>
+            <a:gd name="connsiteY5" fmla="*/ 3271623 h 3277449"/>
+            <a:gd name="connsiteX6" fmla="*/ 2184 w 3250598"/>
+            <a:gd name="connsiteY6" fmla="*/ 1614273 h 3277449"/>
+            <a:gd name="connsiteX0" fmla="*/ 2184 w 3250598"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613103 h 3276279"/>
+            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3250598"/>
+            <a:gd name="connsiteY1" fmla="*/ 3378 h 3276279"/>
+            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3250598"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479754 h 3276279"/>
+            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3250598"/>
+            <a:gd name="connsiteY3" fmla="*/ 584404 h 3276279"/>
+            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3250598"/>
+            <a:gd name="connsiteY4" fmla="*/ 2127453 h 3276279"/>
+            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3250598"/>
+            <a:gd name="connsiteY5" fmla="*/ 3270453 h 3276279"/>
+            <a:gd name="connsiteX6" fmla="*/ 2184 w 3250598"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613103 h 3276279"/>
+            <a:gd name="connsiteX0" fmla="*/ 2184 w 3250598"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613103 h 3276279"/>
+            <a:gd name="connsiteX1" fmla="*/ 1626197 w 3250598"/>
+            <a:gd name="connsiteY1" fmla="*/ 3378 h 3276279"/>
+            <a:gd name="connsiteX2" fmla="*/ 1688108 w 3250598"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479754 h 3276279"/>
+            <a:gd name="connsiteX3" fmla="*/ 2859684 w 3250598"/>
+            <a:gd name="connsiteY3" fmla="*/ 584404 h 3276279"/>
+            <a:gd name="connsiteX4" fmla="*/ 3174010 w 3250598"/>
+            <a:gd name="connsiteY4" fmla="*/ 2127453 h 3276279"/>
+            <a:gd name="connsiteX5" fmla="*/ 1521422 w 3250598"/>
+            <a:gd name="connsiteY5" fmla="*/ 3270453 h 3276279"/>
+            <a:gd name="connsiteX6" fmla="*/ 2184 w 3250598"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613103 h 3276279"/>
+            <a:gd name="connsiteX0" fmla="*/ 49 w 3248463"/>
+            <a:gd name="connsiteY0" fmla="*/ 1613201 h 3276377"/>
+            <a:gd name="connsiteX1" fmla="*/ 1624062 w 3248463"/>
+            <a:gd name="connsiteY1" fmla="*/ 3476 h 3276377"/>
+            <a:gd name="connsiteX2" fmla="*/ 1685973 w 3248463"/>
+            <a:gd name="connsiteY2" fmla="*/ 1479852 h 3276377"/>
+            <a:gd name="connsiteX3" fmla="*/ 2857549 w 3248463"/>
+            <a:gd name="connsiteY3" fmla="*/ 584502 h 3276377"/>
+            <a:gd name="connsiteX4" fmla="*/ 3171875 w 3248463"/>
+            <a:gd name="connsiteY4" fmla="*/ 2127551 h 3276377"/>
+            <a:gd name="connsiteX5" fmla="*/ 1519287 w 3248463"/>
+            <a:gd name="connsiteY5" fmla="*/ 3270551 h 3276377"/>
+            <a:gd name="connsiteX6" fmla="*/ 49 w 3248463"/>
+            <a:gd name="connsiteY6" fmla="*/ 1613201 h 3276377"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3248463" h="3276377">
+              <a:moveTo>
+                <a:pt x="49" y="1613201"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="7986" y="525764"/>
+                <a:pt x="1104950" y="-50499"/>
+                <a:pt x="1624062" y="3476"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1628824" y="301"/>
+                <a:pt x="1720104" y="1613202"/>
+                <a:pt x="1685973" y="1479852"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1701054" y="1487790"/>
+                <a:pt x="2854374" y="554340"/>
+                <a:pt x="2857549" y="584502"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3051224" y="797227"/>
+                <a:pt x="3404444" y="1289351"/>
+                <a:pt x="3171875" y="2127551"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2939306" y="2965751"/>
+                <a:pt x="2076500" y="3327701"/>
+                <a:pt x="1519287" y="3270551"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="962074" y="3213401"/>
+                <a:pt x="-7888" y="2700638"/>
+                <a:pt x="49" y="1613201"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1717" name="Left Frame"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="3175000"/>
+          <a:ext cx="4737100" cy="2730500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1716" name="Left Frame Header"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="3175000"/>
+          <a:ext cx="4737100" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Recent Orders</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581427</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1175" name="Left Frame Icon"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448827" y="3238500"/>
+          <a:ext cx="447273" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="FALSE" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1718" name="TextBox 1717"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="3492500"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="322924"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Order No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="FALSE" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1719" name="TextBox 1718"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3111500" y="3492500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="322924"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Order Date</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1279525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="FALSE" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1720" name="TextBox 1719"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="3492500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="322924"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Ordered By</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1279525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="FALSE" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1721" name="TextBox 1720"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5651500" y="3492500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="322924"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Order Status</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(483)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1722" name="TextBox 1721"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="3683000"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>483</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(483)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1723" name="TextBox 1722"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3111500" y="3683000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>16 Jun 17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1279525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(483)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1724" name="TextBox 1723"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="3683000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1279525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(483)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1725" name="TextBox 1724"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5651500" y="3683000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Open</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(484)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1726" name="TextBox 1725"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="3873500"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>484</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(484)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1727" name="TextBox 1726"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3111500" y="3873500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>16 Jun 17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1279525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(484)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1152" name="TextBox 1151"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="3873500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1279525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(484)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1153" name="TextBox 1152"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5651500" y="3873500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Open</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(487)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1154" name="TextBox 1153"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="4064000"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>487</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(487)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1155" name="TextBox 1154"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3111500" y="4064000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>29 Jun 17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1279525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(487)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1156" name="TextBox 1155"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="4064000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Julian Turner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1279525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(487)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1157" name="TextBox 1156"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5651500" y="4064000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Open</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1159" name="Right Frame"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7188200" y="3175000"/>
+          <a:ext cx="4737100" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1158" name="Right Frame Header"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7188200" y="3175000"/>
+          <a:ext cx="4737100" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>My Orders</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88673</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1194" name="Right Frame Icon"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11337698" y="3238500"/>
+          <a:ext cx="524102" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="FALSE" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1160" name="TextBox 1159"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7188200" y="3492500"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="322924"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Order No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1250950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="FALSE" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1161" name="TextBox 1160"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="3492500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="322924"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Order Date</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1250950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="FALSE" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1162" name="TextBox 1161"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9347200" y="3492500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="322924"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Assigned To</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="FALSE" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1163" name="TextBox 1162"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10617200" y="3492500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="322924"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Order Status</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(483)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1164" name="TextBox 1163"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7188200" y="3683000"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>483</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1250950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(483)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1165" name="TextBox 1164"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="3683000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>16 Jun 17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1250950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(483)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1166" name="TextBox 1165"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9347200" y="3683000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="154E54"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(483)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1167" name="TextBox 1166"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10617200" y="3683000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Open</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(484)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1168" name="TextBox 1167"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7188200" y="3873500"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>484</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1250950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(484)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1169" name="TextBox 1168"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="3873500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>16 Jun 17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1250950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(484)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1170" name="TextBox 1169"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9347200" y="3873500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="154E54"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(484)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1171" name="TextBox 1170"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10617200" y="3873500"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Open</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(487)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1173" name="TextBox 1172"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7188200" y="4064000"/>
+          <a:ext cx="889000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>487</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1250950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(487)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1174" name="TextBox 1173"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="4064000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>29 Jun 17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1250950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(487)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1176" name="TextBox 1175"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9347200" y="4064000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="154E54"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMainScreen.OpenOrder(487)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1177" name="TextBox 1176"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10617200" y="4064000"/>
+          <a:ext cx="1270000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Open</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'moduimenu.ProcessBtnPress(7)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1178" name="New Order Button"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7188200" y="4953000"/>
+          <a:ext cx="4737100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFCC00"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFA634"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="3200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="322924"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>New Order    </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234829</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1212" name="New_Order_Button"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFA634"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFA634">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10871200" y="5156200"/>
+          <a:ext cx="612654" cy="468000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14568,6 +19859,269 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="342900"/>
+          <a:ext cx="6296025" cy="4705350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>249426</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>170723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>72328</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>168118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rounded Rectangle 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8100000" flipH="1">
+          <a:off x="6715379" y="1172370"/>
+          <a:ext cx="1521395" cy="1042102"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33547"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66530</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="56" name="Group 55"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="2700000">
+          <a:off x="4105274" y="828530"/>
+          <a:ext cx="4000500" cy="4000500"/>
+          <a:chOff x="4572000" y="842963"/>
+          <a:chExt cx="4000500" cy="4000500"/>
+        </a:xfrm>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="tx2"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="0"/>
+        </a:gradFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="Rounded Rectangle 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4572000" y="2314575"/>
+            <a:ext cx="4000500" cy="1057275"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="Rounded Rectangle 54"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="4572000" y="2314575"/>
+            <a:ext cx="4000500" cy="1057275"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -20633,7 +26187,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -20685,6 +26239,7 @@
       <c r="P28" s="56"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="L23:P28"/>
@@ -20706,7 +26261,7 @@
   <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36024,7 +41579,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5152" r:id="rId24" name="$H$15">
+            <control shapeId="5152" r:id="rId24" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36046,7 +41601,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5153" r:id="rId25" name="$H$16">
+            <control shapeId="5153" r:id="rId25" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36068,7 +41623,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5154" r:id="rId26" name="$H$17">
+            <control shapeId="5154" r:id="rId26" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36090,7 +41645,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5155" r:id="rId27" name="$H$18">
+            <control shapeId="5155" r:id="rId27" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36112,7 +41667,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5156" r:id="rId28" name="$H$19">
+            <control shapeId="5156" r:id="rId28" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36134,7 +41689,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5157" r:id="rId29" name="$H$20">
+            <control shapeId="5157" r:id="rId29" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36156,7 +41711,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5158" r:id="rId30" name="$H$21">
+            <control shapeId="5158" r:id="rId30" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36178,7 +41733,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5159" r:id="rId31" name="$H$22">
+            <control shapeId="5159" r:id="rId31" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36200,7 +41755,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5160" r:id="rId32" name="$H$23">
+            <control shapeId="5160" r:id="rId32" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36222,7 +41777,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5161" r:id="rId33" name="$H$24">
+            <control shapeId="5161" r:id="rId33" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36244,7 +41799,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5162" r:id="rId34" name="$H$25">
+            <control shapeId="5162" r:id="rId34" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36356,4 +41911,26 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="P9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -12,11 +12,10 @@
     <sheet name="Version Control" sheetId="6" r:id="rId3"/>
     <sheet name="Lists" sheetId="7" r:id="rId4"/>
     <sheet name="Order List" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACAExtCovCol">'[1]Station Detail'!$AB$13</definedName>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="3062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="3061">
   <si>
     <t>Colour 1</t>
   </si>
@@ -9253,9 +9252,6 @@
   </si>
   <si>
     <t>wypall; wipes</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
 </sst>
 </file>
@@ -19859,269 +19855,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rectangle 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2905125" y="342900"/>
-          <a:ext cx="6296025" cy="4705350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>249426</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>170723</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>72328</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>168118</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rounded Rectangle 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="8100000" flipH="1">
-          <a:off x="6715379" y="1172370"/>
-          <a:ext cx="1521395" cy="1042102"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 33547"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66530</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="56" name="Group 55"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm rot="2700000">
-          <a:off x="4105274" y="828530"/>
-          <a:ext cx="4000500" cy="4000500"/>
-          <a:chOff x="4572000" y="842963"/>
-          <a:chExt cx="4000500" cy="4000500"/>
-        </a:xfrm>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="tx2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="tx2"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="tx2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
-        </a:gradFill>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="Rounded Rectangle 53"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4572000" y="2314575"/>
-            <a:ext cx="4000500" cy="1057275"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="Rounded Rectangle 54"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="4572000" y="2314575"/>
-            <a:ext cx="4000500" cy="1057275"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -26584,8 +26317,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
+        <control shapeId="2052" r:id="rId5" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -26604,32 +26362,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId7" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41579,7 +41312,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5152" r:id="rId24" name="Check Box 32">
+            <control shapeId="5152" r:id="rId24" name="$H$15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -41601,7 +41334,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5153" r:id="rId25" name="Check Box 33">
+            <control shapeId="5153" r:id="rId25" name="$H$16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -41623,7 +41356,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5154" r:id="rId26" name="Check Box 34">
+            <control shapeId="5154" r:id="rId26" name="$H$17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -41645,7 +41378,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5155" r:id="rId27" name="Check Box 35">
+            <control shapeId="5155" r:id="rId27" name="$H$18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -41667,7 +41400,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5156" r:id="rId28" name="Check Box 36">
+            <control shapeId="5156" r:id="rId28" name="$H$19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -41689,7 +41422,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5157" r:id="rId29" name="Check Box 37">
+            <control shapeId="5157" r:id="rId29" name="$H$20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -41711,7 +41444,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5158" r:id="rId30" name="Check Box 38">
+            <control shapeId="5158" r:id="rId30" name="$H$21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -41733,7 +41466,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5159" r:id="rId31" name="Check Box 39">
+            <control shapeId="5159" r:id="rId31" name="$H$22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -41755,7 +41488,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5160" r:id="rId32" name="Check Box 40">
+            <control shapeId="5160" r:id="rId32" name="$H$23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -41777,7 +41510,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5161" r:id="rId33" name="Check Box 41">
+            <control shapeId="5161" r:id="rId33" name="$H$24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -41799,7 +41532,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5162" r:id="rId34" name="Check Box 42">
+            <control shapeId="5162" r:id="rId34" name="$H$25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -41911,26 +41644,4 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="P9"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="9" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P9" t="s">
-        <v>3061</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileSharing readOnlyRecommended="1" userName="Julian Turner" reservationPassword="CEBA"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9975"/>
@@ -12,10 +13,11 @@
     <sheet name="Version Control" sheetId="6" r:id="rId3"/>
     <sheet name="Lists" sheetId="7" r:id="rId4"/>
     <sheet name="Order List" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACAExtCovCol">'[1]Station Detail'!$AB$13</definedName>
@@ -9266,7 +9268,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000"/>
-    <numFmt numFmtId="166" formatCode="dd\ mmm\ yy"/>
+    <numFmt numFmtId="165" formatCode="dd\ mmm\ yy"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -9812,21 +9814,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9848,7 +9835,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11596,6 +11598,44 @@
         <a:xfrm>
           <a:off x="22583775" y="3914775"/>
           <a:ext cx="238500" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>316806</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1436" name="TEMPLATE - DropDown"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23593426" y="2143125"/>
+          <a:ext cx="164405" cy="216000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14573,6 +14613,130 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="1162049"/>
+          <a:ext cx="1800000" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501140</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>555549</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Right Triangle 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18900000">
+          <a:off x="3549140" y="1973668"/>
+          <a:ext cx="1273609" cy="1272952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -20603,7 +20767,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtMain"/>
-  <dimension ref="B4:P28"/>
+  <dimension ref="C4:P28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -20620,7 +20784,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -20628,7 +20792,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -20636,58 +20800,53 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
     <row r="23" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
     </row>
     <row r="24" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
     </row>
     <row r="25" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
     </row>
     <row r="26" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
     </row>
     <row r="27" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
     </row>
     <row r="28" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -21034,8 +21193,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId5" name="CommandButton1">
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId7" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -21054,32 +21238,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
+        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -34993,53 +35152,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="60" t="s">
         <v>1919</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="3" spans="2:11" s="60" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="3" spans="2:11" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="56" t="s">
         <v>1913</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="53">
         <v>443</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="56" t="s">
         <v>3059</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="58">
         <v>42898</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="61" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="56" t="s">
         <v>1931</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="54" t="s">
         <v>1914</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="57" t="s">
         <v>3060</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="61" t="s">
         <v>1915</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="37" t="s">
         <v>1916</v>
       </c>
@@ -35063,8 +35222,8 @@
       <c r="B6" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="42"/>
       <c r="F6" s="43">
         <v>1</v>
@@ -35085,8 +35244,8 @@
       <c r="B7" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="47"/>
       <c r="F7" s="48">
         <v>1</v>
@@ -35103,8 +35262,8 @@
     </row>
     <row r="8" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="46"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="47"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
@@ -35115,8 +35274,8 @@
     </row>
     <row r="9" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="46"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="47"/>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
@@ -35127,8 +35286,8 @@
     </row>
     <row r="10" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
@@ -35139,8 +35298,8 @@
     </row>
     <row r="11" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="47"/>
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
@@ -35151,8 +35310,8 @@
     </row>
     <row r="12" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="46"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="47"/>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
@@ -35163,8 +35322,8 @@
     </row>
     <row r="13" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="47"/>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
@@ -35175,8 +35334,8 @@
     </row>
     <row r="14" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="46"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="47"/>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
@@ -35187,8 +35346,8 @@
     </row>
     <row r="15" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="46"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="47"/>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
@@ -35199,8 +35358,8 @@
     </row>
     <row r="16" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="46"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="47"/>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
@@ -35211,8 +35370,8 @@
     </row>
     <row r="17" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="46"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="47"/>
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
@@ -35223,8 +35382,8 @@
     </row>
     <row r="18" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="47"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
@@ -35235,8 +35394,8 @@
     </row>
     <row r="19" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="46"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="47"/>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
@@ -35247,8 +35406,8 @@
     </row>
     <row r="20" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="46"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="47"/>
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
@@ -35259,8 +35418,8 @@
     </row>
     <row r="21" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="46"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="47"/>
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
@@ -35271,8 +35430,8 @@
     </row>
     <row r="22" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="46"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="47"/>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
@@ -35283,8 +35442,8 @@
     </row>
     <row r="23" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="46"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="47"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
@@ -35295,8 +35454,8 @@
     </row>
     <row r="24" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="47"/>
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
@@ -35307,8 +35466,8 @@
     </row>
     <row r="25" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="46"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="47"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
@@ -35319,8 +35478,8 @@
     </row>
     <row r="26" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="47"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
@@ -35331,8 +35490,8 @@
     </row>
     <row r="27" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="46"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="47"/>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
@@ -35343,8 +35502,8 @@
     </row>
     <row r="28" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="46"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="47"/>
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
@@ -35355,8 +35514,8 @@
     </row>
     <row r="29" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="46"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="47"/>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
@@ -35367,8 +35526,8 @@
     </row>
     <row r="30" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="46"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="47"/>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
@@ -35379,8 +35538,8 @@
     </row>
     <row r="31" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="46"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="47"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
@@ -35391,8 +35550,8 @@
     </row>
     <row r="32" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="46"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="47"/>
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
@@ -35403,8 +35562,8 @@
     </row>
     <row r="33" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="46"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="47"/>
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
@@ -35415,8 +35574,8 @@
     </row>
     <row r="34" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="46"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="47"/>
       <c r="F34" s="48"/>
       <c r="G34" s="48"/>
@@ -35427,8 +35586,8 @@
     </row>
     <row r="35" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="46"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="47"/>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
@@ -35439,8 +35598,8 @@
     </row>
     <row r="36" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="47"/>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
@@ -35451,8 +35610,8 @@
     </row>
     <row r="37" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="46"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="47"/>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
@@ -35463,8 +35622,8 @@
     </row>
     <row r="38" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="46"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="47"/>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
@@ -35475,8 +35634,8 @@
     </row>
     <row r="39" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="46"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="47"/>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
@@ -36449,4 +36608,20 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -13,11 +13,10 @@
     <sheet name="Version Control" sheetId="6" r:id="rId3"/>
     <sheet name="Lists" sheetId="7" r:id="rId4"/>
     <sheet name="Order List" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACAExtCovCol">'[1]Station Detail'!$AB$13</definedName>
@@ -10110,6 +10109,98 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Main Screen"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="127000"/>
+          <a:ext cx="13017500" cy="10160000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="154E54"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="154E54"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
@@ -11606,42 +11697,2620 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="MenuBar"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="127000"/>
+          <a:ext cx="1905000" cy="10160000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="MenuItem - My Station"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2413000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="705C50"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>My Station</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>316806</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>73125</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>263640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1436" name="TEMPLATE - DropDown"/>
+        <xdr:cNvPr id="24" name="Icon - My Station"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23593426" y="2143125"/>
-          <a:ext cx="164405" cy="216000"/>
+          <a:off x="63500" y="2476500"/>
+          <a:ext cx="200140" cy="216000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="MenuItem - Stores"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2794000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="705C50"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Stores</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>280206</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Icon - Stores"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect t="1291"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="2857500"/>
+          <a:ext cx="216706" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="MenuItem - Reports"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3175000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="705C50"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Reports</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>223500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Icon - Reports"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="F8FFF4"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="F8FFF4">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="3238500"/>
+          <a:ext cx="160000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="MenuItem - My Profile"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3556000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>My Profile</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>270634</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Icon - My Profile"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="3619500"/>
+          <a:ext cx="207134" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="MenuItem - Support"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3937000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="705C50"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Support</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>277622</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Icon - Support"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="F8FFF4"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="F8FFF4">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="2786" t="3867" r="1938" b="817"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="4000500"/>
+          <a:ext cx="214122" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(6)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="MenuItem - Exit"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4318000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="705C50"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="322924"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Exit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>302000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Icon - Exit"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="F8FFF4"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="F8FFF4">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="4381500"/>
+          <a:ext cx="238500" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="901" name="Rectangle 900"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38098</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>186871</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>20175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="TEMPLATE - DropDown"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22869523" y="2543175"/>
+          <a:ext cx="148773" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1598" name="My Profile Frame 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="254000"/>
+          <a:ext cx="5588000" cy="3111500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1597" name="My Profile 1 Header"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="254000"/>
+          <a:ext cx="5588000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="20A39E"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>My Profile</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1672466</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1879600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="My Profile Frame 1 Icon"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7539866" y="317500"/>
+          <a:ext cx="207134" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="913" name="TextBox 912"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2349500" y="762000"/>
+          <a:ext cx="952500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Crew No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="914" name="TextBox 913"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="762000"/>
+          <a:ext cx="1524000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>5398</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="915" name="TextBox 914"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2349500" y="1270000"/>
+          <a:ext cx="952500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Forename</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="916" name="TextBox 915"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="1270000"/>
+          <a:ext cx="1524000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Julian</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>708025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="917" name="TextBox 916"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5080000" y="1270000"/>
+          <a:ext cx="952500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Surname</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="918" name="TextBox 917"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032500" y="1270000"/>
+          <a:ext cx="1524000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Turner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="919" name="TextBox 918"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2349500" y="1778000"/>
+          <a:ext cx="952500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Role</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="920" name="TextBox 919"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="1778000"/>
+          <a:ext cx="1524000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Crew Manager Competent (Operator)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>708025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="921" name="TextBox 920"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5080000" y="762000"/>
+          <a:ext cx="952500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Rank / Grade</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="922" name="TextBox 921"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032500" y="762000"/>
+          <a:ext cx="1524000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Crew Manager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="923" name="TextBox 922"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2349500" y="2286000"/>
+          <a:ext cx="952500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Location</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>708025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="926" name="TextBox 925"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5080000" y="2286000"/>
+          <a:ext cx="952500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Watch</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="927" name="TextBox 926"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032500" y="2286000"/>
+          <a:ext cx="1524000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>708025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5080000" y="1778000"/>
+          <a:ext cx="952500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="154E54"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Access Level</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032500" y="1778000"/>
+          <a:ext cx="1524000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="924" name="TextBox 923"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="2286000"/>
+          <a:ext cx="1524000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Brant Broughton</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91623</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="DropDown"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2400300"/>
+          <a:ext cx="148773" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUISupportScreen.ProcessBtnPress(8)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="912" name="BtnUpdate"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="2794000"/>
+          <a:ext cx="1270000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFCC00"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFA634"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="322924"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC"/>
+            </a:rPr>
+            <a:t>Update</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14613,130 +17282,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3286125" y="1162049"/>
-          <a:ext cx="1800000" cy="2352675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>501140</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68668</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>555549</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>8120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Right Triangle 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="18900000">
-          <a:off x="3549140" y="1973668"/>
-          <a:ext cx="1273609" cy="1272952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -20767,9 +23312,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtMain"/>
-  <dimension ref="C4:P28"/>
+  <dimension ref="B4:P28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20784,7 +23331,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -20792,7 +23339,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -20800,10 +23347,15 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
     <row r="23" spans="12:16" x14ac:dyDescent="0.25">
@@ -20849,6 +23401,7 @@
       <c r="P28" s="59"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="L23:P28"/>
@@ -21193,8 +23746,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
+        <control shapeId="2052" r:id="rId5" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -21213,32 +23791,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId7" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -36608,20 +39161,4 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -13,10 +13,11 @@
     <sheet name="Version Control" sheetId="6" r:id="rId3"/>
     <sheet name="Lists" sheetId="7" r:id="rId4"/>
     <sheet name="Order List" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACAExtCovCol">'[1]Station Detail'!$AB$13</definedName>
@@ -9709,7 +9710,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -9836,6 +9837,9 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -10109,98 +10113,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Main Screen"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127000" y="127000"/>
-          <a:ext cx="13017500" cy="10160000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="154E54"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="154E54"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
@@ -11697,2620 +11609,234 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="MenuBar"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="127000"/>
-          <a:ext cx="1905000" cy="10160000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="MenuItem - My Station"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2413000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>My Station</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>263640</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>229725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Icon - My Station"/>
+        <xdr:cNvPr id="1318" name="TEMPLATE - DropDown"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63500" y="2476500"/>
-          <a:ext cx="200140" cy="216000"/>
+          <a:off x="21697950" y="2886076"/>
+          <a:ext cx="144000" cy="238019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="MenuItem - Stores"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2794000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Stores</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>280206</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>382125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Icon - Stores"/>
+        <xdr:cNvPr id="1213" name="TEMPLATE - DropDown"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect t="1291"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="2857500"/>
-          <a:ext cx="216706" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="MenuItem - Reports"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3175000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Reports</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>223500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Icon - Reports"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="F8FFF4"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="F8FFF4">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63500" y="3238500"/>
-          <a:ext cx="160000" cy="216000"/>
+          <a:off x="21850350" y="3038476"/>
+          <a:ext cx="144000" cy="238019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="MenuItem - My Profile"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3556000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>My Profile</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>270634</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>382125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Icon - My Profile"/>
+        <xdr:cNvPr id="1222" name="TEMPLATE - DropDown"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63500" y="3619500"/>
-          <a:ext cx="207134" cy="216000"/>
+          <a:off x="21850350" y="3038476"/>
+          <a:ext cx="144000" cy="238019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(5)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="MenuItem - Support"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3937000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Support</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>277622</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>382125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Icon - Support"/>
+        <xdr:cNvPr id="1345" name="TEMPLATE - DropDown"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="F8FFF4"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="F8FFF4">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect l="2786" t="3867" r="1938" b="817"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="4000500"/>
-          <a:ext cx="214122" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(6)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="MenuItem - Exit"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4318000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Exit</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>302000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Icon - Exit"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="F8FFF4"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="F8FFF4">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63500" y="4381500"/>
-          <a:ext cx="238500" cy="216000"/>
+          <a:off x="21850350" y="3038476"/>
+          <a:ext cx="144000" cy="238019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="901" name="Rectangle 900"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>38098</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>186871</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>20175</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>382125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="TEMPLATE - DropDown"/>
+        <xdr:cNvPr id="1357" name="TEMPLATE - DropDown"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22869523" y="2543175"/>
-          <a:ext cx="148773" cy="144000"/>
+          <a:off x="21850350" y="3038476"/>
+          <a:ext cx="144000" cy="238019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1598" name="My Profile Frame 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2222500" y="254000"/>
-          <a:ext cx="5588000" cy="3111500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1597" name="My Profile 1 Header"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2222500" y="254000"/>
-          <a:ext cx="5588000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>My Profile</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1672466</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1879600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="My Profile Frame 1 Icon"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7539866" y="317500"/>
-          <a:ext cx="207134" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="913" name="TextBox 912"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2349500" y="762000"/>
-          <a:ext cx="952500" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Crew No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="914" name="TextBox 913"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3302000" y="762000"/>
-          <a:ext cx="1524000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln>
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>5398</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="915" name="TextBox 914"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2349500" y="1270000"/>
-          <a:ext cx="952500" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Forename</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="916" name="TextBox 915"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3302000" y="1270000"/>
-          <a:ext cx="1524000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Julian</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>708025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="917" name="TextBox 916"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5080000" y="1270000"/>
-          <a:ext cx="952500" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Surname</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1689100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="918" name="TextBox 917"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6032500" y="1270000"/>
-          <a:ext cx="1524000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Turner</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="919" name="TextBox 918"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2349500" y="1778000"/>
-          <a:ext cx="952500" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Role</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="920" name="TextBox 919"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3302000" y="1778000"/>
-          <a:ext cx="1524000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Crew Manager Competent (Operator)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>708025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="921" name="TextBox 920"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5080000" y="762000"/>
-          <a:ext cx="952500" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Rank / Grade</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1689100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="922" name="TextBox 921"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6032500" y="762000"/>
-          <a:ext cx="1524000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Crew Manager</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="923" name="TextBox 922"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2349500" y="2286000"/>
-          <a:ext cx="952500" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Location</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>708025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="926" name="TextBox 925"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5080000" y="2286000"/>
-          <a:ext cx="952500" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Watch</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1689100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="927" name="TextBox 926"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6032500" y="2286000"/>
-          <a:ext cx="1524000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>708025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="TextBox 32"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5080000" y="1778000"/>
-          <a:ext cx="952500" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Access Level</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1689100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="TextBox 34"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6032500" y="1778000"/>
-          <a:ext cx="1524000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="924" name="TextBox 923"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3302000" y="2286000"/>
-          <a:ext cx="1524000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Brant Broughton</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>91623</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="DropDown"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="2400300"/>
-          <a:ext cx="148773" cy="144000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1689100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUISupportScreen.ProcessBtnPress(8)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="912" name="BtnUpdate"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="2794000"/>
-          <a:ext cx="1270000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFCC00"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFA634"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC"/>
-            </a:rPr>
-            <a:t>Update</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -17282,6 +14808,130 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="809625"/>
+          <a:ext cx="2781300" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Isosceles Triangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3924300" y="2028825"/>
+          <a:ext cx="1962150" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -23312,11 +20962,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtMain"/>
-  <dimension ref="B4:P28"/>
+  <dimension ref="C4:P28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23331,7 +20979,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -23339,7 +20987,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -23347,61 +20995,55 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
     <row r="23" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
     </row>
     <row r="24" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
     </row>
     <row r="25" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
     </row>
     <row r="26" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
     </row>
     <row r="27" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
     </row>
     <row r="28" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="L23:P28"/>
@@ -23420,10 +21062,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtSettings"/>
-  <dimension ref="B2:L28"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23437,7 +21079,11 @@
     <col min="12" max="12" width="9.140625" style="6"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="59"/>
+    </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="59"/>
       <c r="D2" s="4"/>
       <c r="E2" t="s">
         <v>0</v>
@@ -37705,17 +35351,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>1919</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="3" spans="2:11" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="56" t="s">
@@ -37746,12 +35392,12 @@
     </row>
     <row r="4" spans="2:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>1915</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="37" t="s">
         <v>1916</v>
       </c>
@@ -38829,7 +36475,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5152" r:id="rId24" name="Check Box 32">
+            <control shapeId="5152" r:id="rId24" name="$H$15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38851,7 +36497,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5153" r:id="rId25" name="Check Box 33">
+            <control shapeId="5153" r:id="rId25" name="$H$16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38873,7 +36519,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5154" r:id="rId26" name="Check Box 34">
+            <control shapeId="5154" r:id="rId26" name="$H$17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38895,7 +36541,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5155" r:id="rId27" name="Check Box 35">
+            <control shapeId="5155" r:id="rId27" name="$H$18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38917,7 +36563,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5156" r:id="rId28" name="Check Box 36">
+            <control shapeId="5156" r:id="rId28" name="$H$19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38939,7 +36585,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5157" r:id="rId29" name="Check Box 37">
+            <control shapeId="5157" r:id="rId29" name="$H$20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38961,7 +36607,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5158" r:id="rId30" name="Check Box 38">
+            <control shapeId="5158" r:id="rId30" name="$H$21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -38983,7 +36629,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5159" r:id="rId31" name="Check Box 39">
+            <control shapeId="5159" r:id="rId31" name="$H$22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -39005,7 +36651,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5160" r:id="rId32" name="Check Box 40">
+            <control shapeId="5160" r:id="rId32" name="$H$23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -39027,7 +36673,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5161" r:id="rId33" name="Check Box 41">
+            <control shapeId="5161" r:id="rId33" name="$H$24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -39049,7 +36695,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5162" r:id="rId34" name="Check Box 42">
+            <control shapeId="5162" r:id="rId34" name="$H$25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -39161,4 +36807,20 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <fileSharing readOnlyRecommended="1" userName="Julian Turner" reservationPassword="CEBA"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9975"/>
@@ -13,11 +12,10 @@
     <sheet name="Version Control" sheetId="6" r:id="rId3"/>
     <sheet name="Lists" sheetId="7" r:id="rId4"/>
     <sheet name="Order List" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACAExtCovCol">'[1]Station Detail'!$AB$13</definedName>
@@ -9710,7 +9708,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -9837,9 +9835,6 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -11605,236 +11600,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>229725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76095</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1318" name="TEMPLATE - DropDown"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21697950" y="2886076"/>
-          <a:ext cx="144000" cy="238019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>382125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>37995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1213" name="TEMPLATE - DropDown"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21850350" y="3038476"/>
-          <a:ext cx="144000" cy="238019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>382125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>37995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1222" name="TEMPLATE - DropDown"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21850350" y="3038476"/>
-          <a:ext cx="144000" cy="238019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>382125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>37995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1345" name="TEMPLATE - DropDown"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21850350" y="3038476"/>
-          <a:ext cx="144000" cy="238019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>382125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>37995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1357" name="TEMPLATE - DropDown"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21850350" y="3038476"/>
-          <a:ext cx="144000" cy="238019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -14808,130 +14573,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="809625"/>
-          <a:ext cx="2781300" cy="2428875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Isosceles Triangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3924300" y="2028825"/>
-          <a:ext cx="1962150" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -20962,7 +20603,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtMain"/>
-  <dimension ref="C4:P28"/>
+  <dimension ref="B4:P28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -20979,7 +20620,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -20987,7 +20628,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -20995,53 +20636,58 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
     <row r="23" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
     </row>
     <row r="24" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
     </row>
     <row r="25" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
     </row>
     <row r="26" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
     </row>
     <row r="27" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
     </row>
     <row r="28" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -21062,10 +20708,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtSettings"/>
-  <dimension ref="B1:L28"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21079,11 +20725,7 @@
     <col min="12" max="12" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="59"/>
-    </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="59"/>
       <c r="D2" s="4"/>
       <c r="E2" t="s">
         <v>0</v>
@@ -21392,8 +21034,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId5" name="CommandButton1">
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId7" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -21412,32 +21079,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
+        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -35351,17 +34993,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>1919</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="3" spans="2:11" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="56" t="s">
@@ -35392,12 +35034,12 @@
     </row>
     <row r="4" spans="2:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>1915</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="37" t="s">
         <v>1916</v>
       </c>
@@ -36807,20 +36449,4 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -9171,9 +9171,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>\\lincsfire.lincolnshire.gov.uk\folderredir$\Documents\julian.turner\Documents\RDS Project\Stores IT Project\Database\Stores IT System Dev DB v0,38.accdb</t>
-  </si>
-  <si>
     <t>Return Req'd</t>
   </si>
   <si>
@@ -9187,6 +9184,9 @@
   </si>
   <si>
     <t>Leverton (BV57GNK)</t>
+  </si>
+  <si>
+    <t>\\lincsfire.lincolnshire.gov.uk\folderredir$\Documents\julian.turner\Documents\RDS Project\Stores IT Project\Database\Stores IT System Dev DB v0,391.accdb</t>
   </si>
 </sst>
 </file>
@@ -20896,7 +20896,7 @@
         <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>3033</v>
+        <v>3038</v>
       </c>
     </row>
   </sheetData>
@@ -20915,8 +20915,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
+        <control shapeId="2052" r:id="rId5" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -20935,32 +20960,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId7" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -34385,7 +34385,7 @@
         <v>1894</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="K3" s="49"/>
     </row>
@@ -34413,7 +34413,7 @@
         <v>1904</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="L5" s="30" t="b">
         <v>1</v>
@@ -34433,7 +34433,7 @@
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
       <c r="J6" s="34" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="35" t="b">
@@ -34454,10 +34454,10 @@
       <c r="H7" s="38"/>
       <c r="I7" s="39"/>
       <c r="J7" s="39" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="L7" s="40"/>
     </row>

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -56,7 +56,7 @@
     <definedName name="NoWeeks">#REF!</definedName>
     <definedName name="PencilGraphData">[1]Test!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Order List'!$B$1:$L$39</definedName>
-    <definedName name="RngClear">'Order List'!$C$3,'Order List'!$H$3,'Order List'!$J$3,'Order List'!$B$6:$J$39</definedName>
+    <definedName name="RngClear">'Order List'!$C$3,'Order List'!$H$3,'Order List'!$J$3,'Order List'!$B$6:$K$39</definedName>
     <definedName name="Role">#REF!</definedName>
     <definedName name="StationLookUp">[1]Lists!$A$1:$C$38</definedName>
     <definedName name="StationName">'[1]Station Detail'!$AG$4</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="3039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="3039">
   <si>
     <t>Colour 1</t>
   </si>
@@ -9177,16 +9177,16 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Leverton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ()</t>
-  </si>
-  <si>
-    <t>Leverton (BV57GNK)</t>
-  </si>
-  <si>
     <t>\\lincsfire.lincolnshire.gov.uk\folderredir$\Documents\julian.turner\Documents\RDS Project\Stores IT Project\Database\Stores IT System Dev DB v0,391.accdb</t>
+  </si>
+  <si>
+    <t>Louth</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Louth (Paul Gale)</t>
   </si>
 </sst>
 </file>
@@ -20896,7 +20896,7 @@
         <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
     </row>
   </sheetData>
@@ -20915,8 +20915,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId5" name="CommandButton1">
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId7" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -20935,32 +20960,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
+        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -34328,7 +34328,7 @@
   <dimension ref="B1:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34366,26 +34366,26 @@
         <v>1893</v>
       </c>
       <c r="C3" s="45">
-        <v>481</v>
+        <v>1645</v>
       </c>
       <c r="D3" s="48" t="s">
         <v>3032</v>
       </c>
       <c r="E3" s="50">
-        <v>42902</v>
+        <v>43045</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="48" t="s">
         <v>1906</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>1614</v>
+        <v>1539</v>
       </c>
       <c r="I3" s="46" t="s">
         <v>1894</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="K3" s="49"/>
     </row>
@@ -34421,7 +34421,7 @@
     </row>
     <row r="6" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
-        <v>2349</v>
+        <v>1910</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -34429,36 +34429,32 @@
       <c r="F6" s="33">
         <v>1</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="33" t="s">
+        <v>3037</v>
+      </c>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
       <c r="J6" s="34" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K6" s="34"/>
+        <v>3038</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>3034</v>
+      </c>
       <c r="L6" s="35" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
-        <v>525</v>
-      </c>
+      <c r="B7" s="36"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
+      <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
-        <v>3037</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>3034</v>
-      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
       <c r="L7" s="40"/>
     </row>
     <row r="8" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
-  <fileSharing readOnlyRecommended="1" userName="Julian" algorithmName="SHA-512" hashValue="vGnDfBdU5catsfMvFuBeL0TIUbnzsg0rAcgxvKQmhslnbKvH76bH4ggOKS0ch9Y3UVByC111HuL/YN63EzLLaQ==" saltValue="kI3gRCkW5jpM2QHELWtusg==" spinCount="100000"/>
+  <fileSharing readOnlyRecommended="1" userName="Julian" algorithmName="SHA-512" hashValue="twtFBSmbTd+u1pNAnIBtp06yA7kOHN6CsVE5cv/hvUFxpe+lRJkE1GT7kT7tJgRZ4zDxeTV9PaaeNM+hN1oTlA==" saltValue="amIi8xaMyeeAkuOBxkjaTw==" spinCount="100000"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\StoresOrderingSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f47e56877e2071/Dev Area/Dev Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,22 +14,23 @@
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
-    <sheet name="Settings" sheetId="5" r:id="rId2"/>
-    <sheet name="Lists" sheetId="7" r:id="rId3"/>
-    <sheet name="Order List" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="Settings" sheetId="5" r:id="rId3"/>
+    <sheet name="Lists" sheetId="7" r:id="rId4"/>
+    <sheet name="Order List" sheetId="8" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACAExtCovCol">'[1]Station Detail'!$AB$13</definedName>
     <definedName name="AllowEmails">Settings!$J$18</definedName>
-    <definedName name="APClearArea" localSheetId="2">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
+    <definedName name="APClearArea" localSheetId="3">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
     <definedName name="APClearArea">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
     <definedName name="AvailabilityData_1">#REF!</definedName>
     <definedName name="AvailabilityData_2">#REF!</definedName>
-    <definedName name="ClearArea" localSheetId="2">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
+    <definedName name="ClearArea" localSheetId="3">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
     <definedName name="ClearArea">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
     <definedName name="Crew_1">'[1]Station Data'!#REF!</definedName>
     <definedName name="Crew_2">'[1]Station Data'!#REF!</definedName>
@@ -60,7 +61,7 @@
     <definedName name="NoDays">[1]Summary!$AG$7</definedName>
     <definedName name="NoWeeks">#REF!</definedName>
     <definedName name="PencilGraphData">[1]Test!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Order List'!$B$1:$L$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Order List'!$B$1:$L$39</definedName>
     <definedName name="RngClear">'Order List'!$C$3,'Order List'!$H$3,'Order List'!$J$3,'Order List'!$B$6:$K$39</definedName>
     <definedName name="Role">#REF!</definedName>
     <definedName name="StationLookUp">[1]Lists!$A$1:$C$38</definedName>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="3047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="3048">
   <si>
     <t>Colour 1</t>
   </si>
@@ -9216,6 +9217,9 @@
   </si>
   <si>
     <t>Julian</t>
+  </si>
+  <si>
+    <t>9998</t>
   </si>
 </sst>
 </file>
@@ -10026,104 +10030,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Main Screen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5C8FF5-7B61-44BC-9A00-04030123CEC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127000" y="127000"/>
-          <a:ext cx="13017500" cy="10160000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="154E54"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="154E54"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
@@ -11728,25 +11634,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="MenuBar">
+        <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC31806-9782-4489-8BC7-E20F9B5859A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4826C4FF-257D-4516-B702-2B60A1296E53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11754,106 +11665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="127000"/>
-          <a:ext cx="1905000" cy="10160000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C452445-0195-407C-BB6F-ABBCC67F4293}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
+          <a:off x="2895600" y="781050"/>
+          <a:ext cx="6286500" cy="4076700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11886,120 +11699,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="MenuItem - My Station">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09759D4E-805B-4539-8EDB-8298D609E7EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2413000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>My Station</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>263640</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Icon - My Station">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABB7C7C-FB58-4233-8AB6-4D956B591F92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E11998E-8523-465E-A091-5C27E87AD8BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12008,17 +11726,52 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:clrChange>
             <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000">
+                <a:alpha val="0"/>
+              </a:srgbClr>
             </a:clrFrom>
             <a:clrTo>
-              <a:srgbClr val="FFFFFF">
+              <a:srgbClr val="000000">
                 <a:alpha val="0"/>
               </a:srgbClr>
             </a:clrTo>
           </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9961" b="94727" l="7422" r="92383">
+                      <a14:foregroundMark x1="37305" y1="28906" x2="37305" y2="28906"/>
+                      <a14:foregroundMark x1="61133" y1="34375" x2="61133" y2="34375"/>
+                      <a14:foregroundMark x1="71875" y1="49609" x2="71875" y2="49609"/>
+                      <a14:foregroundMark x1="61133" y1="66211" x2="61133" y2="66211"/>
+                      <a14:foregroundMark x1="35938" y1="90820" x2="35938" y2="90820"/>
+                      <a14:foregroundMark x1="7617" y1="61133" x2="7617" y2="61133"/>
+                      <a14:foregroundMark x1="64844" y1="91992" x2="64844" y2="91992"/>
+                      <a14:foregroundMark x1="92773" y1="59570" x2="92773" y2="59570"/>
+                      <a14:foregroundMark x1="37500" y1="93359" x2="37500" y2="93359"/>
+                      <a14:foregroundMark x1="49414" y1="9961" x2="49414" y2="9961"/>
+                      <a14:foregroundMark x1="62695" y1="93945" x2="62695" y2="93945"/>
+                      <a14:foregroundMark x1="36719" y1="94727" x2="36719" y2="94727"/>
+                      <a14:backgroundMark x1="19727" y1="86133" x2="19727" y2="86133"/>
+                      <a14:backgroundMark x1="10547" y1="45703" x2="10547" y2="45703"/>
+                      <a14:backgroundMark x1="35156" y1="12695" x2="35156" y2="12695"/>
+                      <a14:backgroundMark x1="66406" y1="11523" x2="66406" y2="11523"/>
+                      <a14:backgroundMark x1="89844" y1="16016" x2="89844" y2="16016"/>
+                      <a14:backgroundMark x1="94336" y1="38672" x2="94336" y2="38672"/>
+                      <a14:backgroundMark x1="90039" y1="79883" x2="90039" y2="79883"/>
+                      <a14:backgroundMark x1="36523" y1="95117" x2="36523" y2="95117"/>
+                      <a14:backgroundMark x1="36914" y1="95117" x2="36914" y2="95117"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -12026,5713 +11779,23 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63500" y="2476500"/>
-          <a:ext cx="200140" cy="216000"/>
+          <a:off x="3952875" y="914400"/>
+          <a:ext cx="3714750" cy="3714750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="MenuItem - Stores">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35AA2CA-0A3B-467C-B898-DE3E2658A0BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2794000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Stores</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>280206</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Icon - Stores">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AD661B-BAFE-4B37-8D13-2C822303BEF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect t="1291"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="2857500"/>
-          <a:ext cx="216706" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="MenuItem - Reports">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB768B1-5A7D-48EC-B9B4-E256910D4795}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3175000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Reports</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>223500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Icon - Reports">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F9B4694-41B2-45B0-A52F-F34C7D0F4804}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="F8FFF4"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="F8FFF4">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="3238500"/>
-          <a:ext cx="160000" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="MenuItem - My Profile">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B677CD84-B9E3-4E66-A010-53EED1D15DCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3556000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>My Profile</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>270634</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Icon - My Profile">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361E77BD-875F-4AC0-9DD9-74C449732144}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="3619500"/>
-          <a:ext cx="207134" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(5)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="MenuItem - Support">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F10C1AF-62F6-4DE6-AFDC-C569EC7B0E3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3937000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Support</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>277622</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Icon - Support">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC008AE7-331F-409A-B543-5553B702D04A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="F8FFF4"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="F8FFF4">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect l="2786" t="3867" r="1938" b="817"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="4000500"/>
-          <a:ext cx="214122" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(6)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="MenuItem - Exit">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7A96BD-3994-4967-9E4F-E101793AE05D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4318000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="705C50"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="322924"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Exit</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>302000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Icon - Exit">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6261CF56-EC14-45C0-B79F-8075CAB6FF63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="F8FFF4"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="F8FFF4">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="4381500"/>
-          <a:ext cx="238500" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(9)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="BtnUserMangt">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5399C81F-7B8C-4973-8667-8A4611024B38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10795000" y="254000"/>
-          <a:ext cx="2222500" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFCC00"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFA634"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>User Management</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(10)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="BtnOrderSwitch">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA852D15-1223-4559-BC6C-84953CDF5DDC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10795000" y="762000"/>
-          <a:ext cx="2222500" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFCC00"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFA634"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Show Closed Orders</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(11)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="BtnRemoteOrder">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F664DC7-B94D-4990-8254-089731D1CDCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10795000" y="1270000"/>
-          <a:ext cx="2222500" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFCC00"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFA634"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>New Phone Order</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(12)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="BtnSupplier">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C6F17C-5614-433E-8757-29D6312EFACF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10795000" y="1778000"/>
-          <a:ext cx="2222500" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFCC00"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFA634"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Suppliers</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(14)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="BtnManageData">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02396D42-3BB0-4A12-AFC3-FBFB5B2E837E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10795000" y="2286000"/>
-          <a:ext cx="2222500" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFCC00"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFA634"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Data Management</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.ProcessBtnPress(16)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="BtnFindOrder">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8039AD5E-116A-4189-9752-28EC4029DD5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10795000" y="2794000"/>
-          <a:ext cx="2222500" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFCC00"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFA634"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Find Order</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Stores Frame 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76CC0E3C-72BC-4044-BCCF-160F50CA9892}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2222500" y="254000"/>
-          <a:ext cx="8255000" cy="2032000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Stores 1 Header">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D69A0-BAF3-404C-94DE-543239A435BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2222500" y="254000"/>
-          <a:ext cx="8255000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="20A39E"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Open Orders</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>727279</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1022350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="Stores Frame 1 Icon">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D823DC7F-26B7-462C-912E-D63F0F7712FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1544" t="1660" r="4026" b="5407"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10118929" y="317500"/>
-          <a:ext cx="295071" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>506708</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>131300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="139" name="Supplier_Button">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6610B0-4326-485A-A3FD-7801DF61CAC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10922000" y="368300"/>
-          <a:ext cx="138408" cy="144000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>567685</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>67800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="140" name="Delivery_Button">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F41C39C-25AC-4CA8-9895-0A9F8AF5FC74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10922000" y="876300"/>
-          <a:ext cx="199385" cy="144000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>517073</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="Delivery_Button">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A51CD82-F814-47E3-B9AD-23B53A38A245}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10922000" y="1384300"/>
-          <a:ext cx="148773" cy="144000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>598286</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>131300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="142" name="Delivery_Button">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8659F63-6352-4E2C-96EA-732720058FF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10922000" y="1892300"/>
-          <a:ext cx="229986" cy="144000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>502289</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="143" name="Supplier_Button">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E260ED33-0086-47FD-BC5E-4286A69A551E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFA634"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFA634">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10922000" y="2400300"/>
-          <a:ext cx="133989" cy="144000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>521725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>4300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="144" name="Supplier_Button">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CD6B26-6B18-47C5-A7BF-CBEB26BC270C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10922000" y="2908300"/>
-          <a:ext cx="153425" cy="144000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="FALSE" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="TextBox 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CC2F19-9914-4785-9CE6-95F3EF10CD14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="635000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Order No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="FALSE" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="TextBox 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{928C391B-7378-41AB-91EE-DD9067D3DC23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3365500" y="635000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Days Old</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="FALSE" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="TextBox 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D2B7C3-6521-44C7-B8C3-B75D27CA52A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4254500" y="635000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Items</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="FALSE" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="TextBox 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80CC427-EFAD-48DA-B07A-65E923309BEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="635000"/>
-          <a:ext cx="1524000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Requested By</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="FALSE" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="TextBox 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35429982-E415-4C57-9E4C-BF6A77023907}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="635000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Station</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="FALSE" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="TextBox 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA1A049-48B3-43BC-B771-01D259319971}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7937500" y="635000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Assigned To</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="FALSE" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="TextBox 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA99F01-FBB7-45A4-9572-73C6E9DF6EB8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9207500" y="635000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="322924"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Order Status</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1265)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="TextBox 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206DD04D-19B2-4F2B-B015-13E65B21EF5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="889000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1265</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1265)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1408" name="TextBox 1407">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE1EE4D-060E-4ABB-AEBD-8E23EBA6AA59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3365500" y="889000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>78</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1265)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1409" name="TextBox 1408">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4210250-673E-4F6F-AA80-547D6CD5C4A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4254500" y="889000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1265)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1410" name="TextBox 1409">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B73B3A4-09FA-4861-B7E0-D40EB451C303}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="889000"/>
-          <a:ext cx="1524000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>David Byrne</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1265)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1411" name="TextBox 1410">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1230C39D-45BA-4EBE-A740-38C991D62791}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="889000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Lincoln South</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1265)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1412" name="TextBox 1411">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32A33E3-A9F9-4263-BC93-941455E4B0C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7937500" y="889000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Shane Redhead</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1265)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1413" name="TextBox 1412">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A590F73-0811-472E-B7D2-A98A8FCA380D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9207500" y="889000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Assigned</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1427)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1414" name="TextBox 1413">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C60FFE-EB84-44BC-853B-C6E5918770B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="1143000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1427</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1427)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1415" name="TextBox 1414">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA212A6-3940-4F89-A5D4-C08A29443C74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3365500" y="1143000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>53</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1427)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1416" name="TextBox 1415">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9F2A25-67CC-4867-8376-405F1D4CC8E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4254500" y="1143000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1427)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1417" name="TextBox 1416">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A223C64-147E-40AE-8D4C-F278F7A75A9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="1143000"/>
-          <a:ext cx="1524000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Dave Brierley</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1427)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1418" name="TextBox 1417">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE49FFFB-D0A2-47F6-85E9-4686AB3B8559}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="1143000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Gainsborough</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1427)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1419" name="TextBox 1418">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CDEDBA-A519-4E64-A35E-3B03F62BB771}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7937500" y="1143000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Phil Siddall</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1427)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1420" name="TextBox 1419">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82DDD688-00E1-4767-9F2F-87EB8BAD944E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9207500" y="1143000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Assigned</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1576)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1421" name="TextBox 1420">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B634E984-F2C9-4F21-9542-6E7034942C8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="1397000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1576</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1576)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1422" name="TextBox 1421">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0F2104-39B8-4B96-AFDD-AE26AB63A84D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3365500" y="1397000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>34</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1576)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1423" name="TextBox 1422">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2139CD-5EBF-4C76-A11B-C830639FD096}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4254500" y="1397000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1576)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1425" name="TextBox 1424">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF838A7-3AE1-4AEF-9B56-DAA15D2BF991}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="1397000"/>
-          <a:ext cx="1524000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Sophie Brownridge</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1576)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1426" name="TextBox 1425">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE69ADDF-CFAA-460B-A350-6BC8CB394E6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="1397000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Gainsborough</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1576)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1427" name="TextBox 1426">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F4827-105C-42E7-97D9-FE4B76BCDF0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7937500" y="1397000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Phil Siddall</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1576)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1428" name="TextBox 1427">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF6417B-4C23-47F3-8D6A-240835457003}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9207500" y="1397000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Assigned</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1600)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1429" name="TextBox 1428">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E434F1-64C7-4BA5-9236-D0330A6E98F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="1651000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1600</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1600)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1430" name="TextBox 1429">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1795CE10-1567-4953-85B2-437D8BB5042E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3365500" y="1651000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>29</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1600)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1431" name="TextBox 1430">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFC9741-65BC-4A37-8ED2-7EB17A3C7F7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4254500" y="1651000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>6</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1600)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1432" name="TextBox 1431">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1684C82-27BB-433C-8161-09D6C125E123}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="1651000"/>
-          <a:ext cx="1524000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Andrew Thorpe</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1600)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1433" name="TextBox 1432">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFE7707-C819-478E-A345-D1C296075BC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="1651000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Lincoln North</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1600)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1434" name="TextBox 1433">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C386732D-EB31-4E9A-9BE6-B04722A049FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7937500" y="1651000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Phil Siddall</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1600)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1435" name="TextBox 1434">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054B98CA-7D0C-49E9-87EE-CA0660D4FBD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9207500" y="1651000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Assigned</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1622)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1436" name="TextBox 1435">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9A3B34-8A63-4548-9918-EC8704C8048C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="1905000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1622</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1622)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1437" name="TextBox 1436">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2275267-053B-40FF-894B-7279ECAD6389}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3365500" y="1905000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>26</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1622)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1438" name="TextBox 1437">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E3CC48-A8AB-41AC-99DE-226BF1A60EB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4254500" y="1905000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1622)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1439" name="TextBox 1438">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA05EA05-64C3-48EB-BFB2-383CD9ECF94F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="1905000"/>
-          <a:ext cx="1524000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Aaron Daubney</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1622)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="TextBox 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87788760-6166-4AEE-A74A-659EE99BF6A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="1905000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Gainsborough</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1622)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="TextBox 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03FA148-25DD-48DA-B235-B7349C3EC368}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7937500" y="1905000"/>
-          <a:ext cx="1270000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Shane Redhead</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIStoresScreen.OpenOrder(1622)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="TextBox 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD99764-3684-4403-9147-F077E052CDF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9207500" y="1905000"/>
-          <a:ext cx="889000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="154E54"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>On Hold</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -19812,7 +13875,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -28192,9 +22255,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="ShtMain"/>
-  <dimension ref="B4:P28"/>
+  <dimension ref="C4:P28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28209,7 +22274,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -28217,7 +22282,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -28225,15 +22290,10 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
     <row r="23" spans="12:16" x14ac:dyDescent="0.25">
@@ -28279,7 +22339,6 @@
       <c r="P28" s="51"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="L23:P28"/>
@@ -28296,6 +22355,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D795C-C28B-4B3D-9E86-715C907E9319}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="ShtSettings"/>
   <dimension ref="B2:L28"/>
@@ -28624,8 +22699,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId5" name="CommandButton1">
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId7" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -28644,32 +22744,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
+        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -29050,7 +23125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="ShtLists"/>
   <dimension ref="A1:V1115"/>
@@ -39271,10 +33346,10 @@
         <v>2763</v>
       </c>
       <c r="C691" s="22" t="s">
-        <v>3045</v>
+        <v>3047</v>
       </c>
       <c r="D691" t="s">
-        <v>3046</v>
+        <v>1890</v>
       </c>
       <c r="V691" s="23"/>
     </row>
@@ -39284,6 +33359,12 @@
       </c>
       <c r="B692" t="s">
         <v>2764</v>
+      </c>
+      <c r="C692" s="22" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D692" t="s">
+        <v>3046</v>
       </c>
       <c r="V692" s="23"/>
     </row>
@@ -42053,7 +36134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="ShtOrderList">
     <pageSetUpPr fitToPage="1"/>

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
-  <fileSharing readOnlyRecommended="1" userName="Julian" algorithmName="SHA-512" hashValue="6Ydq2H38jSJstaLG7wUT/gKUjyRVPURhFENHI5d1+re8ozHcQiGdle2VQHu3mzOJmZMt++oAbtgm6wtrmIrJmw==" saltValue="1KJv0/f686Z4sMBAllCGFA==" spinCount="100000"/>
+  <fileSharing readOnlyRecommended="1" userName="Julian Turner" algorithmName="SHA-512" hashValue="owHbp28w72QFFGzfjxolu29WPu/1ChRA6UiaKu7noYpIs0Te8ybHlmsu+6VW/ltlAJTLmFhSPXzoEIr46BFGuA==" saltValue="McoRjQDJqPt2efJM1Blsxw==" spinCount="100000"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\OneDrive\Dev Area\Dev Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\Dev Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="3054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="3056">
   <si>
     <t>Colour 1</t>
   </si>
@@ -9237,6 +9237,12 @@
   </si>
   <si>
     <t>Torx Star Socket</t>
+  </si>
+  <si>
+    <t>9998</t>
+  </si>
+  <si>
+    <t>Julian</t>
   </si>
 </sst>
 </file>
@@ -9778,6 +9784,7 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9793,7 +9800,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -11661,7447 +11667,104 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>589575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1409" name="TEMPLATE - Settings">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5CD0C8-5E8C-4D78-BEAD-0F1CBAE4A00F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25069800" y="1219200"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>8550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>109582</xdr:rowOff>
+      <xdr:colOff>284775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13221</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="TEMPLATE - Settings">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="TEMPLATE - Graph">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401AD9B3-88F0-4BD6-A98A-9FEBBFA42F0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B369A1D9-CB63-4A31-818B-646179263FC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23879175" y="885825"/>
-          <a:ext cx="180000" cy="176257"/>
+          <a:off x="24155400" y="3105150"/>
+          <a:ext cx="180000" cy="146571"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="rect">
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
-            <a:gd name="connsiteX1" fmla="*/ 1895475 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 19050 h 3162300"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 495300 h 3162300"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 638175 h 3162300"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 381000 h 3162300"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 819150 h 3162300"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1190625 h 3162300"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1514475 h 3162300"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1666875 h 3162300"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257425 h 3162300"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2181225 h 3162300"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2438400 h 3162300"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2876550 h 3162300"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3162300 h 3162300"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2762250 h 3162300"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2752725 h 3162300"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3162300 h 3162300"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2876550 h 3162300"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2457450 h 3162300"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2200275 h 3162300"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247900 h 3162300"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1666875 h 3162300"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1514475 h 3162300"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1181100 h 3162300"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 838200 h 3162300"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 381000 h 3162300"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 628650 h 3162300"/>
-            <a:gd name="connsiteX27" fmla="*/ 1304925 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 476250 h 3162300"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 0 h 3162300"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 13607 h 3162300"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 495300 h 3162300"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 638175 h 3162300"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 381000 h 3162300"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 819150 h 3162300"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1190625 h 3162300"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1514475 h 3162300"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1666875 h 3162300"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257425 h 3162300"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2181225 h 3162300"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2438400 h 3162300"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2876550 h 3162300"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3162300 h 3162300"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2762250 h 3162300"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2752725 h 3162300"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3162300 h 3162300"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2876550 h 3162300"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2457450 h 3162300"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2200275 h 3162300"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247900 h 3162300"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1666875 h 3162300"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1514475 h 3162300"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1181100 h 3162300"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 838200 h 3162300"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 381000 h 3162300"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 628650 h 3162300"/>
-            <a:gd name="connsiteX27" fmla="*/ 1304925 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 476250 h 3162300"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 0 h 3162300"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 15415 h 3177715"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 29022 h 3177715"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 510715 h 3177715"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 653590 h 3177715"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 396415 h 3177715"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 834565 h 3177715"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1206040 h 3177715"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1529890 h 3177715"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1682290 h 3177715"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2272840 h 3177715"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2196640 h 3177715"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2453815 h 3177715"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2891965 h 3177715"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3177715 h 3177715"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2777665 h 3177715"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2768140 h 3177715"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3177715 h 3177715"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891965 h 3177715"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472865 h 3177715"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2215690 h 3177715"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2263315 h 3177715"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1682290 h 3177715"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1529890 h 3177715"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1196515 h 3177715"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 853615 h 3177715"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 396415 h 3177715"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 644065 h 3177715"/>
-            <a:gd name="connsiteX27" fmla="*/ 1304925 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 491665 h 3177715"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 15415 h 3177715"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 670298 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1304925 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 670298 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1304925 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 670298 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1304925 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 670298 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1304925 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 670298 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1304925 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 670298 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1304925 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 670298 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 670298 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2295525 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 670298 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667000 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2733675 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222748 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3276600"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3276600"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3276600"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3276600"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3276600"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3276600"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3276600"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3276600 w 3276600"/>
-            <a:gd name="connsiteY8" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3276600"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3276600"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3276600"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3276600"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3276600"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3276600"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3276600"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3276600"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3276600"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3276600"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3276600"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3276600"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3276600"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3276600"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3276600"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3276600"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3276600"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3276600"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3276600"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3243942"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3243942"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3243942"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3243942"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3243942"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3243942"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3243942"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3243942"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3243942"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3243942"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3243942"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3243942"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3243942"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3243942"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3243942"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3243942"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3243942"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3243942"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3243942"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3243942"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3243942"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3243942"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3243942"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3243942"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3243942"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3243942"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3243942"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3243942"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3243942"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3243942"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3243942"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3243942"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3243942"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3243942"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3243942"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3243942"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3243942"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3243942"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3243942"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3243942"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3243942"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3243942"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3243942"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3243942"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3243942"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3243942"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3243942"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3243942"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3243942"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3243942"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3243942"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3243942"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3243942"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3243942"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3243942"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3243942"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3243942"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3243942"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3245841"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3245841"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3245841"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3245841"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3245841"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3245841"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3245841"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3245841"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3245841"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3143250 w 3245841"/>
-            <a:gd name="connsiteY9" fmla="*/ 2289548 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3245841"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3245841"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3245841"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3245841"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3245841"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3245841"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3245841"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3245841"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3245841"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3245841"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3245841"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3245841"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3245841"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3245841"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3245841"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3245841"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3245841"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3245841"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3245841"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3245243"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3245243"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3245243"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3245243"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3245243"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3245243"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3245243"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3245243"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3245243"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3245243"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3245243"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3245243"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3245243"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3245243"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3245243"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3245243"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3245243"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3245243"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3245243"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3245243"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3245243"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3245243"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3245243"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3245243"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3245243"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3245243"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3245243"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3245243"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3245243"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2057400 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1790700 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2794373 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3194423"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3194423"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3194423"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3194423"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3194423"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3194423"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3194423"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3194423"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3194423"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3194423"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3194423"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3194423"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3194423"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3194423 h 3194423"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3194423"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3194423"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3194423"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3194423"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3194423"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3194423"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3194423"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3194423"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3194423"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3194423"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3194423"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3194423"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 691242 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 691242 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 691242 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 691242 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 691242 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 619125 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2232398 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 691242 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 828675 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 651782 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 691242 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 850447 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 651782 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2280023 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 691242 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 850447 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 651782 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 691242 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 850447 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 651782 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1922689 w 3247145"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1990725 w 3247145"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2284640 w 3247145"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2694214 w 3247145"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3048000 w 3247145"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2722789 w 3247145"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2800350 w 3247145"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3243942 w 3247145"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3099707 w 3247145"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2628900 w 3247145"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2428875 w 3247145"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2581275 w 3247145"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2073729 w 3247145"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1796142 w 3247145"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1466850 w 3247145"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1200150 w 3247145"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 691242 w 3247145"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 850447 w 3247145"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 651782 w 3247145"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3247145"/>
-            <a:gd name="connsiteY21" fmla="*/ 1698998 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 466725 w 3247145"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 523875 w 3247145"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 161925 w 3247145"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 552450 w 3247145"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 971550 w 3247145"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1283154 w 3247145"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1371600 w 3247145"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1328058 w 3203603"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1879147 w 3203603"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1947183 w 3203603"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2241098 w 3203603"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2650672 w 3203603"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004458 w 3203603"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2679247 w 3203603"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2756808 w 3203603"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3200400 w 3203603"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3056165 w 3203603"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2585358 w 3203603"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2385333 w 3203603"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2537733 w 3203603"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2030187 w 3203603"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1752600 w 3203603"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1423308 w 3203603"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1156608 w 3203603"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 647700 w 3203603"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 806905 w 3203603"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 608240 w 3203603"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 118383 w 3203603"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 0 w 3203603"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 423183 w 3203603"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 480333 w 3203603"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 118383 w 3203603"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 508908 w 3203603"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 928008 w 3203603"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1239612 w 3203603"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1328058 w 3203603"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 497447 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 526022 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 497447 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 526022 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 497447 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 526022 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 526022 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 870323 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 526022 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 875765 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 526022 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 875765 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 526022 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 875765 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 526022 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 413123 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 875765 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 434895 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 875765 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 434895 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 875765 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 434895 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 875765 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 434895 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 45730 h 3188981"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 527423 h 3188981"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 686626 h 3188981"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 424009 h 3188981"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 851273 h 3188981"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1239076 h 3188981"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1720769 h 3188981"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2262334 h 3188981"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2213348 h 3188981"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2470523 h 3188981"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2908673 h 3188981"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3167209 h 3188981"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2767158 h 3188981"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2784848 h 3188981"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3188981 h 3188981"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2914116 h 3188981"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2489573 h 3188981"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2221512 h 3188981"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2247366 h 3188981"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1715327 h 3188981"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1546598 h 3188981"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1213223 h 3188981"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 875765 h 3188981"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 434895 h 3188981"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 660773 h 3188981"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 508373 h 3188981"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 32123 h 3188981"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41219 h 3180493"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 37242 h 3180493"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 518935 h 3180493"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 678138 h 3180493"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 415521 h 3180493"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 842785 h 3180493"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230588 h 3180493"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538110 h 3180493"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712281 h 3180493"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2253846 h 3180493"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2204860 h 3180493"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462035 h 3180493"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900185 h 3180493"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3158721 h 3180493"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758670 h 3180493"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776360 h 3180493"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180493 h 3180493"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905628 h 3180493"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481085 h 3180493"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213024 h 3180493"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2238878 h 3180493"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1706839 h 3180493"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538110 h 3180493"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1204735 h 3180493"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867277 h 3180493"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426407 h 3180493"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 652285 h 3180493"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 499885 h 3180493"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41219 h 3180493"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41219 h 3180493"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 37242 h 3180493"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 518935 h 3180493"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 678138 h 3180493"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 415521 h 3180493"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 842785 h 3180493"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230588 h 3180493"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538110 h 3180493"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712281 h 3180493"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2253846 h 3180493"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2204860 h 3180493"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462035 h 3180493"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900185 h 3180493"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3158721 h 3180493"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758670 h 3180493"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776360 h 3180493"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180493 h 3180493"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905628 h 3180493"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481085 h 3180493"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213024 h 3180493"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2238878 h 3180493"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1706839 h 3180493"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538110 h 3180493"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1204735 h 3180493"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867277 h 3180493"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426407 h 3180493"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 652285 h 3180493"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 499885 h 3180493"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41219 h 3180493"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41219 h 3180493"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 37242 h 3180493"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 518935 h 3180493"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 678138 h 3180493"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 415521 h 3180493"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 842785 h 3180493"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230588 h 3180493"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538110 h 3180493"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712281 h 3180493"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2253846 h 3180493"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2204860 h 3180493"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462035 h 3180493"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900185 h 3180493"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3158721 h 3180493"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758670 h 3180493"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776360 h 3180493"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180493 h 3180493"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905628 h 3180493"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481085 h 3180493"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213024 h 3180493"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2238878 h 3180493"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1706839 h 3180493"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538110 h 3180493"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1204735 h 3180493"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867277 h 3180493"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426407 h 3180493"/>
-            <a:gd name="connsiteX26" fmla="*/ 945122 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 652285 h 3180493"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517469 h 3180493"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41219 h 3180493"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41219 h 3180493"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 37242 h 3180493"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 518935 h 3180493"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 678138 h 3180493"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 415521 h 3180493"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 842785 h 3180493"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230588 h 3180493"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538110 h 3180493"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712281 h 3180493"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2253846 h 3180493"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2204860 h 3180493"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462035 h 3180493"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900185 h 3180493"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3158721 h 3180493"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758670 h 3180493"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776360 h 3180493"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180493 h 3180493"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905628 h 3180493"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481085 h 3180493"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213024 h 3180493"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2238878 h 3180493"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1706839 h 3180493"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538110 h 3180493"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1204735 h 3180493"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867277 h 3180493"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426407 h 3180493"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664008 h 3180493"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517469 h 3180493"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41219 h 3180493"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41219 h 3180493"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 37242 h 3180493"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 518935 h 3180493"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 678138 h 3180493"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 415521 h 3180493"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 842785 h 3180493"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230588 h 3180493"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538110 h 3180493"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712281 h 3180493"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2253846 h 3180493"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2204860 h 3180493"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462035 h 3180493"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900185 h 3180493"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3158721 h 3180493"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758670 h 3180493"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776360 h 3180493"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180493 h 3180493"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905628 h 3180493"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481085 h 3180493"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213024 h 3180493"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2238878 h 3180493"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1706839 h 3180493"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538110 h 3180493"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1204735 h 3180493"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867277 h 3180493"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426407 h 3180493"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664008 h 3180493"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517469 h 3180493"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41219 h 3180493"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 44220 h 3183494"/>
-            <a:gd name="connsiteX1" fmla="*/ 1896261 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 40243 h 3183494"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 521936 h 3183494"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 681139 h 3183494"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 418522 h 3183494"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 845786 h 3183494"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1233589 h 3183494"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1541111 h 3183494"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1715282 h 3183494"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2256847 h 3183494"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2207861 h 3183494"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2465036 h 3183494"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2903186 h 3183494"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3161722 h 3183494"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2761671 h 3183494"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2779361 h 3183494"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3183494 h 3183494"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2908629 h 3183494"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2484086 h 3183494"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2216025 h 3183494"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2241879 h 3183494"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1709840 h 3183494"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1541111 h 3183494"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1207736 h 3183494"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 870278 h 3183494"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 429408 h 3183494"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 667009 h 3183494"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 520470 h 3183494"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 44220 h 3183494"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 34430 h 3173704"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 50968 h 3173704"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 512146 h 3173704"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 671349 h 3173704"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 408732 h 3173704"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 835996 h 3173704"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1223799 h 3173704"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1531321 h 3173704"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1705492 h 3173704"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2247057 h 3173704"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2198071 h 3173704"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2455246 h 3173704"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2893396 h 3173704"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3151932 h 3173704"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2751881 h 3173704"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2769571 h 3173704"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3173704 h 3173704"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2898839 h 3173704"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2474296 h 3173704"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2206235 h 3173704"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2232089 h 3173704"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1700050 h 3173704"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1531321 h 3173704"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1197946 h 3173704"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 860488 h 3173704"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 419618 h 3173704"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 657219 h 3173704"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 510680 h 3173704"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 34430 h 3173704"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 678453 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 415836 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 843100 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230903 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2258212 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 678453 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 415836 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 843100 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230903 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 415836 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 843100 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230903 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2667786 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 415836 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 843100 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230903 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 843100 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230903 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 843100 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230903 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3021572 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 843100 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230903 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230903 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230903 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2696361 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1230903 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2773922 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220717"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220717"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220717"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220717"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220717"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220717"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220717"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220717"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3220717"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220717"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220717"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220717"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220717"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220717"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220717"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220717"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220717"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220717"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220717"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220717"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220717"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220717"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220717"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220717"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220717"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220717"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220717"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220717"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3219852"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3219852"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3219852"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3219852"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3219852"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3219852"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3219852"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3219852"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3219852"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3073279 w 3219852"/>
-            <a:gd name="connsiteY9" fmla="*/ 2254161 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3219852"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3219852"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3219852"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3219852"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3219852"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3219852"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3219852"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3219852"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3219852"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3219852"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3219852"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3219852"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3219852"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3219852"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3219852"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3219852"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3219852"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3219852"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3219852"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3219980"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3219980"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3219980"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3219980"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3219980"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3219980"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3219980"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3219980"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3219980"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3076210 w 3219980"/>
-            <a:gd name="connsiteY9" fmla="*/ 2265884 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3219980"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3219980"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3219980"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3219980"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3219980"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3219980"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3219980"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3219980"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3219980"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3219980"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3219980"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3219980"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3219980"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3219980"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3219980"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3219980"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3219980"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3219980"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3219980"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3219441"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3219441"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3219441"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3219441"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3219441"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3219441"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3219441"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3219441"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3219441"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3219441"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3219441"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3219441"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3219441"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3219441"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3219441"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3219441"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3219441"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3219441"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3219441"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3219441"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3219441"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3219441"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3219441"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3219441"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3219441"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3219441"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3219441"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3219441"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3219441"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1769714 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2758985 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3180808"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3180808"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3180808"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3180808"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3180808"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3180808"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3180808"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3180808"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3180808"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3180808"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3180808"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3180808"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3180808"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3180808"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3180808 h 3180808"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3180808"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3180808"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3180808"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3180808"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3180808"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3180808"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3180808"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3180808"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3180808"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3180808"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3180808"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3180808"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163945"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163945"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163945"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163945"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163945"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163945"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163945"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163945"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163945"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163945"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163945"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163945"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163945"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163945"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163945"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163945"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163945"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3163945"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3163945"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163945"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163945"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163945"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163945"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163945"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163945"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163945"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163945"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163945"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163945"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 664814 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2905943 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 673606 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 673606 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 673606 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 824019 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2481400 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 673606 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 806435 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1890400 w 3220078"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1964297 w 3220078"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2249420 w 3220078"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2658994 w 3220078"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3009849 w 3220078"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2690499 w 3220078"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2759268 w 3220078"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3217514 w 3220078"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3061556 w 3220078"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2602472 w 3220078"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2402447 w 3220078"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2554847 w 3220078"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2047301 w 3220078"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1760921 w 3220078"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1440422 w 3220078"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1173722 w 3220078"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 673606 w 3220078"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 806435 w 3220078"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 625354 w 3220078"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 135497 w 3220078"/>
-            <a:gd name="connsiteY20" fmla="*/ 2239193 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 17114 w 3220078"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 440297 w 3220078"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 519218 w 3220078"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 228025 w 3220078"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 564122 w 3220078"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 962707 w 3220078"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1256726 w 3220078"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1345172 w 3220078"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339924 w 3214830"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1885152 w 3214830"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1959049 w 3214830"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2244172 w 3214830"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653746 w 3214830"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004601 w 3214830"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2685251 w 3214830"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2754020 w 3214830"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3212266 w 3214830"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3056308 w 3214830"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2597224 w 3214830"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2397199 w 3214830"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549599 w 3214830"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2042053 w 3214830"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755673 w 3214830"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1435174 w 3214830"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1168474 w 3214830"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 668358 w 3214830"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 801187 w 3214830"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 620106 w 3214830"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 165418 w 3214830"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11866 w 3214830"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 435049 w 3214830"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 513970 w 3214830"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 222777 w 3214830"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558874 w 3214830"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 957459 w 3214830"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1251478 w 3214830"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339924 w 3214830"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339924 w 3214830"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1885152 w 3214830"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1959049 w 3214830"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2244172 w 3214830"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653746 w 3214830"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004601 w 3214830"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2685251 w 3214830"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2754020 w 3214830"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3212266 w 3214830"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3056308 w 3214830"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2597224 w 3214830"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2397199 w 3214830"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549599 w 3214830"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2042053 w 3214830"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755673 w 3214830"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1435174 w 3214830"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1168474 w 3214830"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 668358 w 3214830"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 801187 w 3214830"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 620106 w 3214830"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 165418 w 3214830"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11866 w 3214830"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 435049 w 3214830"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 513970 w 3214830"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 222777 w 3214830"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558874 w 3214830"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 957459 w 3214830"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1251478 w 3214830"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339924 w 3214830"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1884580 w 3214258"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1958477 w 3214258"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2243600 w 3214258"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653174 w 3214258"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004029 w 3214258"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2684679 w 3214258"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2753448 w 3214258"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3211694 w 3214258"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3055736 w 3214258"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2596652 w 3214258"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2396627 w 3214258"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549027 w 3214258"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2041481 w 3214258"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755101 w 3214258"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1434602 w 3214258"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1167902 w 3214258"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 667786 w 3214258"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 800615 w 3214258"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 619534 w 3214258"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 164846 w 3214258"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11294 w 3214258"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 434477 w 3214258"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 513398 w 3214258"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 222205 w 3214258"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558302 w 3214258"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 956887 w 3214258"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1250906 w 3214258"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1884580 w 3214258"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1958477 w 3214258"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2243600 w 3214258"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653174 w 3214258"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004029 w 3214258"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2684679 w 3214258"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2753448 w 3214258"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3211694 w 3214258"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3055736 w 3214258"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2596652 w 3214258"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2396627 w 3214258"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549027 w 3214258"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2041481 w 3214258"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755101 w 3214258"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1434602 w 3214258"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1167902 w 3214258"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 667786 w 3214258"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 800615 w 3214258"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 619534 w 3214258"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 164846 w 3214258"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11294 w 3214258"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 434477 w 3214258"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 513398 w 3214258"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 222205 w 3214258"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558302 w 3214258"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 956887 w 3214258"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1250906 w 3214258"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1884580 w 3214258"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1958477 w 3214258"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2243600 w 3214258"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653174 w 3214258"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004029 w 3214258"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2684679 w 3214258"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2753448 w 3214258"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3211694 w 3214258"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3055736 w 3214258"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2596652 w 3214258"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2396627 w 3214258"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549027 w 3214258"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2041481 w 3214258"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755101 w 3214258"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1434602 w 3214258"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1167902 w 3214258"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 667786 w 3214258"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 800615 w 3214258"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 619534 w 3214258"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 164846 w 3214258"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11294 w 3214258"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 434477 w 3214258"/>
-            <a:gd name="connsiteY22" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 513398 w 3214258"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 222205 w 3214258"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558302 w 3214258"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 956887 w 3214258"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1250906 w 3214258"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1884580 w 3214258"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1958477 w 3214258"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2243600 w 3214258"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653174 w 3214258"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004029 w 3214258"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2684679 w 3214258"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2753448 w 3214258"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3211694 w 3214258"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3055736 w 3214258"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2596652 w 3214258"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2396627 w 3214258"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549027 w 3214258"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2041481 w 3214258"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755101 w 3214258"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1434602 w 3214258"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1167902 w 3214258"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 667786 w 3214258"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 800615 w 3214258"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 619534 w 3214258"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 164846 w 3214258"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11294 w 3214258"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 449131 w 3214258"/>
-            <a:gd name="connsiteY22" fmla="*/ 1532563 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 513398 w 3214258"/>
-            <a:gd name="connsiteY23" fmla="*/ 1205050 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 222205 w 3214258"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558302 w 3214258"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 956887 w 3214258"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1250906 w 3214258"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1884580 w 3214258"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1958477 w 3214258"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2243600 w 3214258"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653174 w 3214258"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004029 w 3214258"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2684679 w 3214258"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2753448 w 3214258"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3211694 w 3214258"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3055736 w 3214258"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2596652 w 3214258"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2396627 w 3214258"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549027 w 3214258"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2041481 w 3214258"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755101 w 3214258"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1434602 w 3214258"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1167902 w 3214258"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 667786 w 3214258"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 800615 w 3214258"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 619534 w 3214258"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 164846 w 3214258"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11294 w 3214258"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 449131 w 3214258"/>
-            <a:gd name="connsiteY22" fmla="*/ 1532563 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 525121 w 3214258"/>
-            <a:gd name="connsiteY23" fmla="*/ 1225566 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 222205 w 3214258"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558302 w 3214258"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 956887 w 3214258"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1250906 w 3214258"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1884580 w 3214258"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1958477 w 3214258"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2243600 w 3214258"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653174 w 3214258"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004029 w 3214258"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2684679 w 3214258"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2753448 w 3214258"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3211694 w 3214258"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3055736 w 3214258"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2596652 w 3214258"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2396627 w 3214258"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549027 w 3214258"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2041481 w 3214258"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755101 w 3214258"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1434602 w 3214258"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1167902 w 3214258"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 667786 w 3214258"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 800615 w 3214258"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 619534 w 3214258"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 164846 w 3214258"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11294 w 3214258"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 449131 w 3214258"/>
-            <a:gd name="connsiteY22" fmla="*/ 1532563 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 525121 w 3214258"/>
-            <a:gd name="connsiteY23" fmla="*/ 1225566 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 222205 w 3214258"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558302 w 3214258"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 956887 w 3214258"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1250906 w 3214258"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1884580 w 3214258"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1958477 w 3214258"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2243600 w 3214258"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653174 w 3214258"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004029 w 3214258"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2684679 w 3214258"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2753448 w 3214258"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3211694 w 3214258"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3055736 w 3214258"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2596652 w 3214258"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2396627 w 3214258"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549027 w 3214258"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2041481 w 3214258"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755101 w 3214258"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1434602 w 3214258"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1167902 w 3214258"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 667786 w 3214258"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 800615 w 3214258"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 619534 w 3214258"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 164846 w 3214258"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11294 w 3214258"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 449131 w 3214258"/>
-            <a:gd name="connsiteY22" fmla="*/ 1532563 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 525121 w 3214258"/>
-            <a:gd name="connsiteY23" fmla="*/ 1225566 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 210482 w 3214258"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558302 w 3214258"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 956887 w 3214258"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1250906 w 3214258"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1884580 w 3214258"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1958477 w 3214258"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2243600 w 3214258"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653174 w 3214258"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004029 w 3214258"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2684679 w 3214258"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2753448 w 3214258"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3211694 w 3214258"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3055736 w 3214258"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2596652 w 3214258"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2396627 w 3214258"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549027 w 3214258"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2041481 w 3214258"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755101 w 3214258"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1434602 w 3214258"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1167902 w 3214258"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 667786 w 3214258"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 800615 w 3214258"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 619534 w 3214258"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 164846 w 3214258"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11294 w 3214258"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 449131 w 3214258"/>
-            <a:gd name="connsiteY22" fmla="*/ 1532563 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 525121 w 3214258"/>
-            <a:gd name="connsiteY23" fmla="*/ 1225566 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 210482 w 3214258"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558302 w 3214258"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 956887 w 3214258"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1250906 w 3214258"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1884580 w 3214258"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1958477 w 3214258"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2243600 w 3214258"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653174 w 3214258"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004029 w 3214258"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2684679 w 3214258"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2753448 w 3214258"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3211694 w 3214258"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3055736 w 3214258"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2596652 w 3214258"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2396627 w 3214258"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549027 w 3214258"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2041481 w 3214258"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755101 w 3214258"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1434602 w 3214258"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1167902 w 3214258"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 667786 w 3214258"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 800615 w 3214258"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 619534 w 3214258"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 164846 w 3214258"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11294 w 3214258"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 449131 w 3214258"/>
-            <a:gd name="connsiteY22" fmla="*/ 1532563 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 525121 w 3214258"/>
-            <a:gd name="connsiteY23" fmla="*/ 1225566 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 210482 w 3214258"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558302 w 3214258"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 956887 w 3214258"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1250906 w 3214258"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1884580 w 3214258"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1958477 w 3214258"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2243600 w 3214258"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653174 w 3214258"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004029 w 3214258"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2684679 w 3214258"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2753448 w 3214258"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3211694 w 3214258"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3055736 w 3214258"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2596652 w 3214258"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2396627 w 3214258"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549027 w 3214258"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2041481 w 3214258"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755101 w 3214258"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1434602 w 3214258"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1167902 w 3214258"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 667786 w 3214258"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 800615 w 3214258"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 619534 w 3214258"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 164846 w 3214258"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11294 w 3214258"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 449131 w 3214258"/>
-            <a:gd name="connsiteY22" fmla="*/ 1532563 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 525121 w 3214258"/>
-            <a:gd name="connsiteY23" fmla="*/ 1225566 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 210482 w 3214258"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558302 w 3214258"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 956887 w 3214258"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1250906 w 3214258"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX0" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY0" fmla="*/ 41534 h 3163404"/>
-            <a:gd name="connsiteX1" fmla="*/ 1884580 w 3214258"/>
-            <a:gd name="connsiteY1" fmla="*/ 58072 h 3163404"/>
-            <a:gd name="connsiteX2" fmla="*/ 1958477 w 3214258"/>
-            <a:gd name="connsiteY2" fmla="*/ 519250 h 3163404"/>
-            <a:gd name="connsiteX3" fmla="*/ 2243600 w 3214258"/>
-            <a:gd name="connsiteY3" fmla="*/ 663800 h 3163404"/>
-            <a:gd name="connsiteX4" fmla="*/ 2653174 w 3214258"/>
-            <a:gd name="connsiteY4" fmla="*/ 427559 h 3163404"/>
-            <a:gd name="connsiteX5" fmla="*/ 3004029 w 3214258"/>
-            <a:gd name="connsiteY5" fmla="*/ 846031 h 3163404"/>
-            <a:gd name="connsiteX6" fmla="*/ 2684679 w 3214258"/>
-            <a:gd name="connsiteY6" fmla="*/ 1222111 h 3163404"/>
-            <a:gd name="connsiteX7" fmla="*/ 2753448 w 3214258"/>
-            <a:gd name="connsiteY7" fmla="*/ 1538425 h 3163404"/>
-            <a:gd name="connsiteX8" fmla="*/ 3211694 w 3214258"/>
-            <a:gd name="connsiteY8" fmla="*/ 1712596 h 3163404"/>
-            <a:gd name="connsiteX9" fmla="*/ 3055736 w 3214258"/>
-            <a:gd name="connsiteY9" fmla="*/ 2257092 h 3163404"/>
-            <a:gd name="connsiteX10" fmla="*/ 2596652 w 3214258"/>
-            <a:gd name="connsiteY10" fmla="*/ 2205175 h 3163404"/>
-            <a:gd name="connsiteX11" fmla="*/ 2396627 w 3214258"/>
-            <a:gd name="connsiteY11" fmla="*/ 2462350 h 3163404"/>
-            <a:gd name="connsiteX12" fmla="*/ 2549027 w 3214258"/>
-            <a:gd name="connsiteY12" fmla="*/ 2900500 h 3163404"/>
-            <a:gd name="connsiteX13" fmla="*/ 2041481 w 3214258"/>
-            <a:gd name="connsiteY13" fmla="*/ 3159036 h 3163404"/>
-            <a:gd name="connsiteX14" fmla="*/ 1755101 w 3214258"/>
-            <a:gd name="connsiteY14" fmla="*/ 2770708 h 3163404"/>
-            <a:gd name="connsiteX15" fmla="*/ 1434602 w 3214258"/>
-            <a:gd name="connsiteY15" fmla="*/ 2776675 h 3163404"/>
-            <a:gd name="connsiteX16" fmla="*/ 1167902 w 3214258"/>
-            <a:gd name="connsiteY16" fmla="*/ 3160293 h 3163404"/>
-            <a:gd name="connsiteX17" fmla="*/ 667786 w 3214258"/>
-            <a:gd name="connsiteY17" fmla="*/ 2891289 h 3163404"/>
-            <a:gd name="connsiteX18" fmla="*/ 800615 w 3214258"/>
-            <a:gd name="connsiteY18" fmla="*/ 2472607 h 3163404"/>
-            <a:gd name="connsiteX19" fmla="*/ 619534 w 3214258"/>
-            <a:gd name="connsiteY19" fmla="*/ 2213339 h 3163404"/>
-            <a:gd name="connsiteX20" fmla="*/ 164846 w 3214258"/>
-            <a:gd name="connsiteY20" fmla="*/ 2253847 h 3163404"/>
-            <a:gd name="connsiteX21" fmla="*/ 11294 w 3214258"/>
-            <a:gd name="connsiteY21" fmla="*/ 1707154 h 3163404"/>
-            <a:gd name="connsiteX22" fmla="*/ 449131 w 3214258"/>
-            <a:gd name="connsiteY22" fmla="*/ 1532563 h 3163404"/>
-            <a:gd name="connsiteX23" fmla="*/ 525121 w 3214258"/>
-            <a:gd name="connsiteY23" fmla="*/ 1225566 h 3163404"/>
-            <a:gd name="connsiteX24" fmla="*/ 210482 w 3214258"/>
-            <a:gd name="connsiteY24" fmla="*/ 867592 h 3163404"/>
-            <a:gd name="connsiteX25" fmla="*/ 558302 w 3214258"/>
-            <a:gd name="connsiteY25" fmla="*/ 426722 h 3163404"/>
-            <a:gd name="connsiteX26" fmla="*/ 956887 w 3214258"/>
-            <a:gd name="connsiteY26" fmla="*/ 664323 h 3163404"/>
-            <a:gd name="connsiteX27" fmla="*/ 1250906 w 3214258"/>
-            <a:gd name="connsiteY27" fmla="*/ 517784 h 3163404"/>
-            <a:gd name="connsiteX28" fmla="*/ 1339352 w 3214258"/>
-            <a:gd name="connsiteY28" fmla="*/ 41534 h 3163404"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX8" y="connsiteY8"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX9" y="connsiteY9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX10" y="connsiteY10"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX11" y="connsiteY11"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX12" y="connsiteY12"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX13" y="connsiteY13"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX14" y="connsiteY14"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX15" y="connsiteY15"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX16" y="connsiteY16"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX17" y="connsiteY17"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX18" y="connsiteY18"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX19" y="connsiteY19"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX20" y="connsiteY20"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX21" y="connsiteY21"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX22" y="connsiteY22"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX23" y="connsiteY23"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX24" y="connsiteY24"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX25" y="connsiteY25"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX26" y="connsiteY26"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX27" y="connsiteY27"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX28" y="connsiteY28"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3214258" h="3163404">
-              <a:moveTo>
-                <a:pt x="1339352" y="41534"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="1474062" y="-11707"/>
-                <a:pt x="1762430" y="-21408"/>
-                <a:pt x="1884580" y="58072"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1951220" y="166300"/>
-                <a:pt x="1935798" y="358686"/>
-                <a:pt x="1958477" y="519250"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2081849" y="561432"/>
-                <a:pt x="2147443" y="588960"/>
-                <a:pt x="2243600" y="663800"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2358074" y="568445"/>
-                <a:pt x="2527397" y="451320"/>
-                <a:pt x="2653174" y="427559"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2806272" y="485407"/>
-                <a:pt x="2986583" y="702773"/>
-                <a:pt x="3004029" y="846031"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2969173" y="1008793"/>
-                <a:pt x="2789454" y="1098286"/>
-                <a:pt x="2684679" y="1222111"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2728676" y="1330061"/>
-                <a:pt x="2758438" y="1425032"/>
-                <a:pt x="2753448" y="1538425"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2907173" y="1573036"/>
-                <a:pt x="3135005" y="1625649"/>
-                <a:pt x="3211694" y="1712596"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="3224186" y="1901771"/>
-                <a:pt x="3193971" y="2157516"/>
-                <a:pt x="3055736" y="2257092"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2887914" y="2284306"/>
-                <a:pt x="2756518" y="2236158"/>
-                <a:pt x="2596652" y="2205175"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2529977" y="2334442"/>
-                <a:pt x="2485073" y="2376625"/>
-                <a:pt x="2396627" y="2462350"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2447427" y="2608400"/>
-                <a:pt x="2515812" y="2731004"/>
-                <a:pt x="2549027" y="2900500"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2488283" y="3024220"/>
-                <a:pt x="2193497" y="3192740"/>
-                <a:pt x="2041481" y="3159036"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1946301" y="3097979"/>
-                <a:pt x="1849444" y="2894987"/>
-                <a:pt x="1755101" y="2770708"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1647151" y="2805633"/>
-                <a:pt x="1542552" y="2801621"/>
-                <a:pt x="1434602" y="2776675"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1345702" y="2911386"/>
-                <a:pt x="1267269" y="3128160"/>
-                <a:pt x="1167902" y="3160293"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1030224" y="3185762"/>
-                <a:pt x="680696" y="3025756"/>
-                <a:pt x="667786" y="2891289"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="671729" y="2743494"/>
-                <a:pt x="754804" y="2614121"/>
-                <a:pt x="800615" y="2472607"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="712343" y="2388975"/>
-                <a:pt x="678498" y="2320836"/>
-                <a:pt x="619534" y="2213339"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="456248" y="2221957"/>
-                <a:pt x="265748" y="2299240"/>
-                <a:pt x="164846" y="2253847"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="35089" y="2188289"/>
-                <a:pt x="-27260" y="1895386"/>
-                <a:pt x="11294" y="1707154"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="102532" y="1606531"/>
-                <a:pt x="308070" y="1588806"/>
-                <a:pt x="449131" y="1532563"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="458552" y="1407621"/>
-                <a:pt x="458342" y="1324968"/>
-                <a:pt x="525121" y="1225566"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="428057" y="1113080"/>
-                <a:pt x="249768" y="1011061"/>
-                <a:pt x="210482" y="867592"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="216029" y="697467"/>
-                <a:pt x="429663" y="460355"/>
-                <a:pt x="558302" y="426722"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="686559" y="441725"/>
-                <a:pt x="829887" y="589030"/>
-                <a:pt x="956887" y="664323"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1072478" y="584634"/>
-                <a:pt x="1130710" y="546813"/>
-                <a:pt x="1250906" y="517784"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1262245" y="266505"/>
-                <a:pt x="1278189" y="105243"/>
-                <a:pt x="1339352" y="41534"/>
-              </a:cubicBezTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="154E54"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
+        </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19132,7 +11795,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19190,7 +11853,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19277,7 +11940,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19364,7 +12027,7 @@
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19422,7 +12085,7 @@
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19489,7 +12152,7 @@
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19556,7 +12219,7 @@
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19623,7 +12286,7 @@
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19690,7 +12353,7 @@
                   <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19757,7 +12420,7 @@
                   <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19824,7 +12487,7 @@
                   <a14:compatExt spid="_x0000_s2059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19891,7 +12554,7 @@
                   <a14:compatExt spid="_x0000_s2060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19958,7 +12621,7 @@
                   <a14:compatExt spid="_x0000_s2061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20025,7 +12688,7 @@
                   <a14:compatExt spid="_x0000_s2062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20092,7 +12755,7 @@
                   <a14:compatExt spid="_x0000_s2063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20159,7 +12822,7 @@
                   <a14:compatExt spid="_x0000_s2064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20226,7 +12889,7 @@
                   <a14:compatExt spid="_x0000_s2065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20293,7 +12956,7 @@
                   <a14:compatExt spid="_x0000_s2066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20360,7 +13023,7 @@
                   <a14:compatExt spid="_x0000_s2067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20422,7 +13085,7 @@
         <xdr:cNvPr id="21" name="Rectangle 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20482,7 +13145,7 @@
         <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20542,7 +13205,7 @@
         <xdr:cNvPr id="23" name="Rectangle 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20602,7 +13265,7 @@
         <xdr:cNvPr id="24" name="Rectangle 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20662,7 +13325,7 @@
         <xdr:cNvPr id="25" name="Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20722,7 +13385,7 @@
         <xdr:cNvPr id="26" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20782,7 +13445,7 @@
         <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20842,7 +13505,7 @@
         <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20902,7 +13565,7 @@
         <xdr:cNvPr id="29" name="Rectangle 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20962,7 +13625,7 @@
         <xdr:cNvPr id="30" name="Rectangle 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21022,7 +13685,7 @@
         <xdr:cNvPr id="31" name="Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21082,7 +13745,7 @@
         <xdr:cNvPr id="32" name="Rectangle 31" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21142,7 +13805,7 @@
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21212,7 +13875,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21279,7 +13942,7 @@
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21346,7 +14009,7 @@
                   <a14:compatExt spid="_x0000_s5123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21413,7 +14076,7 @@
                   <a14:compatExt spid="_x0000_s5124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21480,7 +14143,7 @@
                   <a14:compatExt spid="_x0000_s5125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21547,7 +14210,7 @@
                   <a14:compatExt spid="_x0000_s5126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21614,7 +14277,7 @@
                   <a14:compatExt spid="_x0000_s5127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21681,7 +14344,7 @@
                   <a14:compatExt spid="_x0000_s5128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21748,7 +14411,7 @@
                   <a14:compatExt spid="_x0000_s5129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21815,7 +14478,7 @@
                   <a14:compatExt spid="_x0000_s5130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21882,7 +14545,7 @@
                   <a14:compatExt spid="_x0000_s5131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21949,7 +14612,7 @@
                   <a14:compatExt spid="_x0000_s5132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22016,7 +14679,7 @@
                   <a14:compatExt spid="_x0000_s5133"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22083,7 +14746,7 @@
                   <a14:compatExt spid="_x0000_s5134"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22150,7 +14813,7 @@
                   <a14:compatExt spid="_x0000_s5135"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22217,7 +14880,7 @@
                   <a14:compatExt spid="_x0000_s5136"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22284,7 +14947,7 @@
                   <a14:compatExt spid="_x0000_s5137"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22351,7 +15014,7 @@
                   <a14:compatExt spid="_x0000_s5138"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22418,7 +15081,7 @@
                   <a14:compatExt spid="_x0000_s5139"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22485,7 +15148,7 @@
                   <a14:compatExt spid="_x0000_s5140"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22552,7 +15215,7 @@
                   <a14:compatExt spid="_x0000_s5152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22619,7 +15282,7 @@
                   <a14:compatExt spid="_x0000_s5153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22686,7 +15349,7 @@
                   <a14:compatExt spid="_x0000_s5154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22753,7 +15416,7 @@
                   <a14:compatExt spid="_x0000_s5155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22820,7 +15483,7 @@
                   <a14:compatExt spid="_x0000_s5156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22887,7 +15550,7 @@
                   <a14:compatExt spid="_x0000_s5157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22954,7 +15617,7 @@
                   <a14:compatExt spid="_x0000_s5158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23021,7 +15684,7 @@
                   <a14:compatExt spid="_x0000_s5159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23088,7 +15751,7 @@
                   <a14:compatExt spid="_x0000_s5160"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23155,7 +15818,7 @@
                   <a14:compatExt spid="_x0000_s5161"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23222,7 +15885,7 @@
                   <a14:compatExt spid="_x0000_s5162"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23289,7 +15952,7 @@
                   <a14:compatExt spid="_x0000_s5163"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23356,7 +16019,7 @@
                   <a14:compatExt spid="_x0000_s5164"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23423,7 +16086,7 @@
                   <a14:compatExt spid="_x0000_s5165"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23490,7 +16153,7 @@
                   <a14:compatExt spid="_x0000_s5166"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29569,7 +22232,7 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="C4:P28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29607,46 +22270,46 @@
       <c r="C16" s="3"/>
     </row>
     <row r="23" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
     </row>
     <row r="24" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
     </row>
     <row r="25" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
     </row>
     <row r="26" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
     </row>
     <row r="27" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
     </row>
     <row r="28" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -29700,7 +22363,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="55"/>
+      <c r="D3" s="50"/>
       <c r="E3" t="s">
         <v>2</v>
       </c>
@@ -30005,8 +22668,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId5" name="CommandButton1">
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId7" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -30025,32 +22713,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
+        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -40657,7 +33320,7 @@
         <v>2758</v>
       </c>
       <c r="C691" s="21" t="s">
-        <v>3040</v>
+        <v>3054</v>
       </c>
       <c r="D691" t="s">
         <v>1888</v>
@@ -40670,6 +33333,12 @@
       </c>
       <c r="B692" t="s">
         <v>2759</v>
+      </c>
+      <c r="C692" s="21" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D692" t="s">
+        <v>3055</v>
       </c>
       <c r="V692" s="22"/>
     </row>
@@ -43482,17 +36151,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>1884</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
       <c r="K1" s="40"/>
     </row>
     <row r="3" spans="2:12" s="46" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -43525,12 +36194,12 @@
     </row>
     <row r="4" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="53" t="s">
         <v>1880</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="26" t="s">
         <v>1881</v>
       </c>

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
-  <fileSharing readOnlyRecommended="1" userName="Julian Turner" algorithmName="SHA-512" hashValue="owHbp28w72QFFGzfjxolu29WPu/1ChRA6UiaKu7noYpIs0Te8ybHlmsu+6VW/ltlAJTLmFhSPXzoEIr46BFGuA==" saltValue="McoRjQDJqPt2efJM1Blsxw==" spinCount="100000"/>
+  <fileSharing readOnlyRecommended="1" userName="Julian Turner" algorithmName="SHA-512" hashValue="6ZFqC6APXteevvmUxvqdrIm9ik2JyVqFatOOGsmqAlzxxitkjk5b/2nUd4Tn0xBvN1h5VU5YR3+Kym59Q4AQvA==" saltValue="BxjthD5ZRTtUxyVFleIInA==" spinCount="100000"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\Dev Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\StoresOrderingSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11685,7 +11685,7 @@
         <xdr:cNvPr id="1409" name="TEMPLATE - Settings">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5CD0C8-5E8C-4D78-BEAD-0F1CBAE4A00F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081050000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11735,7 +11735,7 @@
         <xdr:cNvPr id="88" name="TEMPLATE - Graph">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B369A1D9-CB63-4A31-818B-646179263FC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37308,7 +37308,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5152" r:id="rId24" name="Check Box 32">
+            <control shapeId="5152" r:id="rId24" name="$H$15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37330,7 +37330,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5153" r:id="rId25" name="Check Box 33">
+            <control shapeId="5153" r:id="rId25" name="$H$16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37352,7 +37352,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5154" r:id="rId26" name="Check Box 34">
+            <control shapeId="5154" r:id="rId26" name="$H$17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37374,7 +37374,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5155" r:id="rId27" name="Check Box 35">
+            <control shapeId="5155" r:id="rId27" name="$H$18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37396,7 +37396,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5156" r:id="rId28" name="Check Box 36">
+            <control shapeId="5156" r:id="rId28" name="$H$19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37418,7 +37418,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5157" r:id="rId29" name="Check Box 37">
+            <control shapeId="5157" r:id="rId29" name="$H$20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37440,7 +37440,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5158" r:id="rId30" name="Check Box 38">
+            <control shapeId="5158" r:id="rId30" name="$H$21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37462,7 +37462,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5159" r:id="rId31" name="Check Box 39">
+            <control shapeId="5159" r:id="rId31" name="$H$22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37484,7 +37484,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5160" r:id="rId32" name="Check Box 40">
+            <control shapeId="5160" r:id="rId32" name="$H$23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37506,7 +37506,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5161" r:id="rId33" name="Check Box 41">
+            <control shapeId="5161" r:id="rId33" name="$H$24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37528,7 +37528,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5162" r:id="rId34" name="Check Box 42">
+            <control shapeId="5162" r:id="rId34" name="$H$25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
-  <fileSharing readOnlyRecommended="1" userName="Julian Turner" algorithmName="SHA-512" hashValue="6ZFqC6APXteevvmUxvqdrIm9ik2JyVqFatOOGsmqAlzxxitkjk5b/2nUd4Tn0xBvN1h5VU5YR3+Kym59Q4AQvA==" saltValue="BxjthD5ZRTtUxyVFleIInA==" spinCount="100000"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22668,8 +22667,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
+        <control shapeId="2052" r:id="rId5" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -22688,32 +22712,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId7" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
+        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\StoresOrderingSystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -74,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="3056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="3067">
   <si>
     <t>Colour 1</t>
   </si>
@@ -9121,21 +9116,6 @@
     <t>Return Req'd</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Louth</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Louth (Paul Gale)</t>
-  </si>
-  <si>
-    <t>C:\Users\Julian\OneDrive\RDS Project\Stores IT Project\Database\Stores IT System Dev DB v0,393.accdb</t>
-  </si>
-  <si>
     <t>Pete Green</t>
   </si>
   <si>
@@ -9242,12 +9222,60 @@
   </si>
   <si>
     <t>Julian</t>
+  </si>
+  <si>
+    <t>\\lincsfire.lincolnshire.gov.uk\folderredir$\Documents\julian.turner\Documents\RDS Project\Stores IT Project\Database\Stores IT System Dev DB v0,396.accdb</t>
+  </si>
+  <si>
+    <t>Horncastle</t>
+  </si>
+  <si>
+    <t>Patient Report Form (Each)</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>Horncastle (Michael Baumber)</t>
+  </si>
+  <si>
+    <t>Hot Pack Food (Box)</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>Horncastle (WX14ZKE)</t>
+  </si>
+  <si>
+    <t>Water bottled (Case of 24)</t>
+  </si>
+  <si>
+    <t>A00</t>
+  </si>
+  <si>
+    <t>Sugar - Sachets (Pack of 100)</t>
+  </si>
+  <si>
+    <t>Pack of 100</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>Tea - Tube (24 pack) (24 Pack)</t>
+  </si>
+  <si>
+    <t>24 pack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="dd\ mmm\ yy"/>
@@ -9803,8 +9831,8 @@
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -10080,7 +10108,7 @@
         <xdr:cNvPr id="5" name="TEMPLATE - Icon_Alocations">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10840,7 +10868,7 @@
         <xdr:cNvPr id="7" name="TEMPLATE - Icon_Left_Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10884,7 +10912,7 @@
         <xdr:cNvPr id="8" name="TEMPLATE - Icon_Right_Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10928,7 +10956,7 @@
         <xdr:cNvPr id="9" name="TEMPLATE - Icon_New_Order">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10983,7 +11011,7 @@
         <xdr:cNvPr id="11" name="TEMPLATE - Message">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11032,7 +11060,7 @@
         <xdr:cNvPr id="12" name="TEMPLATE - Orders">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11081,7 +11109,7 @@
         <xdr:cNvPr id="120" name="TEMPLATE - Delivery">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11125,7 +11153,7 @@
         <xdr:cNvPr id="121" name="TEMPLATE - Phone">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11169,7 +11197,7 @@
         <xdr:cNvPr id="122" name="TEMPLATE - Closed Orders">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11213,7 +11241,7 @@
         <xdr:cNvPr id="123" name="TEMPLATE - User">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11257,7 +11285,7 @@
         <xdr:cNvPr id="124" name="TEMPLATE - DataManage">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11312,7 +11340,7 @@
         <xdr:cNvPr id="925" name="TEMPLATE - FindOrder">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D030000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009D030000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11356,7 +11384,7 @@
         <xdr:cNvPr id="38" name="TEMPLATE - Icon_Station">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11411,7 +11439,7 @@
         <xdr:cNvPr id="202" name="TEMPLATE - Icon_Stores">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000CA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11465,7 +11493,7 @@
         <xdr:cNvPr id="1335" name="TEMPLATE - Icon_Document">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037050000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037050000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11520,7 +11548,7 @@
         <xdr:cNvPr id="1424" name="TEMPLATE - Icon_Head">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090050000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000090050000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11575,7 +11603,7 @@
         <xdr:cNvPr id="1510" name="TEMPLATE - Icon_Support">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E6050000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000E6050000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11629,7 +11657,7 @@
         <xdr:cNvPr id="1596" name="TEMPLATE - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11684,7 +11712,7 @@
         <xdr:cNvPr id="1409" name="TEMPLATE - Settings">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081050000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000081050000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11734,7 +11762,7 @@
         <xdr:cNvPr id="88" name="TEMPLATE - Graph">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11793,14 +11821,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -11808,20 +11833,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -11851,14 +11862,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -11866,29 +11874,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -11938,14 +11923,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -11953,29 +11935,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -12025,14 +11984,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12040,20 +11996,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12083,14 +12025,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12098,29 +12037,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12150,14 +12066,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12165,29 +12078,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12217,14 +12107,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12232,29 +12119,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12284,14 +12148,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12299,29 +12160,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12351,14 +12189,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12366,29 +12201,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12418,14 +12230,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12433,29 +12242,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12485,14 +12271,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2059"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12500,29 +12283,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12552,14 +12312,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2060"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12567,29 +12324,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12619,14 +12353,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2061"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12634,29 +12365,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12686,14 +12394,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2062"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12701,29 +12406,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12753,14 +12435,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2063"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12768,29 +12447,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12820,14 +12476,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2064"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12835,29 +12488,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12887,14 +12517,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2065"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12902,29 +12529,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12954,14 +12558,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2066"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12969,29 +12570,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -13021,14 +12599,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2067"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013080000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -13036,29 +12611,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -13084,7 +12636,7 @@
         <xdr:cNvPr id="21" name="Rectangle 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13144,7 +12696,7 @@
         <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13204,7 +12756,7 @@
         <xdr:cNvPr id="23" name="Rectangle 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13264,7 +12816,7 @@
         <xdr:cNvPr id="24" name="Rectangle 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13324,7 +12876,7 @@
         <xdr:cNvPr id="25" name="Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13384,7 +12936,7 @@
         <xdr:cNvPr id="26" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13444,7 +12996,7 @@
         <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13504,7 +13056,7 @@
         <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13564,7 +13116,7 @@
         <xdr:cNvPr id="29" name="Rectangle 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13624,7 +13176,7 @@
         <xdr:cNvPr id="30" name="Rectangle 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13684,7 +13236,7 @@
         <xdr:cNvPr id="31" name="Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13744,7 +13296,7 @@
         <xdr:cNvPr id="32" name="Rectangle 31" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13804,7 +13356,7 @@
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13873,14 +13425,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -13888,29 +13437,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -13940,14 +13466,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -13955,29 +13478,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14007,14 +13507,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5123"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14022,29 +13519,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14074,14 +13548,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5124"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14089,29 +13560,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14141,14 +13589,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5125"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14156,29 +13601,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14208,14 +13630,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5126"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14223,29 +13642,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14275,14 +13671,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5127"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14290,29 +13683,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14342,14 +13712,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5128"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14357,29 +13724,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14409,14 +13753,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5129"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14424,29 +13765,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14476,14 +13794,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5130"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14491,29 +13806,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14543,14 +13835,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5131"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14558,29 +13847,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14610,14 +13876,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5132"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14625,29 +13888,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14677,14 +13917,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5133"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14692,29 +13929,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14744,14 +13958,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5134"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14759,29 +13970,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14811,14 +13999,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5135"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14826,29 +14011,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14878,14 +14040,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5136"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14893,29 +14052,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14945,14 +14081,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5137"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14960,29 +14093,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15012,14 +14122,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5138"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15027,29 +14134,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15079,14 +14163,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5139"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15094,29 +14175,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15146,14 +14204,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5140"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15161,29 +14216,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15213,14 +14245,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5152"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15228,29 +14257,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15280,14 +14286,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5153"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15295,29 +14298,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15347,14 +14327,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5154"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15362,29 +14339,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15414,14 +14368,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5155"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15429,29 +14380,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15481,14 +14409,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5156"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15496,29 +14421,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15548,14 +14450,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5157"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15563,29 +14462,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15615,14 +14491,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5158"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15630,29 +14503,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15682,14 +14532,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5159"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15697,29 +14544,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15749,14 +14573,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5160"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15764,29 +14585,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15816,14 +14614,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5161"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15831,29 +14626,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15883,14 +14655,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5162"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15898,29 +14667,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15950,14 +14696,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5163"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -15965,29 +14708,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -16017,14 +14737,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5164"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -16032,29 +14749,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -16084,14 +14778,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5165"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -16099,29 +14790,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -16151,14 +14819,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5166"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -16166,29 +14831,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -16475,7 +15117,7 @@
             <v>8.25</v>
           </cell>
           <cell r="AC4">
-            <v>158.48336791992188</v>
+            <v>158.48336791992187</v>
           </cell>
           <cell r="AD4">
             <v>0</v>
@@ -16514,7 +15156,7 @@
             <v>17.016651153564453</v>
           </cell>
           <cell r="AR4">
-            <v>502.45004272460938</v>
+            <v>502.45004272460937</v>
           </cell>
           <cell r="AS4">
             <v>39.899993896484375</v>
@@ -16707,7 +15349,7 @@
             <v>16.566673278808594</v>
           </cell>
           <cell r="M6">
-            <v>37.133316040039063</v>
+            <v>37.133316040039062</v>
           </cell>
           <cell r="N6">
             <v>28.633323669433594</v>
@@ -16755,7 +15397,7 @@
             <v>14.299995422363281</v>
           </cell>
           <cell r="AE6">
-            <v>36.083328247070313</v>
+            <v>36.083328247070312</v>
           </cell>
           <cell r="AF6">
             <v>4863.58349609375</v>
@@ -16931,13 +15573,13 @@
             <v>3.5</v>
           </cell>
           <cell r="AT7">
-            <v>24.766708374023438</v>
+            <v>24.766708374023437</v>
           </cell>
           <cell r="AU7">
             <v>0</v>
           </cell>
           <cell r="AV7">
-            <v>2.6999740600585938</v>
+            <v>2.6999740600585937</v>
           </cell>
           <cell r="AW7">
             <v>3833.18310546875</v>
@@ -16975,10 +15617,10 @@
             <v>538.416748046875</v>
           </cell>
           <cell r="K8">
-            <v>39.666610717773438</v>
+            <v>39.666610717773437</v>
           </cell>
           <cell r="L8">
-            <v>177.83328247070313</v>
+            <v>177.83328247070312</v>
           </cell>
           <cell r="M8">
             <v>3.75</v>
@@ -17243,13 +15885,13 @@
             <v>6</v>
           </cell>
           <cell r="I10">
-            <v>210.38339233398438</v>
+            <v>210.38339233398437</v>
           </cell>
           <cell r="J10">
             <v>492.18341064453125</v>
           </cell>
           <cell r="K10">
-            <v>20.616683959960938</v>
+            <v>20.616683959960937</v>
           </cell>
           <cell r="L10">
             <v>190.29994201660156</v>
@@ -17297,7 +15939,7 @@
             <v>4.1666717529296875</v>
           </cell>
           <cell r="AC10">
-            <v>119.08328247070313</v>
+            <v>119.08328247070312</v>
           </cell>
           <cell r="AD10">
             <v>0</v>
@@ -17339,7 +15981,7 @@
             <v>564.9500732421875</v>
           </cell>
           <cell r="AS10">
-            <v>10.433334350585938</v>
+            <v>10.433334350585937</v>
           </cell>
           <cell r="AT10">
             <v>179.04991149902344</v>
@@ -17937,7 +16579,7 @@
             <v>22.683364868164063</v>
           </cell>
           <cell r="L15">
-            <v>41.599990844726563</v>
+            <v>41.599990844726562</v>
           </cell>
           <cell r="M15">
             <v>0</v>
@@ -18485,7 +17127,7 @@
             <v>5.13336181640625</v>
           </cell>
           <cell r="L19">
-            <v>199.20004272460938</v>
+            <v>199.20004272460937</v>
           </cell>
           <cell r="M19">
             <v>0</v>
@@ -18530,10 +17172,10 @@
             <v>29.550079345703125</v>
           </cell>
           <cell r="AC19">
-            <v>148.91665649414063</v>
+            <v>148.91665649414062</v>
           </cell>
           <cell r="AD19">
-            <v>6.5833358764648438</v>
+            <v>6.5833358764648437</v>
           </cell>
           <cell r="AE19">
             <v>34.283424377441406</v>
@@ -18673,7 +17315,7 @@
             <v>0</v>
           </cell>
           <cell r="AE20">
-            <v>18.166641235351563</v>
+            <v>18.166641235351562</v>
           </cell>
           <cell r="AF20">
             <v>4593.93310546875</v>
@@ -18899,7 +17541,7 @@
             <v>77.116676330566406</v>
           </cell>
           <cell r="M22">
-            <v>4.5833206176757813</v>
+            <v>4.5833206176757812</v>
           </cell>
           <cell r="N22">
             <v>26.5</v>
@@ -19123,7 +17765,7 @@
             <v>3.98333740234375</v>
           </cell>
           <cell r="AT23">
-            <v>23.466690063476563</v>
+            <v>23.466690063476562</v>
           </cell>
           <cell r="AU23">
             <v>29.766647338867188</v>
@@ -19170,7 +17812,7 @@
             <v>6.6650390625E-2</v>
           </cell>
           <cell r="L24">
-            <v>29.383377075195313</v>
+            <v>29.383377075195312</v>
           </cell>
           <cell r="M24">
             <v>0</v>
@@ -19251,7 +17893,7 @@
             <v>12</v>
           </cell>
           <cell r="AQ24">
-            <v>39.433303833007813</v>
+            <v>39.433303833007812</v>
           </cell>
           <cell r="AR24">
             <v>741.24993896484375</v>
@@ -19531,10 +18173,10 @@
             <v>734.13330078125</v>
           </cell>
           <cell r="AS26">
-            <v>9.5999832153320313</v>
+            <v>9.5999832153320312</v>
           </cell>
           <cell r="AT26">
-            <v>9.8667068481445313</v>
+            <v>9.8667068481445312</v>
           </cell>
           <cell r="AU26">
             <v>0</v>
@@ -19632,7 +18274,7 @@
             <v>1.25</v>
           </cell>
           <cell r="AE27">
-            <v>7.9999771118164063</v>
+            <v>7.9999771118164062</v>
           </cell>
           <cell r="AF27">
             <v>4070.650146484375</v>
@@ -19718,7 +18360,7 @@
             <v>0</v>
           </cell>
           <cell r="L28">
-            <v>34.666702270507813</v>
+            <v>34.666702270507812</v>
           </cell>
           <cell r="M28">
             <v>0.75</v>
@@ -20263,7 +18905,7 @@
             <v>555.4666748046875</v>
           </cell>
           <cell r="K32">
-            <v>19.033340454101563</v>
+            <v>19.033340454101562</v>
           </cell>
           <cell r="L32">
             <v>118.48329162597656</v>
@@ -20493,7 +19135,7 @@
             <v>16.683296203613281</v>
           </cell>
           <cell r="AT33">
-            <v>126.23330688476563</v>
+            <v>126.23330688476562</v>
           </cell>
           <cell r="AU33">
             <v>6.25</v>
@@ -20945,7 +19587,7 @@
             <v>142.99998474121094</v>
           </cell>
           <cell r="J37">
-            <v>431.84994506835938</v>
+            <v>431.84994506835937</v>
           </cell>
           <cell r="K37">
             <v>4.91668701171875</v>
@@ -20987,7 +19629,7 @@
             <v>6</v>
           </cell>
           <cell r="Z37">
-            <v>158.86666870117188</v>
+            <v>158.86666870117187</v>
           </cell>
           <cell r="AA37">
             <v>387.23333740234375</v>
@@ -21133,7 +19775,7 @@
             <v>16</v>
           </cell>
           <cell r="AC38">
-            <v>149.33328247070313</v>
+            <v>149.33328247070312</v>
           </cell>
           <cell r="AD38">
             <v>0</v>
@@ -21225,7 +19867,7 @@
             <v>0</v>
           </cell>
           <cell r="L39">
-            <v>5.0333328247070313</v>
+            <v>5.0333328247070312</v>
           </cell>
           <cell r="M39">
             <v>0</v>
@@ -21362,7 +20004,7 @@
             <v>48.450004577636719</v>
           </cell>
           <cell r="L40">
-            <v>240.21670532226563</v>
+            <v>240.21670532226562</v>
           </cell>
           <cell r="M40">
             <v>23.75</v>
@@ -21452,7 +20094,7 @@
             <v>132.03326416015625</v>
           </cell>
           <cell r="AT40">
-            <v>354.18325805664063</v>
+            <v>354.18325805664062</v>
           </cell>
           <cell r="AU40">
             <v>26.166671752929688</v>
@@ -22227,7 +20869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtMain"/>
   <dimension ref="C4:P28"/>
   <sheetViews>
@@ -22327,7 +20969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtSettings"/>
   <dimension ref="B2:L28"/>
   <sheetViews>
@@ -22355,7 +20997,7 @@
         <v>5525013</v>
       </c>
       <c r="H2" t="s">
-        <v>3044</v>
+        <v>3039</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>1</v>
@@ -22370,7 +21012,7 @@
         <v>2369842</v>
       </c>
       <c r="H3" t="s">
-        <v>3043</v>
+        <v>3038</v>
       </c>
       <c r="K3" t="s">
         <v>3</v>
@@ -22436,7 +21078,7 @@
         <v>3450623</v>
       </c>
       <c r="H7" t="s">
-        <v>3042</v>
+        <v>3037</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
@@ -22529,7 +21171,7 @@
         <v>52479</v>
       </c>
       <c r="H12" t="s">
-        <v>3041</v>
+        <v>3036</v>
       </c>
       <c r="K12" t="s">
         <v>28</v>
@@ -22648,7 +21290,7 @@
         <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>3019</v>
+        <v>3051</v>
       </c>
     </row>
   </sheetData>
@@ -22658,7 +21300,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J25" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -22667,8 +21309,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId5" name="CommandButton1">
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId5" name="BtnDBConnect"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId7" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -22687,32 +21354,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId5" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId7" name="BtnDBConnect"/>
+        <control shapeId="2052" r:id="rId7" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23094,7 +21736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtLists"/>
   <dimension ref="A1:V1115"/>
   <sheetViews>
@@ -23125,7 +21767,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>3045</v>
+        <v>3040</v>
       </c>
       <c r="B2" t="s">
         <v>2784</v>
@@ -23269,7 +21911,7 @@
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>3020</v>
+        <v>3015</v>
       </c>
       <c r="V11" s="22"/>
     </row>
@@ -24040,7 +22682,7 @@
         <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>3021</v>
+        <v>3016</v>
       </c>
       <c r="V63" s="22"/>
     </row>
@@ -25543,7 +24185,7 @@
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" s="20" t="s">
-        <v>3046</v>
+        <v>3041</v>
       </c>
       <c r="B165" t="s">
         <v>2220</v>
@@ -25747,7 +24389,7 @@
         <v>453</v>
       </c>
       <c r="D178" t="s">
-        <v>3022</v>
+        <v>3017</v>
       </c>
       <c r="V178" s="22"/>
     </row>
@@ -25909,7 +24551,7 @@
         <v>484</v>
       </c>
       <c r="D189" t="s">
-        <v>3023</v>
+        <v>3018</v>
       </c>
       <c r="V189" s="22"/>
     </row>
@@ -25966,7 +24608,7 @@
         <v>494</v>
       </c>
       <c r="D193" t="s">
-        <v>3024</v>
+        <v>3019</v>
       </c>
       <c r="V193" s="22"/>
     </row>
@@ -26791,7 +25433,7 @@
         <v>650</v>
       </c>
       <c r="D249" t="s">
-        <v>3025</v>
+        <v>3020</v>
       </c>
       <c r="V249" s="22"/>
     </row>
@@ -27358,7 +26000,7 @@
         <v>756</v>
       </c>
       <c r="D287" t="s">
-        <v>3026</v>
+        <v>3021</v>
       </c>
       <c r="V287" s="22"/>
     </row>
@@ -28057,7 +26699,7 @@
         <v>753</v>
       </c>
       <c r="B334" t="s">
-        <v>3047</v>
+        <v>3042</v>
       </c>
       <c r="C334" s="21" t="s">
         <v>883</v>
@@ -28285,7 +26927,7 @@
         <v>2371</v>
       </c>
       <c r="C349" s="21" t="s">
-        <v>3027</v>
+        <v>3022</v>
       </c>
       <c r="D349" t="s">
         <v>1983</v>
@@ -28318,7 +26960,7 @@
         <v>929</v>
       </c>
       <c r="D351" t="s">
-        <v>3028</v>
+        <v>3023</v>
       </c>
       <c r="V351" s="22"/>
     </row>
@@ -28429,7 +27071,7 @@
         <v>952</v>
       </c>
       <c r="D359" t="s">
-        <v>3029</v>
+        <v>3024</v>
       </c>
       <c r="V359" s="22"/>
     </row>
@@ -28534,7 +27176,7 @@
         <v>969</v>
       </c>
       <c r="D366" t="s">
-        <v>3030</v>
+        <v>3025</v>
       </c>
       <c r="V366" s="22"/>
     </row>
@@ -28654,7 +27296,7 @@
         <v>993</v>
       </c>
       <c r="D374" t="s">
-        <v>3031</v>
+        <v>3026</v>
       </c>
       <c r="V374" s="22"/>
     </row>
@@ -29059,7 +27701,7 @@
         <v>2433</v>
       </c>
       <c r="B402" t="s">
-        <v>3048</v>
+        <v>3043</v>
       </c>
       <c r="C402" s="21" t="s">
         <v>1073</v>
@@ -30121,7 +28763,7 @@
         <v>1268</v>
       </c>
       <c r="D474" t="s">
-        <v>3032</v>
+        <v>3027</v>
       </c>
       <c r="V474" s="22"/>
     </row>
@@ -30358,7 +29000,7 @@
         <v>1312</v>
       </c>
       <c r="D490" t="s">
-        <v>3033</v>
+        <v>3028</v>
       </c>
       <c r="V490" s="22"/>
     </row>
@@ -31426,7 +30068,7 @@
         <v>1506</v>
       </c>
       <c r="D563" t="s">
-        <v>3034</v>
+        <v>3029</v>
       </c>
       <c r="V563" s="22"/>
     </row>
@@ -32980,10 +31622,10 @@
         <v>2734</v>
       </c>
       <c r="C668" s="21" t="s">
-        <v>3035</v>
+        <v>3030</v>
       </c>
       <c r="D668" t="s">
-        <v>3036</v>
+        <v>3031</v>
       </c>
       <c r="V668" s="22"/>
     </row>
@@ -32995,10 +31637,10 @@
         <v>2734</v>
       </c>
       <c r="C669" s="21" t="s">
-        <v>3037</v>
+        <v>3032</v>
       </c>
       <c r="D669" t="s">
-        <v>3038</v>
+        <v>3033</v>
       </c>
       <c r="V669" s="22"/>
     </row>
@@ -33292,7 +31934,7 @@
         <v>1843</v>
       </c>
       <c r="D689" t="s">
-        <v>3039</v>
+        <v>3034</v>
       </c>
       <c r="V689" s="22"/>
     </row>
@@ -33319,7 +31961,7 @@
         <v>2758</v>
       </c>
       <c r="C691" s="21" t="s">
-        <v>3054</v>
+        <v>3049</v>
       </c>
       <c r="D691" t="s">
         <v>1888</v>
@@ -33334,10 +31976,10 @@
         <v>2759</v>
       </c>
       <c r="C692" s="21" t="s">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="D692" t="s">
-        <v>3055</v>
+        <v>3050</v>
       </c>
       <c r="V692" s="22"/>
     </row>
@@ -33517,25 +32159,25 @@
     </row>
     <row r="713" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A713" s="20" t="s">
-        <v>3049</v>
+        <v>3044</v>
       </c>
       <c r="B713" t="s">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="V713" s="22"/>
     </row>
     <row r="714" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A714" s="20" t="s">
-        <v>3051</v>
+        <v>3046</v>
       </c>
       <c r="B714" t="s">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="V714" s="22"/>
     </row>
     <row r="715" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A715" s="20" t="s">
-        <v>3052</v>
+        <v>3047</v>
       </c>
       <c r="B715" t="s">
         <v>2918</v>
@@ -34543,7 +33185,7 @@
     </row>
     <row r="828" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A828" s="20" t="s">
-        <v>3053</v>
+        <v>3048</v>
       </c>
       <c r="B828" t="s">
         <v>2918</v>
@@ -36123,14 +34765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="ShtOrderList">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36168,26 +34810,26 @@
         <v>1878</v>
       </c>
       <c r="C3" s="44">
-        <v>1645</v>
+        <v>4277</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>3013</v>
       </c>
       <c r="E3" s="49">
-        <v>43045</v>
+        <v>43377</v>
       </c>
       <c r="F3" s="44"/>
       <c r="G3" s="47" t="s">
         <v>1891</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>1525</v>
+        <v>1166</v>
       </c>
       <c r="I3" s="45" t="s">
         <v>1879</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>3016</v>
+        <v>3052</v>
       </c>
       <c r="K3" s="48"/>
     </row>
@@ -36223,7 +34865,7 @@
     </row>
     <row r="6" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>1895</v>
+        <v>3060</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -36231,70 +34873,106 @@
       <c r="F6" s="32">
         <v>1</v>
       </c>
-      <c r="G6" s="32" t="s">
-        <v>3017</v>
-      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
+      <c r="I6" s="33" t="s">
+        <v>3061</v>
+      </c>
       <c r="J6" s="33" t="s">
-        <v>3018</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>3015</v>
-      </c>
+        <v>3052</v>
+      </c>
+      <c r="K6" s="33"/>
       <c r="L6" s="34" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
+      <c r="B7" s="35" t="s">
+        <v>3056</v>
+      </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="F7" s="37">
+        <v>12</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>3057</v>
+      </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="I7" s="38" t="s">
+        <v>3058</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>3059</v>
+      </c>
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
     </row>
     <row r="8" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
+      <c r="B8" s="35" t="s">
+        <v>3062</v>
+      </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="37">
+        <v>1</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3063</v>
+      </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
+      <c r="I8" s="38" t="s">
+        <v>3064</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>3059</v>
+      </c>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
     </row>
     <row r="9" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
+      <c r="B9" s="35" t="s">
+        <v>3065</v>
+      </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="F9" s="37">
+        <v>2</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>3066</v>
+      </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="38" t="s">
+        <v>3064</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>3059</v>
+      </c>
       <c r="K9" s="38"/>
       <c r="L9" s="39"/>
     </row>
     <row r="10" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
+      <c r="B10" s="35" t="s">
+        <v>3053</v>
+      </c>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="37">
+        <v>2</v>
+      </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="I10" s="38" t="s">
+        <v>3054</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>3055</v>
+      </c>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
     </row>
@@ -36676,7 +35354,7 @@
       <c r="L39" s="39"/>
     </row>
   </sheetData>
-  <sortState ref="B6:J39">
+  <sortState ref="B6:K39">
     <sortCondition ref="I6"/>
   </sortState>
   <mergeCells count="2">
@@ -37307,7 +35985,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5152" r:id="rId24" name="$H$15">
+            <control shapeId="5152" r:id="rId24" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37329,7 +36007,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5153" r:id="rId25" name="$H$16">
+            <control shapeId="5153" r:id="rId25" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37351,7 +36029,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5154" r:id="rId26" name="$H$17">
+            <control shapeId="5154" r:id="rId26" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37373,7 +36051,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5155" r:id="rId27" name="$H$18">
+            <control shapeId="5155" r:id="rId27" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37395,7 +36073,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5156" r:id="rId28" name="$H$19">
+            <control shapeId="5156" r:id="rId28" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37417,7 +36095,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5157" r:id="rId29" name="$H$20">
+            <control shapeId="5157" r:id="rId29" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37439,7 +36117,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5158" r:id="rId30" name="$H$21">
+            <control shapeId="5158" r:id="rId30" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37461,7 +36139,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5159" r:id="rId31" name="$H$22">
+            <control shapeId="5159" r:id="rId31" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37483,7 +36161,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5160" r:id="rId32" name="$H$23">
+            <control shapeId="5160" r:id="rId32" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37505,7 +36183,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5161" r:id="rId33" name="$H$24">
+            <control shapeId="5161" r:id="rId33" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -37527,7 +36205,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5162" r:id="rId34" name="$H$25">
+            <control shapeId="5162" r:id="rId34" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/Stores IT System v0.xlsx
+++ b/Stores IT System v0.xlsx
@@ -11,10 +11,11 @@
     <sheet name="Settings" sheetId="5" r:id="rId2"/>
     <sheet name="Lists" sheetId="7" r:id="rId3"/>
     <sheet name="Order List" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACAExtCovCol">'[1]Station Detail'!$AB$13</definedName>
@@ -10092,6 +10093,98 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1709" name="Main Screen"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="127000"/>
+          <a:ext cx="13017500" cy="10160000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="154E54"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="154E54"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -10108,7 +10201,7 @@
         <xdr:cNvPr id="5" name="TEMPLATE - Icon_Alocations">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10868,7 +10961,7 @@
         <xdr:cNvPr id="7" name="TEMPLATE - Icon_Left_Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10912,7 +11005,7 @@
         <xdr:cNvPr id="8" name="TEMPLATE - Icon_Right_Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10956,7 +11049,7 @@
         <xdr:cNvPr id="9" name="TEMPLATE - Icon_New_Order">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}